--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CF91F-F3F1-40A9-AFC3-22009AA6997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182833BA-8C6E-45BD-8854-D4D31CBD25BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="338">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -75,9 +75,6 @@
     <t>0#前往洞窟口与猎人汇合#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Encuentra al Cazador junto a las cuevas.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线魔狼洞窟</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>0#击败狼群#1|trigger:世俗主线魔狼主线猎人晕倒</t>
   </si>
   <si>
-    <t>0#Derrota a los lobos.#1|trigger:世俗主线魔狼主线猎人晕倒</t>
-  </si>
-  <si>
     <t>世俗主线击败狼群头目</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>0#击败狼群头目#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Derrota al líder de la manada.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线查看猎人情况</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>0#查看猎人情况#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Verifica el estado del Cazador.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线查看火焰情况</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>0#靠近火焰#0|trigger:世俗主线魔狼主线猎人闪光2</t>
   </si>
   <si>
-    <t>0#Acércate a la llama.#0|trigger:世俗主线魔狼主线猎人闪光2</t>
-  </si>
-  <si>
     <t>世俗主线离开洞窟</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>0#离开洞窟#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Sal de las cuevas.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线启程</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>0#与猎人交谈#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Habla con el Cazador.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线启程2</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>0#与红石城守卫交谈#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Habla con el guardia de la Fortaleza Redstone.#1|火魔讨伐军招募</t>
-  </si>
-  <si>
     <t>主线红石城卫兵的认可1</t>
   </si>
   <si>
@@ -192,9 +168,6 @@
     <t>0#声望达到3#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Gana 3 Favores.3#1|火魔讨伐军招募</t>
-  </si>
-  <si>
     <t>主线红石城卫兵的认可2</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>0#拥有三支部队#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Ten tres escuadrones.#1|火魔讨伐军招募</t>
-  </si>
-  <si>
     <t>主线进攻火魔人营地</t>
   </si>
   <si>
@@ -219,9 +189,6 @@
     <t>0#攻下火魔人信徒的营地#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
   </si>
   <si>
-    <t>0#Ataca el campamento de los seguidores del Ifrit.#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
-  </si>
-  <si>
     <t>主线红石城矿场</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>0#完成剧情#1##沙盒红石城:2804,1203:300|红石城矿工</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1##沙盒红石城:2804,1203:300|红石城矿工</t>
-  </si>
-  <si>
     <t>主线红石城建设</t>
   </si>
   <si>
@@ -249,9 +213,6 @@
     <t>0#完成剧情#1|红石城卫兵长官</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1|红石城卫兵长官</t>
-  </si>
-  <si>
     <t>主线雄鹰野马</t>
   </si>
   <si>
@@ -262,9 +223,6 @@
   </si>
   <si>
     <t>0#完成剧情#1|红石城雄鹰部落使者</t>
-  </si>
-  <si>
-    <t>0#Completa la historia.#1|红石城雄鹰部落使者</t>
   </si>
   <si>
     <t>主线雄鹰任务</t>
@@ -280,9 +238,6 @@
     <t>0#完成剧情#1</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1</t>
-  </si>
-  <si>
     <t>主线野马任务</t>
   </si>
   <si>
@@ -332,9 +287,6 @@
     <t>0#赶走花卉乡东边的山贼#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
   </si>
   <si>
-    <t>0#Derrota a los bandidos al este de Fleur.#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
-  </si>
-  <si>
     <t>黑崖日蚀战争战场祭奠</t>
   </si>
   <si>
@@ -348,10 +300,6 @@
 0#前往花卉乡西南边的日蚀战争战场遗迹#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
   </si>
   <si>
-    <t>0#Viaja a dos sitios de batalla del Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000
-0#Viaja a dos sitios de batalla del Sol Negro B#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
-  </si>
-  <si>
     <t>黑崖守望老人</t>
   </si>
   <si>
@@ -364,9 +312,6 @@
     <t>0#前往老妇人居所#1|守望老妇人</t>
   </si>
   <si>
-    <t>0#Head to the old woman's house#1|守望老妇人</t>
-  </si>
-  <si>
     <t>黑崖守望老人2</t>
   </si>
   <si>
@@ -379,9 +324,6 @@
     <t>4#采摘十朵托琪拉花#10#托琪拉花#</t>
   </si>
   <si>
-    <t>4#Recoge diez flores de Tairquila.#10#托琪拉花#</t>
-  </si>
-  <si>
     <t>黑崖守望老人3</t>
   </si>
   <si>
@@ -394,9 +336,6 @@
     <t>0#完成剧情#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
-  </si>
-  <si>
     <t>寻找古代火焰战士雕像</t>
   </si>
   <si>
@@ -407,9 +346,6 @@
   </si>
   <si>
     <t>0#找到六座火焰战士雕像#6</t>
-  </si>
-  <si>
-    <t>0#Encuentra seis estatuas de guerreros de fuego.#6</t>
   </si>
   <si>
     <t>黑崖湖边少女</t>
@@ -426,11 +362,6 @@
 0#采摘新鲜的静穆女神之花#1|任务黑崖湖边少女</t>
   </si>
   <si>
-    <t>0#Recoge una orquídea fresca.#1
-0#Recoge una flor de serpiente azul fresca.#1
-0#Recoge una flor fresca de Namti.#1|任务黑崖湖边少女</t>
-  </si>
-  <si>
     <t>黑崖擂台</t>
   </si>
   <si>
@@ -443,9 +374,6 @@
     <t>0#赢取擂台挑战#1##沙盒黑崖花卉乡:-4563,-705:0</t>
   </si>
   <si>
-    <t>0#Reclama la victoria en el Desafío del Gladiador.#1##沙盒黑崖花卉乡:-4563,-705:0</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子</t>
   </si>
   <si>
@@ -458,9 +386,6 @@
     <t>0#寻找铁匠的儿子——托也普#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
-    <t>0#Encuentra al hijo del herrero, Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子2</t>
   </si>
   <si>
@@ -470,9 +395,6 @@
     <t>0#回到花卉乡找到老铁匠#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子21</t>
   </si>
   <si>
@@ -480,9 +402,6 @@
   </si>
   <si>
     <t>0#等待老铁匠找到托也普#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
-    <t>0#Espera a que el viejo herrero encuentre a Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
     <t>黑崖铁匠父子3</t>
@@ -495,10 +414,6 @@
 4#找到一套高级锻造工具#1#高级锻造工具#</t>
   </si>
   <si>
-    <t>4#Encuentra un conjunto de herramientas básicas de herrería.#1#基础锻造工具#
-4#Encuentra un conjunto de herramientas avanzadas de herrería.#1#高级锻造工具#</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子4</t>
   </si>
   <si>
@@ -508,9 +423,6 @@
     <t>0#对双方的作品进行评价#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
-    <t>0#Evalúa las obras maestras de herrería.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
     <t>人物任务墨敕恢复药剂</t>
   </si>
   <si>
@@ -523,9 +435,6 @@
     <t>4#恢复药剂#1#恢复药剂|无名营地药剂师</t>
   </si>
   <si>
-    <t>4#Elíxir de curación.#1#恢复药剂|无名营地药剂师</t>
-  </si>
-  <si>
     <t>人物任务墨敕花卉乡药师</t>
   </si>
   <si>
@@ -547,9 +456,6 @@
     <t>4#采集五朵苦花#5#苦花#</t>
   </si>
   <si>
-    <t>4#Reúne 5 flores amargas.#5#苦花#</t>
-  </si>
-  <si>
     <t>人物任务古扎卡拜访</t>
   </si>
   <si>
@@ -562,9 +468,6 @@
     <t>0#在古扎卡回到提提罗部落后前去拜访#1</t>
   </si>
   <si>
-    <t>0#Visita a Gulzar después de que regrese a la tribu Ximmeriana.#1</t>
-  </si>
-  <si>
     <t>人物任务古扎卡异样</t>
   </si>
   <si>
@@ -577,9 +480,6 @@
     <t>0#找到古扎卡#1##沙盒双月山谷:6226,5126:0</t>
   </si>
   <si>
-    <t>0#Encuentra a Gulzar.#1##沙盒双月山谷:6226,5126:0</t>
-  </si>
-  <si>
     <t>人物任务抓捕隆达</t>
   </si>
   <si>
@@ -592,9 +492,6 @@
     <t>0#找到隆达#1##沙盒黑崖花卉乡:3215,-118:0</t>
   </si>
   <si>
-    <t>0#Encuentra a Rabia.#1##沙盒黑崖花卉乡:3215,-118:0</t>
-  </si>
-  <si>
     <t>关于隆达的情报</t>
   </si>
   <si>
@@ -607,9 +504,6 @@
     <t>0#搜集线索#1|英雄伊潘图</t>
   </si>
   <si>
-    <t>0#Busca pistas.#1|英雄伊潘图</t>
-  </si>
-  <si>
     <t>人物任务旧王秘窟</t>
   </si>
   <si>
@@ -622,27 +516,18 @@
     <t>0#找到隆达#1|MapTp:沙盒旧王秘窟前段</t>
   </si>
   <si>
-    <t>0#Encuentra a Rabia.#1|MapTp:沙盒旧王秘窟前段</t>
-  </si>
-  <si>
     <t>人物任务伊潘图加入</t>
   </si>
   <si>
     <t>伊潘图</t>
   </si>
   <si>
-    <t>Ishtar</t>
-  </si>
-  <si>
     <t>[[imp:伊潘图]]感谢你的帮忙，如果想邀请他一起组队，可以去[[imp:红石城]]找他。</t>
   </si>
   <si>
     <t>0#找到伊潘图#1</t>
   </si>
   <si>
-    <t>0#Encuentra a Ishtar#1</t>
-  </si>
-  <si>
     <t>人物任务隆达加入</t>
   </si>
   <si>
@@ -655,9 +540,6 @@
     <t>0#找到隆达#1</t>
   </si>
   <si>
-    <t>0#Encuentra a Rabia#1</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用21</t>
   </si>
   <si>
@@ -670,9 +552,6 @@
     <t>0#寻找强盗营地#1|trigger:世俗主线密使任务通用2山洞标记</t>
   </si>
   <si>
-    <t>0#Encuentra el campamento de bandidos.#1|trigger:世俗主线密使任务通用2山洞标记</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用22</t>
   </si>
   <si>
@@ -682,9 +561,6 @@
     <t>0#找到鹰族使者复命#1</t>
   </si>
   <si>
-    <t>0#Encuentra al enviado Nasir.#1</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用31</t>
   </si>
   <si>
@@ -697,9 +573,6 @@
     <t>0#寻找被困的贵族#1|trigger:世俗主线密使任务通用3山洞标记</t>
   </si>
   <si>
-    <t>0#Encuentra a los nobles atrapados.#1|trigger:世俗主线密使任务通用3山洞标记</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用32</t>
   </si>
   <si>
@@ -718,9 +591,6 @@
     <t>0#寻找熔岩洞窟#1|trigger:世俗主线密使任务通用4山洞标记</t>
   </si>
   <si>
-    <t>0#Encuentra el Vacío de la Lava Pāhoehoe.#1|trigger:世俗主线密使任务通用4山洞标记</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用42</t>
   </si>
   <si>
@@ -737,9 +607,6 @@
   </si>
   <si>
     <t>0#赢得战斗#1</t>
-  </si>
-  <si>
-    <t>0#Reclama la victoria.#1</t>
   </si>
   <si>
     <t>雄鹰野马会战2</t>
@@ -776,292 +643,415 @@
 0#测试追踪项2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Prueba del Rastreador de Misiones 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
-0#Prueba del Rastreador de Misiones 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>Una Alianza de Caza</t>
-  </si>
-  <si>
-    <t>Cueva de los Lobos</t>
-  </si>
-  <si>
-    <t>Líder de la manada</t>
-  </si>
-  <si>
-    <t>Revisión del cazador</t>
-  </si>
-  <si>
-    <t>Dentro del fuego</t>
-  </si>
-  <si>
-    <t>Regreso de las cuevas</t>
-  </si>
-  <si>
-    <t>Poner en marcha</t>
-  </si>
-  <si>
-    <t>Reconocimiento</t>
-  </si>
-  <si>
     <t>Seguidores de Ifrit</t>
   </si>
   <si>
-    <t>Consejero</t>
-  </si>
-  <si>
     <t>Fortaleza de Redstone</t>
   </si>
   <si>
-    <t>El Nasir y el Akhal</t>
-  </si>
-  <si>
-    <t>El Nasir</t>
-  </si>
-  <si>
-    <t>El Akhal</t>
-  </si>
-  <si>
-    <t>Encuentro con un guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Combate con un guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Partida de un guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Bandidos en los Acantilados de Umbra</t>
-  </si>
-  <si>
-    <t>Restos de guerra</t>
-  </si>
-  <si>
-    <t>Harina de trigo</t>
-  </si>
-  <si>
-    <t>Enciende la linterna</t>
-  </si>
-  <si>
-    <t>Mantén la guardia</t>
-  </si>
-  <si>
-    <t>Estatuas de los Guerreros del Fuego</t>
-  </si>
-  <si>
-    <t>Recogiendo flores</t>
-  </si>
-  <si>
-    <t>Desafío del gladiador</t>
-  </si>
-  <si>
-    <t>El Smith y su hijo</t>
-  </si>
-  <si>
-    <t>Elixir de curación</t>
-  </si>
-  <si>
-    <t>Mago misterioso</t>
-  </si>
-  <si>
-    <t>Durmiendo borracho</t>
-  </si>
-  <si>
-    <t>Visita a los Ximmerianos</t>
-  </si>
-  <si>
-    <t>Rarezas</t>
-  </si>
-  <si>
-    <t>Buscando a Rabia</t>
-  </si>
-  <si>
-    <t>En busca de Rabia</t>
-  </si>
-  <si>
-    <t>La Catacumba del Viejo Rey</t>
-  </si>
-  <si>
-    <t>Anger</t>
-  </si>
-  <si>
     <t>Bandidos</t>
   </si>
   <si>
-    <t>Salva a los Nobles</t>
-  </si>
-  <si>
-    <t>Vacío de lava pāhoehoe</t>
-  </si>
-  <si>
-    <t>La Primera Batalla de Nasir y Akhal</t>
-  </si>
-  <si>
-    <t>La Segunda Batalla de Nasir y Akhal</t>
-  </si>
-  <si>
-    <t>La Tercera Batalla de Nasir y Akhal</t>
-  </si>
-  <si>
-    <t>Test de Misión</t>
-  </si>
-  <si>
-    <t>Un cazador local ha pedido unirse a ti para atrapar &lt;color=red&gt;Lobos&lt;/color&gt; y ha partido con anticipación. Hacen un acuerdo para encontrarse en la entrada de la cueva &lt;color=red&gt;al norte del campamento en el noroeste del Valle de Redstone&lt;/color&gt;, donde los lobos suelen cazar</t>
-  </si>
-  <si>
-    <t>¡Derrota a la manada de lobos al norte del campamento en las cuevas del noroeste del Valle de Redstone!</t>
-  </si>
-  <si>
-    <t>¡Ve a las cuevas y derrota al &lt;color=red&gt;Líder de la Manada de Lobos&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>Revisa al cazador desmayado</t>
-  </si>
-  <si>
-    <t>Echa un vistazo a las llamas que de repente emanan de las cuevas</t>
-  </si>
-  <si>
-    <t>¡Sal de las cuevas y regresa con las buenas noticias!</t>
-  </si>
-  <si>
-    <t>Vuelve al campamento y habla con el &lt;color=red&gt;Cazador&lt;/color&gt; en &lt;color=red&gt;el noroeste del Valle de Redstone&lt;/color&gt; una vez más</t>
-  </si>
-  <si>
-    <t>El cazador sugiere que encuentres un &lt;color=red&gt;Guardia&lt;/color&gt; en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para comenzar tu viaje de aventuras</t>
-  </si>
-  <si>
-    <t>El guardia de la Fortaleza Redstone no parece reconocerte. Vuelve una vez que hayas ganado 3 Favores</t>
-  </si>
-  <si>
-    <t>El Guardia de la Fortaleza de Redstone te pide que traigas 3 escuadrones de tropas para investigar la pelea en el Campamento de los Seguidores de Ifrit</t>
-  </si>
-  <si>
-    <t>Los &lt;color=red&gt;Seguidores de Ifrit&lt;/color&gt; se pueden encontrar &lt;color=red&gt;al suroeste de Crying Rock&lt;/color&gt; cerca de West Crag Outpost. &lt;color=red&gt;Dirígete hacia el norte desde Redstone Keep&lt;/color&gt; para llegar a Crying Rock</t>
-  </si>
-  <si>
-    <t>El Guardia de la Fortaleza Redstone te recomienda al Consigliere, quien está inspeccionando las minas al noreste de la Fortaleza Redstone. Sigue el camino hacia el este cuando salgas del Campamento Ember</t>
-  </si>
-  <si>
-    <t>El Oficial de la Guardia en el Castillo de Redstone te invita a ayudar a &lt;color=red&gt;reconstruir el pueblo&lt;/color&gt;. Obtén más detalles directamente de él</t>
-  </si>
-  <si>
-    <t>Las dos tribus más poderosas - &lt;color=red&gt;los Nasir&lt;/color&gt; y &lt;color=red&gt;los Akhal&lt;/color&gt; - han enviado enviados a Redstone Keep. Si estás considerando unirte a alguno de ellos, puede ser conveniente buscarlos</t>
-  </si>
-  <si>
-    <t>Decides unirte a &lt;color=red&gt;los Nasir&lt;/color&gt;, los gobernantes de la Ciudad de Jamal que derrocaron &lt;color=red&gt;la Antigua Dinastía Nephrit&lt;/color&gt; y conquistaron &lt;color=red&gt;la Ciudad de Jamal&lt;/color&gt;.
-Habla con su enviado en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para conocer las misiones que podrían tener preparadas para ti</t>
-  </si>
-  <si>
-    <t>Te unes a &lt;color=red&gt;los Akhal&lt;/color&gt;. Esta poderosa tribu del sur viene y va como el viento. Habla con su enviado en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para conocer las misiones que podrían tener preparadas para ti</t>
-  </si>
-  <si>
-    <t>Escucha la primera historia exagerada contada por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Escucha el segundo cuento exagerado contado por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Escucha el tercer cuento exagerado contado por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Un comerciante del pueblo de Fleur te habla sobre la creciente actividad de los merodeadores hacia el este y te suplica que pongas fin a su desorden</t>
-  </si>
-  <si>
-    <t>Coloca flores secas en dos sitios famosos de la Batalla del Sol Negro ubicados al este y suroeste de Fleur</t>
-  </si>
-  <si>
-    <t>Un anciano en Fleur te pide que lo ayudes a llevar un saco de harina de trigo a su anciana cerca</t>
-  </si>
-  <si>
-    <t>Aceptando la harina de trigo, la &lt;color=red&gt;anciana&lt;/color&gt; te pide un favor: arrancar &lt;color=red&gt;10 flores de Tairquila&lt;/color&gt; para que ella las exprima en parafina para su linterna</t>
-  </si>
-  <si>
-    <t>Te das cuenta de que la &lt;color=red&gt;anciana&lt;/color&gt; está completamente ciega, y que la parafina es para ayudar al &lt;color=red&gt;anciano&lt;/color&gt; a cuidarla en la oscuridad. Dudas sobre si &lt;color=red&gt;revelar esto al anciano&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Encuentra &lt;color=red&gt;6 o más&lt;/color&gt; Estatuas de Guerreros de Fuego antes de que expire la cuenta regresiva de &lt;color=red&gt;7 días&lt;/color&gt;. Informa al aventurero en Fleur una vez completado para reclamar tu premio</t>
-  </si>
-  <si>
-    <t>Una chica extraña en el lago cerca de los Acantilados Umbra de Fleur necesita una &lt;color=red&gt;Orquídea&lt;/color&gt;, una &lt;color=red&gt;Flor de Serpiente Azul&lt;/color&gt; y una &lt;color=red&gt;Flor Namti&lt;/color&gt; para producir su remedio universal. Las flores deben ser recién arrancadas &lt;color=red&gt;en los últimos 3 días&lt;/color&gt; para preparar la medicina</t>
-  </si>
-  <si>
-    <t>¡Los guerreros se han reunido en algún lugar cerca de los Acantilados Umbra de Fleur para celebrar un gran Desafío de Gladiadores! ¡Dirígete allí y reclama la corona!</t>
-  </si>
-  <si>
-    <t>Un herrero en Fleur te pide un favor: si te encuentras con un joven herrero llamado &lt;color=red&gt;Tabassum&lt;/color&gt;, ¿podrías decirle que regrese a casa, por favor?</t>
-  </si>
-  <si>
-    <t>Tabassum se niega a regresar a casa. Está trabajando tanto en sí mismo como en su oficio en soledad, y espera que puedas transmitirle el mensaje a su padre</t>
-  </si>
-  <si>
-    <t>Has persuadido al viejo herrero a visitar a su hijo</t>
-  </si>
-  <si>
-    <t>Reunidos, el herrero y su hijo deciden participar en una competencia amistosa, cada uno forjando una obra maestra. Tabassum te ha pedido un juego de &lt;color=red&gt;Herramientas Básicas de Forja&lt;/color&gt; y &lt;color=red&gt;Herramientas Avanzadas de Forja&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>El herrero y su hijo han completado sus obras maestras. La competencia está a punto de comenzar</t>
-  </si>
-  <si>
-    <t>Un hombre enfermizo llamado &lt;color=red&gt;Rwal&lt;/color&gt; llega al campamento, pidiendo una botella de &lt;color=red&gt;Elixir Curativo&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; puede saber cómo conseguirlo</t>
-  </si>
-  <si>
-    <t>Mochi menciona rumores de un brillante Apotecario en Fleur en los Acantilados de Umbra, él espera visitarlo algún día</t>
-  </si>
-  <si>
-    <t>Te encuentras con un hombre durmiendo en el Bazar Dorado que se niega a despertar, sin importar lo que intentes. Esperando que esté borracho, decides recolectar y destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; en un jugo, más que suficiente para despertar sus sentidos</t>
-  </si>
-  <si>
-    <t>Logras despertar a Gulzar de su sueño, quien rápidamente huye para unirse a la Tribu Ximmeriana. Si quieres volver a verlo, tendrás que esperar hasta que regrese con los Ximmerianos</t>
-  </si>
-  <si>
-    <t>Después de resucitar a Gulzar, él huye de regreso a los Ximmerianos, pero los guardias locales te niegan la entrada. Si quieres saber más, tendrás que abrirte paso a través de los guardias</t>
-  </si>
-  <si>
-    <t>Un hombre llamado Ishtar confiesa que ha estado tratando de atrapar a un poderoso líder de bandidos llamado Rabia, quien acecha alrededor de los Acantilados Umbra de Fleur</t>
-  </si>
-  <si>
-    <t>Después de que &lt;color=red&gt;Rabia&lt;/color&gt; se escapó, Ishtar sugiere que se separen para cubrir más terreno. Encuentrense con Ishtar de vez en cuando y compartan información sobre el paradero de Rabia. Esta también es una buena manera de aumentar tu &lt;color=red&gt;Favor&lt;/color&gt; con Ishtar</t>
-  </si>
-  <si>
-    <t>Después de que &lt;color=red&gt;Rabia&lt;/color&gt; huyó, Ishtar piensa que podría estar en las &lt;color=red&gt;Catacumbas del Viejo Rey&lt;/color&gt; escondidas cerca de los &lt;color=red&gt;Acantilados de Umbra de Fleur&lt;/color&gt;. Estas catacumbas están encantadas con una poderosa magia y son un símbolo duradero de la ruina real</t>
-  </si>
-  <si>
-    <t>Agradeciéndote por tu ayuda, &lt;color=red&gt;Ishtar&lt;/color&gt; se ofrece a unirse a tu grupo si así lo deseas. Encuéntralo nuevamente en &lt;color=red&gt;Redstone Keep&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Agradeciéndote por tu ayuda, &lt;color=red&gt;Rabia&lt;/color&gt; se ofrece a unirse a tu grupo si así lo deseas. Encuéntralo nuevamente en &lt;color=red&gt;Frost Valley&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Busca el campamento de bandidos en &lt;color=red&gt;Roca Llorona&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Ahora que los bandidos han sido eliminados, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Castillo de Piedra Roja</t>
-  </si>
-  <si>
-    <t>Dirígete a &lt;color=red&gt;Frost Valley cerca de las Montañas Zagros&lt;/color&gt; y rescata a los nobles indefensos de debajo de la avalancha</t>
-  </si>
-  <si>
-    <t>Ahora que los nobles han sido rescatados de manera segura, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Castillo de Piedra Roja</t>
-  </si>
-  <si>
-    <t>Busca el Vacío de Lava Pāhoehoe quemado por los Ghouls de Ifrit cerca de los &lt;color=red&gt;Acantilados de Umbra&lt;/color&gt; y reconstruye lo que realmente sucedió</t>
-  </si>
-  <si>
-    <t>Ahora que las bestias de la cueva han sido derrotadas, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Fuerte Redstone</t>
-  </si>
-  <si>
-    <t>Lucha en la &lt;color=red&gt;primera batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Lucha en la &lt;color=red&gt;segunda batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Lucha en la &lt;color=red&gt;tercera batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Un cazador local ha pedido unirse a ti para atrapar lobos y se ha adelantado. Hacen un acuerdo para encontrarse en la entrada de la cueva al norte del campamento en el noroeste del Valle Redstone, donde los lobos suelen cazar.
-Un cazador local ha pedido unirse a ti para atrapar lobos y se ha adelantado. Hacen un acuerdo para encontrarse en la entrada de la cueva al norte del campamento en el noroeste del Valle Redstone, donde los lobos suelen cazar</t>
+    <t>Uma aliança de caça</t>
+  </si>
+  <si>
+    <t>Caverna dos Lobos</t>
+  </si>
+  <si>
+    <t>Líder do bloco</t>
+  </si>
+  <si>
+    <t>Verificação do Caçador</t>
+  </si>
+  <si>
+    <t>Dentro do fogo</t>
+  </si>
+  <si>
+    <t>Retorno das Cavernas</t>
+  </si>
+  <si>
+    <t>Zarpar</t>
+  </si>
+  <si>
+    <t>Reconhecimento</t>
+  </si>
+  <si>
+    <t>Consultor</t>
+  </si>
+  <si>
+    <t>O Nasir e o Akhal</t>
+  </si>
+  <si>
+    <t>O Nasir</t>
+  </si>
+  <si>
+    <t>O Akhal</t>
+  </si>
+  <si>
+    <t>Encontro com um Guerreiro Covarde</t>
+  </si>
+  <si>
+    <t>Combate com um Guerreiro Covarde</t>
+  </si>
+  <si>
+    <t>Partida de um guerreiro covarde</t>
+  </si>
+  <si>
+    <t>Bandidos nos penhascos de Umbra</t>
+  </si>
+  <si>
+    <t>Resquícios de Guerra</t>
+  </si>
+  <si>
+    <t>Farinha de trigo</t>
+  </si>
+  <si>
+    <t>Acenda a lanterna</t>
+  </si>
+  <si>
+    <t>Mantenha a guarda</t>
+  </si>
+  <si>
+    <t>Estátuas dos Guerreiros do Fogo</t>
+  </si>
+  <si>
+    <t>Colhendo flores</t>
+  </si>
+  <si>
+    <t>Desafio Gladiador</t>
+  </si>
+  <si>
+    <t>O Ferreiro e Seu Filho</t>
+  </si>
+  <si>
+    <t>Elixir de Cura</t>
+  </si>
+  <si>
+    <t>Mago Misterioso</t>
+  </si>
+  <si>
+    <t>Dormindo Bêbado</t>
+  </si>
+  <si>
+    <t>Visite os Ximérios</t>
+  </si>
+  <si>
+    <t>Estranheza</t>
+  </si>
+  <si>
+    <t>Procurando por Rabia</t>
+  </si>
+  <si>
+    <t>Na caça à Rabia</t>
+  </si>
+  <si>
+    <t>Catacumba do Velho Rei</t>
+  </si>
+  <si>
+    <t>Istar</t>
+  </si>
+  <si>
+    <t>Rabia</t>
+  </si>
+  <si>
+    <t>Salve os Nobres</t>
+  </si>
+  <si>
+    <t>Vazio de Lava Pahoehoe</t>
+  </si>
+  <si>
+    <t>A Primeira Batalha do Nasir e do Akhal</t>
+  </si>
+  <si>
+    <t>A Segunda Batalha do Nasir e do Akhal</t>
+  </si>
+  <si>
+    <t>A Terceira Batalha do Nasir e do Akhal</t>
+  </si>
+  <si>
+    <t>Missão de teste</t>
+  </si>
+  <si>
+    <t>Um caçador local pediu para se juntar a você na captura de &lt;color=red&gt;lobos&lt;/color&gt; e partiu com antecedência. Você faz um acordo para se encontrar na entrada da caverna &lt;color=red&gt;ao norte do acampamento, no noroeste do Vale Redstone&lt;/color&gt;, onde os lobos costumam caçar.</t>
+  </si>
+  <si>
+    <t>Derrote a matilha de lobos &lt;color=red&gt;ao norte do acampamento, nas cavernas do noroeste do Vale Redstone&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>Vá para as cavernas e derrote o &lt;color=red&gt;Líder da Matilha de Lobos&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>Verifique o &lt;color=red&gt;Hunter&lt;/color&gt; desmaiado.</t>
+  </si>
+  <si>
+    <t>Confira as &lt;color=red&gt;chamas&lt;/color&gt; que emanam repentinamente das cavernas.</t>
+  </si>
+  <si>
+    <t>Saia das cavernas e volte com as boas notícias!</t>
+  </si>
+  <si>
+    <t>Volte ao acampamento e converse com o &lt;color=red&gt;Caçador&lt;/color&gt; no &lt;color=red&gt;noroeste do Vale Redstone&lt;/color&gt; mais uma vez.</t>
+  </si>
+  <si>
+    <t>O Caçador sugere que você encontre um &lt;color=red&gt;Guarda&lt;/color&gt; em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para iniciar sua jornada de aventuras!</t>
+  </si>
+  <si>
+    <t>A Redstone Keep Guard parece não reconhecer você. Volte assim que ganhar 3 favores.</t>
+  </si>
+  <si>
+    <t>A Guarda da Fortaleza de Redstone pede que você traga 3 esquadrões de tropas para investigar a luta no &lt;color=red&gt;Acampamento dos Seguidores Ifrit&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os &lt;color=red&gt;Seguidores Ifrit&lt;/color&gt; podem ser encontrados &lt;color=red&gt;sudoeste de Crying Rock&lt;/color&gt; perto do Posto Avançado West Crag. &lt;color=red&gt;Vá para o norte a partir de Redstone Keep&lt;/color&gt; para chegar a Crying Rock.</t>
+  </si>
+  <si>
+    <t>A Guarda da Fortaleza Redstone recomenda você ao &lt;color=red&gt;Consigliere&lt;/color&gt;, que está inspecionando as minas a &lt;color=red&gt;nordeste&lt;/color&gt; da Fortaleza Redstone. Siga a estrada leste ao sair do Ember Camp.</t>
+  </si>
+  <si>
+    <t>O Oficial da Guarda de Redstone Keep convida você para ajudar na &lt;color=red&gt;reconstrução da cidade&lt;/color&gt;. Obtenha mais detalhes diretamente dele.</t>
+  </si>
+  <si>
+    <t>As duas tribos mais poderosas - &lt;color=red&gt;os Nasir&lt;/color&gt; e &lt;color=red&gt;os Akhal&lt;/color&gt; - enviaram enviados para Redstone Keep. Se você está pensando em se juntar a um deles, pode valer a pena procurá-los.</t>
+  </si>
+  <si>
+    <t>Você decide se juntar aos &lt;color=red&gt;dos Nasir&lt;/color&gt;, os governantes da cidade de Jamal que derrubaram a &lt;color=red&gt;antiga dinastia Nephrit&lt;/color&gt; e conquistaram a &lt;color=red&gt;cidade de Jamal&lt;/color&gt;. Fale com o enviado deles em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para saber quais missões eles podem ter reservadas para você.</t>
+  </si>
+  <si>
+    <t>Você aposta tudo com &lt;color=red&gt;o Akhal&lt;/color&gt;. Esta poderosa tribo do sul vem e vai como o vento. Fale com o enviado deles em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para saber quais missões eles podem ter reservadas para você.</t>
+  </si>
+  <si>
+    <t>Ouça a primeira história contada pelo guerreiro a &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste de &lt;color=red&gt;Redstone Valley&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Ouça a segunda história contada pelo guerreiro a &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste de &lt;color=red&gt;Redstone Valley&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Ouça a terceira história contada pelo guerreiro a &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste de &lt;color=red&gt;Redstone Valley&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Um comerciante da vila de &lt;color=red&gt;Fleur&lt;/color&gt; conta sobre a intensificação da atividade dos saqueadores no &lt;color=red&gt;leste&lt;/color&gt; e implora que você acabe com a desordem.</t>
+  </si>
+  <si>
+    <t>Coloque flores secas em dois locais famosos da Batalha do Sol Negro localizados a &lt;color=red&gt;leste&lt;/color&gt; e &lt;color=red&gt;sudoeste&lt;/color&gt; de Fleur.</t>
+  </si>
+  <si>
+    <t>Um velho em Fleur pede que você o ajude a levar um saco de farinha de trigo para &lt;color=red&gt;sua senhora&lt;/color&gt; que está perto.</t>
+  </si>
+  <si>
+    <t>Aceitando a farinha de trigo, a &lt;color=red&gt;velha&lt;/color&gt; pede que você faça um favor a ela: colha &lt;color=red&gt;10 flores de Tairquila&lt;/color&gt; para ela espremer em parafina para sua lanterna.</t>
+  </si>
+  <si>
+    <t>Você percebe que a &lt;color=red&gt;velha&lt;/color&gt; é completamente cega e que a parafina serve para ajudar o &lt;color=red&gt;velho&lt;/color&gt; a cuidar dela na escuridão. Você fica pensando se deve &lt;color=red&gt;divulgar isso para o velho&lt;/color&gt;...</t>
+  </si>
+  <si>
+    <t>Encontre &lt;color=red&gt;6 ou mais&lt;/color&gt; estátuas de guerreiros do fogo antes que a &lt;color=red&gt;contagem regressiva de 7 dias&lt;/color&gt; termine. Volte ao aventureiro em Fleur assim que terminar para reivindicar seu prêmio.</t>
+  </si>
+  <si>
+    <t>Uma garota estranha no lago próximo aos Penhascos Umbra de Fleur precisa de uma &lt;color=red&gt;Orquídea&lt;/color&gt;, uma &lt;color=red&gt;Flor da Serpente Azul&lt;/color&gt; e uma &lt;color=red&gt;Flor Namti&lt;/ color&gt; para produzir sua cura para tudo. As flores devem ser colhidas recentemente &lt;color=red&gt;nos últimos 3 dias&lt;/color&gt; para preparar o medicamento.</t>
+  </si>
+  <si>
+    <t>Guerreiros se reuniram em algum lugar perto dos Penhascos Umbra de Fleur para realizar um grande Desafio de Gladiadores! Vá até lá e reivindique a coroa.</t>
+  </si>
+  <si>
+    <t>Um ferreiro em Fleur lhe pede um favor: se você encontrar um jovem ferreiro chamado &lt;color=red&gt;Tabassum&lt;/color&gt;, poderia dizer-lhe para voltar para casa?</t>
+  </si>
+  <si>
+    <t>Tabassum se recusa a voltar para casa. Ele está trabalhando sozinho e em seu ofício sozinho e espera que você possa transmitir a mensagem ao pai dele.</t>
+  </si>
+  <si>
+    <t>Você convenceu o velho ferreiro a visitar o filho.</t>
+  </si>
+  <si>
+    <t>Reunidos, o ferreiro e seu filho decidem participar de uma competição amigável, cada um forjando uma obra-prima. Tabassum pediu a você um conjunto de &lt;color=red&gt;Ferramentas Básicas de Forge&lt;/color&gt; e &lt;color=red&gt;Ferramentas Avançadas de Forge&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>O ferreiro e seu filho completaram suas obras-primas. A competição está prestes a começar...</t>
+  </si>
+  <si>
+    <t>Um homem doente chamado &lt;color=red&gt;Rwal&lt;/color&gt; chega ao acampamento pedindo uma garrafa de &lt;color=red&gt;Elixir de Cura&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; pode saber como obter isso.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;Mochi&lt;/color&gt; menciona rumores de um Boticário brilhante em &lt;color=red&gt;Fleur nos Penhascos Umbra&lt;/color&gt;, que ele espera visitar um dia.</t>
+  </si>
+  <si>
+    <t>Você encontra um homem dormindo no Bazar Dourado que se recusa a acordar, não importa o que você tente. Esperando que ele esteja bêbado, você decide reunir e destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; em um suco - mais do que suficiente para despertar seus sentidos.</t>
+  </si>
+  <si>
+    <t>Você consegue despertar &lt;color=red&gt;Gulzar&lt;/color&gt; de seu sono, que imediatamente foge para se juntar à &lt;color=red&gt;Tribo Ximmeriana&lt;/color&gt;. Se você quiser vê-lo novamente, terá que esperar até que ele volte para os &lt;color=red&gt;ximérios&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Depois de ressuscitar &lt;color=red&gt;Gulzar&lt;/color&gt;, ele foge de volta para os &lt;color=red&gt;ximérios&lt;/color&gt; - mas os guardas locais recusam sua entrada. Se quiser saber mais, você terá que passar pelos guardas.</t>
+  </si>
+  <si>
+    <t>Um homem chamado &lt;color=red&gt;Ishtar&lt;/color&gt; confessa que está tentando capturar um poderoso líder bandido chamado &lt;color=red&gt;Rabia&lt;/color&gt;&lt;color=red&gt;&lt;/color&gt;, que espreita pelo &lt;color=red&gt;Rabia&lt;/color&gt;. color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Após a fuga de &lt;color=red&gt;Rabia&lt;/color&gt;, Ishtar sugere que vocês se separem para cobrir mais terreno. Encontre-se com Isthar de vez em quando e compare notas sobre o paradeiro de Rabia. Esta também é uma boa maneira de aumentar seu &lt;color=red&gt;Favor&lt;/color&gt; com Ishtar.</t>
+  </si>
+  <si>
+    <t>Depois que &lt;color=red&gt;Rabia&lt;/color&gt; fugiu, Ishtar calcula que ele pode estar nas &lt;color=red&gt;Catacumbas do Velho Rei&lt;/color&gt;, escondidas perto dos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;. Estas catacumbas estão encantadas com magia poderosa e são um símbolo duradouro da ruína real.</t>
+  </si>
+  <si>
+    <t>Agradecendo sua ajuda, &lt;color=red&gt;Ishtar&lt;/color&gt; se oferece para se juntar ao seu grupo, caso você deseje. Encontre-o novamente em &lt;color=red&gt;Redstone Keep&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Agradecendo sua ajuda, &lt;color=red&gt;Rabia&lt;/color&gt; se oferece para se juntar ao seu grupo se você desejar. Encontre-o novamente em &lt;color=red&gt;Frost Valley&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Procure o acampamento dos bandidos em &lt;color=red&gt;Crying Rock&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Agora que os bandidos foram eliminados, reporte-se ao &lt;color=red&gt;Enviado Nasir&lt;/color&gt; em Redstone Keep.</t>
+  </si>
+  <si>
+    <t>Vá para &lt;color=red&gt;Frost Valley, perto das Montanhas Zagros&lt;/color&gt;, e resgate os nobres indefesos sob a avalanche.</t>
+  </si>
+  <si>
+    <t>Agora que os nobres foram resgatados com segurança, informe o &lt;color=red&gt;Enviado Nasir&lt;/color&gt; na Fortaleza Redstone.</t>
+  </si>
+  <si>
+    <t>Procure o Vazio de Lava Pāhoehoe queimado pelos Carniçais Ifrit perto dos &lt;color=red&gt;Penhascos Umbra&lt;/color&gt; e descubra o que realmente aconteceu.</t>
+  </si>
+  <si>
+    <t>Agora que as feras das cavernas foram mortas, informe o &lt;color=red&gt;Enviado de Nasir&lt;/color&gt; no Forte Redstone.</t>
+  </si>
+  <si>
+    <t>Lute na &lt;color=red&gt;primeira batalha entre Nasir e Akhal&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Lute na &lt;color=red&gt;segunda batalha entre Nasir e Akhal&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Lute na &lt;color=red&gt;terceira batalha entre Nasir e Akhal&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>0#Encontre-se com o Caçador nas cavernas#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Derrote os lobos#1|gatilho:世俗主线魔狼主线猎人晕倒</t>
+  </si>
+  <si>
+    <t>0#Derrote o Líder da Matilha#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Verifique o Caçador#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Aproxime-se das chamas#0|trigger:世俗主线魔狼主线猎人闪光2</t>
+  </si>
+  <si>
+    <t>0#Saia das cavernas#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Fale com o Caçador#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Fale com o Redstone Keep Guard#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Ganhe 3 favores3#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Tenha três times#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Ataque o acampamento dos Seguidores Ifrit#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
+  </si>
+  <si>
+    <t>0#Complete a história#1##沙盒红石城:2804,1203:300|红石城矿工</t>
+  </si>
+  <si>
+    <t>0#Complete a história#1|红石城卫兵长官</t>
+  </si>
+  <si>
+    <t>0#Complete a história#1|红石城雄鹰部落使者</t>
+  </si>
+  <si>
+    <t>0#Complete a história#1</t>
+  </si>
+  <si>
+    <t>0#Derrote os bandidos a leste de Fleur#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
+  </si>
+  <si>
+    <t>0#Viagem a dois locais de batalha do Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000 0#Viagem a dois locais de batalha do Sol Negro B#1##沙盒黑崖花卉乡:-2632 ,-2013:1000</t>
+  </si>
+  <si>
+    <t>0#Vá para a casa da velha#1|守望老妇人</t>
+  </si>
+  <si>
+    <t>4#Colete dez flores de Tairquila#10#托琪拉花#</t>
+  </si>
+  <si>
+    <t>0#Complete a história#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
+  </si>
+  <si>
+    <t>0#Encontre seis estátuas de Guerreiros do Fogo#6</t>
+  </si>
+  <si>
+    <t>0#Escolha uma orquídea fresca#1 0#Escolha uma flor de serpente azul fresca#1 0#Escolha uma flor de Namti fresca#1|任务黑崖湖边少女</t>
+  </si>
+  <si>
+    <t>0#Reivindicar vitória no Desafio do Gladiador#1##沙盒黑崖花卉乡:-4563,-705:0</t>
+  </si>
+  <si>
+    <t>0#Encontre o filho do ferreiro - Tabassum#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>0#Complete a história#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
+  </si>
+  <si>
+    <t>0#Espere o velho ferreiro encontrar Tabassum#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>4#Encontre um conjunto de ferramentas básicas de forja#1#基础锻造工具# 4#Encontre um conjunto de ferramentas avançadas de forja#1#高级锻造工具#</t>
+  </si>
+  <si>
+    <t>0#Avalie as obras-primas da ferraria#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>4#Elixir de Cura#1#恢复药剂|无名营地药剂师</t>
+  </si>
+  <si>
+    <t>4#Colete 5 Flores Amargas#5#苦花#</t>
+  </si>
+  <si>
+    <t>0#Visite Gulzar depois que ele retornar à tribo Ximéria#1</t>
+  </si>
+  <si>
+    <t>0#FInd Gulzar#1##沙盒双月山谷:6226,5126:0</t>
+  </si>
+  <si>
+    <t>0#Find Rabia#1##沙盒黑崖花卉乡:3215,-118:0</t>
+  </si>
+  <si>
+    <t>0#Procure por pistas#1|英雄伊潘图</t>
+  </si>
+  <si>
+    <t>0#Find Rabia#1|MapTp:沙盒旧王秘窟前段</t>
+  </si>
+  <si>
+    <t>0#Encontre Ishtar#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Rabia#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o acampamento dos bandidos#1|trigger:世俗主线密使任务通用2山洞标记</t>
+  </si>
+  <si>
+    <t>0#Encontre o Enviado Nasir#1</t>
+  </si>
+  <si>
+    <t>0#Encontre os nobres presos#1|trigger:世俗主线密使任务通用3山洞标记</t>
+  </si>
+  <si>
+    <t>0#Encontre o Vazio de Lava Pāhoehoe#1|trigger:世俗主线密使任务通用4山洞标记</t>
+  </si>
+  <si>
+    <t>0#Reivindicar vitória#1</t>
+  </si>
+  <si>
+    <t>0#Test Quest Tracker 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人 0#Test Quest Tracker 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1112,11 +1102,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1128,10 +1133,13 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1151,7 +1159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1449,13 +1457,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="6"/>
+    <col min="7" max="7" width="9.140625" style="6"/>
+    <col min="9" max="9" width="36.85546875" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="67.5" customHeight="1">
@@ -1494,8 +1504,8 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>245</v>
+      <c r="C2" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1503,1328 +1513,1328 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>287</v>
+      <c r="G2" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
+      <c r="I2" s="5" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>19</v>
+      <c r="I3" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
+      <c r="I4" s="5" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="81" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
+      <c r="I5" s="5" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="108" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" t="s">
-        <v>249</v>
+        <v>27</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>291</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" t="s">
-        <v>250</v>
+        <v>31</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>292</v>
+        <v>32</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>249</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="121.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>251</v>
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>293</v>
+        <v>36</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="175.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>294</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="121.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>295</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="148.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>252</v>
+        <v>42</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>211</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" t="s">
-        <v>296</v>
+        <v>46</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>253</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I11" t="s">
-        <v>57</v>
+        <v>47</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="216" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>253</v>
+        <v>49</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G12" t="s">
-        <v>297</v>
+        <v>50</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>254</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
+        <v>51</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="243" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" t="s">
-        <v>254</v>
+        <v>53</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" t="s">
-        <v>298</v>
+        <v>54</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>255</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" t="s">
-        <v>67</v>
+        <v>55</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="162" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>255</v>
+        <v>57</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>299</v>
+        <v>58</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" t="s">
-        <v>72</v>
+        <v>59</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="256.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>256</v>
+        <v>61</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>213</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" t="s">
-        <v>300</v>
+        <v>62</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>257</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="I15" t="s">
-        <v>77</v>
+        <v>63</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="408.95" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" t="s">
-        <v>257</v>
+        <v>65</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>214</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" t="s">
-        <v>301</v>
+        <v>66</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>258</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I16" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="310.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>258</v>
+        <v>69</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>215</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" t="s">
-        <v>302</v>
+        <v>70</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>259</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I17" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="148.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>259</v>
+        <v>72</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" t="s">
-        <v>303</v>
+        <v>73</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I18" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="148.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>260</v>
+        <v>75</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>217</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G19" t="s">
-        <v>304</v>
+        <v>76</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>261</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="148.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>261</v>
+        <v>78</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>218</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" t="s">
-        <v>305</v>
+        <v>79</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>262</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I20" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="189" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" t="s">
-        <v>262</v>
+        <v>81</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" t="s">
-        <v>306</v>
+        <v>82</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I21" t="s">
-        <v>99</v>
+        <v>83</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="351" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" t="s">
-        <v>263</v>
+        <v>85</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G22" t="s">
-        <v>307</v>
+        <v>86</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>104</v>
+        <v>87</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="162" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" t="s">
-        <v>264</v>
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>221</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G23" t="s">
-        <v>308</v>
+        <v>90</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>265</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="I23" t="s">
-        <v>109</v>
+        <v>91</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="189" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" t="s">
-        <v>265</v>
+        <v>93</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>222</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" t="s">
-        <v>309</v>
+        <v>94</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>266</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I24" t="s">
-        <v>114</v>
+        <v>95</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="310.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25" t="s">
-        <v>266</v>
+        <v>97</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>223</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" t="s">
-        <v>310</v>
+        <v>98</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I25" t="s">
-        <v>119</v>
+        <v>99</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="243" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C26" t="s">
-        <v>267</v>
+        <v>101</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G26" t="s">
-        <v>311</v>
+        <v>102</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="I26" t="s">
-        <v>124</v>
+        <v>103</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="351" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" t="s">
-        <v>268</v>
+        <v>105</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>225</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G27" t="s">
-        <v>312</v>
+        <v>106</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>269</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>129</v>
+        <v>107</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="121.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" t="s">
-        <v>269</v>
+        <v>109</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>226</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G28" t="s">
-        <v>313</v>
+        <v>110</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>270</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I28" t="s">
-        <v>134</v>
+        <v>111</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="202.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" t="s">
-        <v>270</v>
+        <v>113</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G29" t="s">
-        <v>314</v>
+        <v>114</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>271</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I29" t="s">
-        <v>139</v>
+        <v>115</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="175.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" t="s">
-        <v>270</v>
+        <v>113</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G30" t="s">
-        <v>315</v>
+        <v>117</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I30" t="s">
-        <v>143</v>
+        <v>118</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="162" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" t="s">
-        <v>270</v>
+        <v>113</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G31" t="s">
-        <v>316</v>
+        <v>120</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>273</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" t="s">
-        <v>147</v>
+        <v>121</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="324" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C32" t="s">
-        <v>270</v>
+        <v>113</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G32" t="s">
-        <v>317</v>
+        <v>123</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>274</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="162" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C33" t="s">
-        <v>270</v>
+        <v>113</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>227</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33" t="s">
-        <v>318</v>
+        <v>126</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>275</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="I33" t="s">
-        <v>155</v>
+        <v>127</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="270" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C34" t="s">
-        <v>271</v>
+        <v>129</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="G34" t="s">
-        <v>319</v>
+        <v>130</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" t="s">
-        <v>160</v>
+        <v>131</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="162" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C35" t="s">
-        <v>272</v>
+        <v>133</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>229</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" t="s">
-        <v>320</v>
+        <v>134</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>277</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="I35" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="310.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" t="s">
-        <v>273</v>
+        <v>136</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="G36" t="s">
-        <v>321</v>
+        <v>137</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="I36" t="s">
-        <v>168</v>
+        <v>138</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="283.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C37" t="s">
-        <v>274</v>
+        <v>140</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>231</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="G37" t="s">
-        <v>322</v>
+        <v>141</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>279</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="I37" t="s">
-        <v>173</v>
+        <v>142</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="283.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C38" t="s">
-        <v>275</v>
+        <v>144</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G38" t="s">
-        <v>323</v>
+        <v>145</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I38" t="s">
-        <v>178</v>
+        <v>146</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="216" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C39" t="s">
-        <v>276</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="G39" t="s">
-        <v>324</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="I39" t="s">
-        <v>183</v>
+      <c r="A39" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="256.5" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C40" t="s">
-        <v>277</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="G40" t="s">
-        <v>325</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="I40" t="s">
-        <v>188</v>
+      <c r="A40" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="256.5" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C41" t="s">
-        <v>278</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="G41" t="s">
-        <v>326</v>
-      </c>
-      <c r="H41" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I41" t="s">
-        <v>193</v>
+      <c r="A41" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="135" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="C42" t="s">
-        <v>196</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G42" t="s">
-        <v>327</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="I42" t="s">
-        <v>199</v>
+      <c r="A42" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="121.5" customHeight="1">
-      <c r="A43" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C43" t="s">
-        <v>279</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="G43" t="s">
-        <v>328</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="I43" t="s">
-        <v>204</v>
+      <c r="A43" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C44" t="s">
-        <v>280</v>
+        <v>168</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G44" t="s">
-        <v>329</v>
+        <v>169</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>286</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="I44" t="s">
-        <v>209</v>
+        <v>170</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="108" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" t="s">
-        <v>280</v>
+        <v>168</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="G45" t="s">
-        <v>330</v>
+        <v>172</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>287</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I45" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="121.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C46" t="s">
-        <v>281</v>
+        <v>175</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="G46" t="s">
-        <v>331</v>
+        <v>176</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="I46" t="s">
-        <v>218</v>
+        <v>177</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="108" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C47" t="s">
-        <v>281</v>
+        <v>175</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="G47" t="s">
-        <v>332</v>
+        <v>179</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>289</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I47" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="162" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C48" t="s">
-        <v>282</v>
+        <v>181</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" t="s">
-        <v>333</v>
+        <v>182</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>290</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I48" t="s">
-        <v>225</v>
+        <v>183</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="121.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="C49" t="s">
-        <v>282</v>
+        <v>181</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="G49" t="s">
-        <v>334</v>
+        <v>185</v>
+      </c>
+      <c r="G49" s="5" t="s">
+        <v>291</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" t="s">
-        <v>213</v>
+        <v>173</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="94.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C50" t="s">
-        <v>283</v>
+        <v>187</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="G50" t="s">
-        <v>335</v>
+        <v>188</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I50" t="s">
-        <v>232</v>
+        <v>189</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="94.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="C51" t="s">
-        <v>284</v>
+        <v>191</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G51" t="s">
+        <v>192</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I51" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I51" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="94.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C52" t="s">
-        <v>285</v>
+        <v>194</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>242</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G52" t="s">
-        <v>337</v>
+        <v>195</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>294</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I52" t="s">
-        <v>232</v>
+        <v>189</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="297" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C53" t="s">
-        <v>286</v>
+        <v>197</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G53" t="s">
-        <v>338</v>
+      <c r="G53" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>244</v>
+        <v>200</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182833BA-8C6E-45BD-8854-D4D31CBD25BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CF91F-F3F1-40A9-AFC3-22009AA6997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="339">
   <si>
     <t>任务ID_QuestID</t>
   </si>
@@ -75,6 +75,9 @@
     <t>0#前往洞窟口与猎人汇合#1|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>0#Encuentra al Cazador junto a las cuevas.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
     <t>世俗主线魔狼洞窟</t>
   </si>
   <si>
@@ -87,6 +90,9 @@
     <t>0#击败狼群#1|trigger:世俗主线魔狼主线猎人晕倒</t>
   </si>
   <si>
+    <t>0#Derrota a los lobos.#1|trigger:世俗主线魔狼主线猎人晕倒</t>
+  </si>
+  <si>
     <t>世俗主线击败狼群头目</t>
   </si>
   <si>
@@ -99,6 +105,9 @@
     <t>0#击败狼群头目#1|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>0#Derrota al líder de la manada.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
     <t>世俗主线查看猎人情况</t>
   </si>
   <si>
@@ -111,6 +120,9 @@
     <t>0#查看猎人情况#1|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>0#Verifica el estado del Cazador.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
     <t>世俗主线查看火焰情况</t>
   </si>
   <si>
@@ -123,6 +135,9 @@
     <t>0#靠近火焰#0|trigger:世俗主线魔狼主线猎人闪光2</t>
   </si>
   <si>
+    <t>0#Acércate a la llama.#0|trigger:世俗主线魔狼主线猎人闪光2</t>
+  </si>
+  <si>
     <t>世俗主线离开洞窟</t>
   </si>
   <si>
@@ -135,6 +150,9 @@
     <t>0#离开洞窟#1|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>0#Sal de las cuevas.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
     <t>世俗主线启程</t>
   </si>
   <si>
@@ -147,6 +165,9 @@
     <t>0#与猎人交谈#1|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>0#Habla con el Cazador.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
     <t>世俗主线启程2</t>
   </si>
   <si>
@@ -156,6 +177,9 @@
     <t>0#与红石城守卫交谈#1|火魔讨伐军招募</t>
   </si>
   <si>
+    <t>0#Habla con el guardia de la Fortaleza Redstone.#1|火魔讨伐军招募</t>
+  </si>
+  <si>
     <t>主线红石城卫兵的认可1</t>
   </si>
   <si>
@@ -168,6 +192,9 @@
     <t>0#声望达到3#1|火魔讨伐军招募</t>
   </si>
   <si>
+    <t>0#Gana 3 Favores.3#1|火魔讨伐军招募</t>
+  </si>
+  <si>
     <t>主线红石城卫兵的认可2</t>
   </si>
   <si>
@@ -177,6 +204,9 @@
     <t>0#拥有三支部队#1|火魔讨伐军招募</t>
   </si>
   <si>
+    <t>0#Ten tres escuadrones.#1|火魔讨伐军招募</t>
+  </si>
+  <si>
     <t>主线进攻火魔人营地</t>
   </si>
   <si>
@@ -189,6 +219,9 @@
     <t>0#攻下火魔人信徒的营地#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
   </si>
   <si>
+    <t>0#Ataca el campamento de los seguidores del Ifrit.#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
+  </si>
+  <si>
     <t>主线红石城矿场</t>
   </si>
   <si>
@@ -201,6 +234,9 @@
     <t>0#完成剧情#1##沙盒红石城:2804,1203:300|红石城矿工</t>
   </si>
   <si>
+    <t>0#Completa la historia.#1##沙盒红石城:2804,1203:300|红石城矿工</t>
+  </si>
+  <si>
     <t>主线红石城建设</t>
   </si>
   <si>
@@ -213,6 +249,9 @@
     <t>0#完成剧情#1|红石城卫兵长官</t>
   </si>
   <si>
+    <t>0#Completa la historia.#1|红石城卫兵长官</t>
+  </si>
+  <si>
     <t>主线雄鹰野马</t>
   </si>
   <si>
@@ -223,6 +262,9 @@
   </si>
   <si>
     <t>0#完成剧情#1|红石城雄鹰部落使者</t>
+  </si>
+  <si>
+    <t>0#Completa la historia.#1|红石城雄鹰部落使者</t>
   </si>
   <si>
     <t>主线雄鹰任务</t>
@@ -238,6 +280,9 @@
     <t>0#完成剧情#1</t>
   </si>
   <si>
+    <t>0#Completa la historia.#1</t>
+  </si>
+  <si>
     <t>主线野马任务</t>
   </si>
   <si>
@@ -287,6 +332,9 @@
     <t>0#赶走花卉乡东边的山贼#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
   </si>
   <si>
+    <t>0#Derrota a los bandidos al este de Fleur.#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
+  </si>
+  <si>
     <t>黑崖日蚀战争战场祭奠</t>
   </si>
   <si>
@@ -300,6 +348,10 @@
 0#前往花卉乡西南边的日蚀战争战场遗迹#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
   </si>
   <si>
+    <t>0#Viaja a dos sitios de batalla del Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000
+0#Viaja a dos sitios de batalla del Sol Negro B#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
+  </si>
+  <si>
     <t>黑崖守望老人</t>
   </si>
   <si>
@@ -312,6 +364,9 @@
     <t>0#前往老妇人居所#1|守望老妇人</t>
   </si>
   <si>
+    <t>0#Head to the old woman's house#1|守望老妇人</t>
+  </si>
+  <si>
     <t>黑崖守望老人2</t>
   </si>
   <si>
@@ -324,6 +379,9 @@
     <t>4#采摘十朵托琪拉花#10#托琪拉花#</t>
   </si>
   <si>
+    <t>4#Recoge diez flores de Tairquila.#10#托琪拉花#</t>
+  </si>
+  <si>
     <t>黑崖守望老人3</t>
   </si>
   <si>
@@ -336,6 +394,9 @@
     <t>0#完成剧情#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
   </si>
   <si>
+    <t>0#Completa la historia.#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
+  </si>
+  <si>
     <t>寻找古代火焰战士雕像</t>
   </si>
   <si>
@@ -346,6 +407,9 @@
   </si>
   <si>
     <t>0#找到六座火焰战士雕像#6</t>
+  </si>
+  <si>
+    <t>0#Encuentra seis estatuas de guerreros de fuego.#6</t>
   </si>
   <si>
     <t>黑崖湖边少女</t>
@@ -362,6 +426,11 @@
 0#采摘新鲜的静穆女神之花#1|任务黑崖湖边少女</t>
   </si>
   <si>
+    <t>0#Recoge una orquídea fresca.#1
+0#Recoge una flor de serpiente azul fresca.#1
+0#Recoge una flor fresca de Namti.#1|任务黑崖湖边少女</t>
+  </si>
+  <si>
     <t>黑崖擂台</t>
   </si>
   <si>
@@ -374,6 +443,9 @@
     <t>0#赢取擂台挑战#1##沙盒黑崖花卉乡:-4563,-705:0</t>
   </si>
   <si>
+    <t>0#Reclama la victoria en el Desafío del Gladiador.#1##沙盒黑崖花卉乡:-4563,-705:0</t>
+  </si>
+  <si>
     <t>黑崖铁匠父子</t>
   </si>
   <si>
@@ -386,6 +458,9 @@
     <t>0#寻找铁匠的儿子——托也普#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
+    <t>0#Encuentra al hijo del herrero, Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
     <t>黑崖铁匠父子2</t>
   </si>
   <si>
@@ -395,6 +470,9 @@
     <t>0#回到花卉乡找到老铁匠#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
   </si>
   <si>
+    <t>0#Completa la historia.#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
+  </si>
+  <si>
     <t>黑崖铁匠父子21</t>
   </si>
   <si>
@@ -402,6 +480,9 @@
   </si>
   <si>
     <t>0#等待老铁匠找到托也普#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>0#Espera a que el viejo herrero encuentre a Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
     <t>黑崖铁匠父子3</t>
@@ -414,6 +495,10 @@
 4#找到一套高级锻造工具#1#高级锻造工具#</t>
   </si>
   <si>
+    <t>4#Encuentra un conjunto de herramientas básicas de herrería.#1#基础锻造工具#
+4#Encuentra un conjunto de herramientas avanzadas de herrería.#1#高级锻造工具#</t>
+  </si>
+  <si>
     <t>黑崖铁匠父子4</t>
   </si>
   <si>
@@ -423,6 +508,9 @@
     <t>0#对双方的作品进行评价#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
+    <t>0#Evalúa las obras maestras de herrería.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
     <t>人物任务墨敕恢复药剂</t>
   </si>
   <si>
@@ -435,6 +523,9 @@
     <t>4#恢复药剂#1#恢复药剂|无名营地药剂师</t>
   </si>
   <si>
+    <t>4#Elíxir de curación.#1#恢复药剂|无名营地药剂师</t>
+  </si>
+  <si>
     <t>人物任务墨敕花卉乡药师</t>
   </si>
   <si>
@@ -456,6 +547,9 @@
     <t>4#采集五朵苦花#5#苦花#</t>
   </si>
   <si>
+    <t>4#Reúne 5 flores amargas.#5#苦花#</t>
+  </si>
+  <si>
     <t>人物任务古扎卡拜访</t>
   </si>
   <si>
@@ -468,6 +562,9 @@
     <t>0#在古扎卡回到提提罗部落后前去拜访#1</t>
   </si>
   <si>
+    <t>0#Visita a Gulzar después de que regrese a la tribu Ximmeriana.#1</t>
+  </si>
+  <si>
     <t>人物任务古扎卡异样</t>
   </si>
   <si>
@@ -480,6 +577,9 @@
     <t>0#找到古扎卡#1##沙盒双月山谷:6226,5126:0</t>
   </si>
   <si>
+    <t>0#Encuentra a Gulzar.#1##沙盒双月山谷:6226,5126:0</t>
+  </si>
+  <si>
     <t>人物任务抓捕隆达</t>
   </si>
   <si>
@@ -492,6 +592,9 @@
     <t>0#找到隆达#1##沙盒黑崖花卉乡:3215,-118:0</t>
   </si>
   <si>
+    <t>0#Encuentra a Rabia.#1##沙盒黑崖花卉乡:3215,-118:0</t>
+  </si>
+  <si>
     <t>关于隆达的情报</t>
   </si>
   <si>
@@ -504,6 +607,9 @@
     <t>0#搜集线索#1|英雄伊潘图</t>
   </si>
   <si>
+    <t>0#Busca pistas.#1|英雄伊潘图</t>
+  </si>
+  <si>
     <t>人物任务旧王秘窟</t>
   </si>
   <si>
@@ -516,18 +622,27 @@
     <t>0#找到隆达#1|MapTp:沙盒旧王秘窟前段</t>
   </si>
   <si>
+    <t>0#Encuentra a Rabia.#1|MapTp:沙盒旧王秘窟前段</t>
+  </si>
+  <si>
     <t>人物任务伊潘图加入</t>
   </si>
   <si>
     <t>伊潘图</t>
   </si>
   <si>
+    <t>Ishtar</t>
+  </si>
+  <si>
     <t>[[imp:伊潘图]]感谢你的帮忙，如果想邀请他一起组队，可以去[[imp:红石城]]找他。</t>
   </si>
   <si>
     <t>0#找到伊潘图#1</t>
   </si>
   <si>
+    <t>0#Encuentra a Ishtar#1</t>
+  </si>
+  <si>
     <t>人物任务隆达加入</t>
   </si>
   <si>
@@ -540,6 +655,9 @@
     <t>0#找到隆达#1</t>
   </si>
   <si>
+    <t>0#Encuentra a Rabia#1</t>
+  </si>
+  <si>
     <t>世俗主线密使任务通用21</t>
   </si>
   <si>
@@ -552,6 +670,9 @@
     <t>0#寻找强盗营地#1|trigger:世俗主线密使任务通用2山洞标记</t>
   </si>
   <si>
+    <t>0#Encuentra el campamento de bandidos.#1|trigger:世俗主线密使任务通用2山洞标记</t>
+  </si>
+  <si>
     <t>世俗主线密使任务通用22</t>
   </si>
   <si>
@@ -561,6 +682,9 @@
     <t>0#找到鹰族使者复命#1</t>
   </si>
   <si>
+    <t>0#Encuentra al enviado Nasir.#1</t>
+  </si>
+  <si>
     <t>世俗主线密使任务通用31</t>
   </si>
   <si>
@@ -573,6 +697,9 @@
     <t>0#寻找被困的贵族#1|trigger:世俗主线密使任务通用3山洞标记</t>
   </si>
   <si>
+    <t>0#Encuentra a los nobles atrapados.#1|trigger:世俗主线密使任务通用3山洞标记</t>
+  </si>
+  <si>
     <t>世俗主线密使任务通用32</t>
   </si>
   <si>
@@ -591,6 +718,9 @@
     <t>0#寻找熔岩洞窟#1|trigger:世俗主线密使任务通用4山洞标记</t>
   </si>
   <si>
+    <t>0#Encuentra el Vacío de la Lava Pāhoehoe.#1|trigger:世俗主线密使任务通用4山洞标记</t>
+  </si>
+  <si>
     <t>世俗主线密使任务通用42</t>
   </si>
   <si>
@@ -607,6 +737,9 @@
   </si>
   <si>
     <t>0#赢得战斗#1</t>
+  </si>
+  <si>
+    <t>0#Reclama la victoria.#1</t>
   </si>
   <si>
     <t>雄鹰野马会战2</t>
@@ -643,415 +776,292 @@
 0#测试追踪项2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>0#Prueba del Rastreador de Misiones 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
+0#Prueba del Rastreador de Misiones 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>Una Alianza de Caza</t>
+  </si>
+  <si>
+    <t>Cueva de los Lobos</t>
+  </si>
+  <si>
+    <t>Líder de la manada</t>
+  </si>
+  <si>
+    <t>Revisión del cazador</t>
+  </si>
+  <si>
+    <t>Dentro del fuego</t>
+  </si>
+  <si>
+    <t>Regreso de las cuevas</t>
+  </si>
+  <si>
+    <t>Poner en marcha</t>
+  </si>
+  <si>
+    <t>Reconocimiento</t>
+  </si>
+  <si>
     <t>Seguidores de Ifrit</t>
   </si>
   <si>
+    <t>Consejero</t>
+  </si>
+  <si>
     <t>Fortaleza de Redstone</t>
   </si>
   <si>
+    <t>El Nasir y el Akhal</t>
+  </si>
+  <si>
+    <t>El Nasir</t>
+  </si>
+  <si>
+    <t>El Akhal</t>
+  </si>
+  <si>
+    <t>Encuentro con un guerrero cobarde</t>
+  </si>
+  <si>
+    <t>Combate con un guerrero cobarde</t>
+  </si>
+  <si>
+    <t>Partida de un guerrero cobarde</t>
+  </si>
+  <si>
+    <t>Bandidos en los Acantilados de Umbra</t>
+  </si>
+  <si>
+    <t>Restos de guerra</t>
+  </si>
+  <si>
+    <t>Harina de trigo</t>
+  </si>
+  <si>
+    <t>Enciende la linterna</t>
+  </si>
+  <si>
+    <t>Mantén la guardia</t>
+  </si>
+  <si>
+    <t>Estatuas de los Guerreros del Fuego</t>
+  </si>
+  <si>
+    <t>Recogiendo flores</t>
+  </si>
+  <si>
+    <t>Desafío del gladiador</t>
+  </si>
+  <si>
+    <t>El Smith y su hijo</t>
+  </si>
+  <si>
+    <t>Elixir de curación</t>
+  </si>
+  <si>
+    <t>Mago misterioso</t>
+  </si>
+  <si>
+    <t>Durmiendo borracho</t>
+  </si>
+  <si>
+    <t>Visita a los Ximmerianos</t>
+  </si>
+  <si>
+    <t>Rarezas</t>
+  </si>
+  <si>
+    <t>Buscando a Rabia</t>
+  </si>
+  <si>
+    <t>En busca de Rabia</t>
+  </si>
+  <si>
+    <t>La Catacumba del Viejo Rey</t>
+  </si>
+  <si>
+    <t>Anger</t>
+  </si>
+  <si>
     <t>Bandidos</t>
   </si>
   <si>
-    <t>Uma aliança de caça</t>
-  </si>
-  <si>
-    <t>Caverna dos Lobos</t>
-  </si>
-  <si>
-    <t>Líder do bloco</t>
-  </si>
-  <si>
-    <t>Verificação do Caçador</t>
-  </si>
-  <si>
-    <t>Dentro do fogo</t>
-  </si>
-  <si>
-    <t>Retorno das Cavernas</t>
-  </si>
-  <si>
-    <t>Zarpar</t>
-  </si>
-  <si>
-    <t>Reconhecimento</t>
-  </si>
-  <si>
-    <t>Consultor</t>
-  </si>
-  <si>
-    <t>O Nasir e o Akhal</t>
-  </si>
-  <si>
-    <t>O Nasir</t>
-  </si>
-  <si>
-    <t>O Akhal</t>
-  </si>
-  <si>
-    <t>Encontro com um Guerreiro Covarde</t>
-  </si>
-  <si>
-    <t>Combate com um Guerreiro Covarde</t>
-  </si>
-  <si>
-    <t>Partida de um guerreiro covarde</t>
-  </si>
-  <si>
-    <t>Bandidos nos penhascos de Umbra</t>
-  </si>
-  <si>
-    <t>Resquícios de Guerra</t>
-  </si>
-  <si>
-    <t>Farinha de trigo</t>
-  </si>
-  <si>
-    <t>Acenda a lanterna</t>
-  </si>
-  <si>
-    <t>Mantenha a guarda</t>
-  </si>
-  <si>
-    <t>Estátuas dos Guerreiros do Fogo</t>
-  </si>
-  <si>
-    <t>Colhendo flores</t>
-  </si>
-  <si>
-    <t>Desafio Gladiador</t>
-  </si>
-  <si>
-    <t>O Ferreiro e Seu Filho</t>
-  </si>
-  <si>
-    <t>Elixir de Cura</t>
-  </si>
-  <si>
-    <t>Mago Misterioso</t>
-  </si>
-  <si>
-    <t>Dormindo Bêbado</t>
-  </si>
-  <si>
-    <t>Visite os Ximérios</t>
-  </si>
-  <si>
-    <t>Estranheza</t>
-  </si>
-  <si>
-    <t>Procurando por Rabia</t>
-  </si>
-  <si>
-    <t>Na caça à Rabia</t>
-  </si>
-  <si>
-    <t>Catacumba do Velho Rei</t>
-  </si>
-  <si>
-    <t>Istar</t>
-  </si>
-  <si>
-    <t>Rabia</t>
-  </si>
-  <si>
-    <t>Salve os Nobres</t>
-  </si>
-  <si>
-    <t>Vazio de Lava Pahoehoe</t>
-  </si>
-  <si>
-    <t>A Primeira Batalha do Nasir e do Akhal</t>
-  </si>
-  <si>
-    <t>A Segunda Batalha do Nasir e do Akhal</t>
-  </si>
-  <si>
-    <t>A Terceira Batalha do Nasir e do Akhal</t>
-  </si>
-  <si>
-    <t>Missão de teste</t>
-  </si>
-  <si>
-    <t>Um caçador local pediu para se juntar a você na captura de &lt;color=red&gt;lobos&lt;/color&gt; e partiu com antecedência. Você faz um acordo para se encontrar na entrada da caverna &lt;color=red&gt;ao norte do acampamento, no noroeste do Vale Redstone&lt;/color&gt;, onde os lobos costumam caçar.</t>
-  </si>
-  <si>
-    <t>Derrote a matilha de lobos &lt;color=red&gt;ao norte do acampamento, nas cavernas do noroeste do Vale Redstone&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>Vá para as cavernas e derrote o &lt;color=red&gt;Líder da Matilha de Lobos&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>Verifique o &lt;color=red&gt;Hunter&lt;/color&gt; desmaiado.</t>
-  </si>
-  <si>
-    <t>Confira as &lt;color=red&gt;chamas&lt;/color&gt; que emanam repentinamente das cavernas.</t>
-  </si>
-  <si>
-    <t>Saia das cavernas e volte com as boas notícias!</t>
-  </si>
-  <si>
-    <t>Volte ao acampamento e converse com o &lt;color=red&gt;Caçador&lt;/color&gt; no &lt;color=red&gt;noroeste do Vale Redstone&lt;/color&gt; mais uma vez.</t>
-  </si>
-  <si>
-    <t>O Caçador sugere que você encontre um &lt;color=red&gt;Guarda&lt;/color&gt; em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para iniciar sua jornada de aventuras!</t>
-  </si>
-  <si>
-    <t>A Redstone Keep Guard parece não reconhecer você. Volte assim que ganhar 3 favores.</t>
-  </si>
-  <si>
-    <t>A Guarda da Fortaleza de Redstone pede que você traga 3 esquadrões de tropas para investigar a luta no &lt;color=red&gt;Acampamento dos Seguidores Ifrit&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Os &lt;color=red&gt;Seguidores Ifrit&lt;/color&gt; podem ser encontrados &lt;color=red&gt;sudoeste de Crying Rock&lt;/color&gt; perto do Posto Avançado West Crag. &lt;color=red&gt;Vá para o norte a partir de Redstone Keep&lt;/color&gt; para chegar a Crying Rock.</t>
-  </si>
-  <si>
-    <t>A Guarda da Fortaleza Redstone recomenda você ao &lt;color=red&gt;Consigliere&lt;/color&gt;, que está inspecionando as minas a &lt;color=red&gt;nordeste&lt;/color&gt; da Fortaleza Redstone. Siga a estrada leste ao sair do Ember Camp.</t>
-  </si>
-  <si>
-    <t>O Oficial da Guarda de Redstone Keep convida você para ajudar na &lt;color=red&gt;reconstrução da cidade&lt;/color&gt;. Obtenha mais detalhes diretamente dele.</t>
-  </si>
-  <si>
-    <t>As duas tribos mais poderosas - &lt;color=red&gt;os Nasir&lt;/color&gt; e &lt;color=red&gt;os Akhal&lt;/color&gt; - enviaram enviados para Redstone Keep. Se você está pensando em se juntar a um deles, pode valer a pena procurá-los.</t>
-  </si>
-  <si>
-    <t>Você decide se juntar aos &lt;color=red&gt;dos Nasir&lt;/color&gt;, os governantes da cidade de Jamal que derrubaram a &lt;color=red&gt;antiga dinastia Nephrit&lt;/color&gt; e conquistaram a &lt;color=red&gt;cidade de Jamal&lt;/color&gt;. Fale com o enviado deles em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para saber quais missões eles podem ter reservadas para você.</t>
-  </si>
-  <si>
-    <t>Você aposta tudo com &lt;color=red&gt;o Akhal&lt;/color&gt;. Esta poderosa tribo do sul vem e vai como o vento. Fale com o enviado deles em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para saber quais missões eles podem ter reservadas para você.</t>
-  </si>
-  <si>
-    <t>Ouça a primeira história contada pelo guerreiro a &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste de &lt;color=red&gt;Redstone Valley&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Ouça a segunda história contada pelo guerreiro a &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste de &lt;color=red&gt;Redstone Valley&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Ouça a terceira história contada pelo guerreiro a &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste de &lt;color=red&gt;Redstone Valley&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Um comerciante da vila de &lt;color=red&gt;Fleur&lt;/color&gt; conta sobre a intensificação da atividade dos saqueadores no &lt;color=red&gt;leste&lt;/color&gt; e implora que você acabe com a desordem.</t>
-  </si>
-  <si>
-    <t>Coloque flores secas em dois locais famosos da Batalha do Sol Negro localizados a &lt;color=red&gt;leste&lt;/color&gt; e &lt;color=red&gt;sudoeste&lt;/color&gt; de Fleur.</t>
-  </si>
-  <si>
-    <t>Um velho em Fleur pede que você o ajude a levar um saco de farinha de trigo para &lt;color=red&gt;sua senhora&lt;/color&gt; que está perto.</t>
-  </si>
-  <si>
-    <t>Aceitando a farinha de trigo, a &lt;color=red&gt;velha&lt;/color&gt; pede que você faça um favor a ela: colha &lt;color=red&gt;10 flores de Tairquila&lt;/color&gt; para ela espremer em parafina para sua lanterna.</t>
-  </si>
-  <si>
-    <t>Você percebe que a &lt;color=red&gt;velha&lt;/color&gt; é completamente cega e que a parafina serve para ajudar o &lt;color=red&gt;velho&lt;/color&gt; a cuidar dela na escuridão. Você fica pensando se deve &lt;color=red&gt;divulgar isso para o velho&lt;/color&gt;...</t>
-  </si>
-  <si>
-    <t>Encontre &lt;color=red&gt;6 ou mais&lt;/color&gt; estátuas de guerreiros do fogo antes que a &lt;color=red&gt;contagem regressiva de 7 dias&lt;/color&gt; termine. Volte ao aventureiro em Fleur assim que terminar para reivindicar seu prêmio.</t>
-  </si>
-  <si>
-    <t>Uma garota estranha no lago próximo aos Penhascos Umbra de Fleur precisa de uma &lt;color=red&gt;Orquídea&lt;/color&gt;, uma &lt;color=red&gt;Flor da Serpente Azul&lt;/color&gt; e uma &lt;color=red&gt;Flor Namti&lt;/ color&gt; para produzir sua cura para tudo. As flores devem ser colhidas recentemente &lt;color=red&gt;nos últimos 3 dias&lt;/color&gt; para preparar o medicamento.</t>
-  </si>
-  <si>
-    <t>Guerreiros se reuniram em algum lugar perto dos Penhascos Umbra de Fleur para realizar um grande Desafio de Gladiadores! Vá até lá e reivindique a coroa.</t>
-  </si>
-  <si>
-    <t>Um ferreiro em Fleur lhe pede um favor: se você encontrar um jovem ferreiro chamado &lt;color=red&gt;Tabassum&lt;/color&gt;, poderia dizer-lhe para voltar para casa?</t>
-  </si>
-  <si>
-    <t>Tabassum se recusa a voltar para casa. Ele está trabalhando sozinho e em seu ofício sozinho e espera que você possa transmitir a mensagem ao pai dele.</t>
-  </si>
-  <si>
-    <t>Você convenceu o velho ferreiro a visitar o filho.</t>
-  </si>
-  <si>
-    <t>Reunidos, o ferreiro e seu filho decidem participar de uma competição amigável, cada um forjando uma obra-prima. Tabassum pediu a você um conjunto de &lt;color=red&gt;Ferramentas Básicas de Forge&lt;/color&gt; e &lt;color=red&gt;Ferramentas Avançadas de Forge&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>O ferreiro e seu filho completaram suas obras-primas. A competição está prestes a começar...</t>
-  </si>
-  <si>
-    <t>Um homem doente chamado &lt;color=red&gt;Rwal&lt;/color&gt; chega ao acampamento pedindo uma garrafa de &lt;color=red&gt;Elixir de Cura&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; pode saber como obter isso.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;Mochi&lt;/color&gt; menciona rumores de um Boticário brilhante em &lt;color=red&gt;Fleur nos Penhascos Umbra&lt;/color&gt;, que ele espera visitar um dia.</t>
-  </si>
-  <si>
-    <t>Você encontra um homem dormindo no Bazar Dourado que se recusa a acordar, não importa o que você tente. Esperando que ele esteja bêbado, você decide reunir e destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; em um suco - mais do que suficiente para despertar seus sentidos.</t>
-  </si>
-  <si>
-    <t>Você consegue despertar &lt;color=red&gt;Gulzar&lt;/color&gt; de seu sono, que imediatamente foge para se juntar à &lt;color=red&gt;Tribo Ximmeriana&lt;/color&gt;. Se você quiser vê-lo novamente, terá que esperar até que ele volte para os &lt;color=red&gt;ximérios&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Depois de ressuscitar &lt;color=red&gt;Gulzar&lt;/color&gt;, ele foge de volta para os &lt;color=red&gt;ximérios&lt;/color&gt; - mas os guardas locais recusam sua entrada. Se quiser saber mais, você terá que passar pelos guardas.</t>
-  </si>
-  <si>
-    <t>Um homem chamado &lt;color=red&gt;Ishtar&lt;/color&gt; confessa que está tentando capturar um poderoso líder bandido chamado &lt;color=red&gt;Rabia&lt;/color&gt;&lt;color=red&gt;&lt;/color&gt;, que espreita pelo &lt;color=red&gt;Rabia&lt;/color&gt;. color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Após a fuga de &lt;color=red&gt;Rabia&lt;/color&gt;, Ishtar sugere que vocês se separem para cobrir mais terreno. Encontre-se com Isthar de vez em quando e compare notas sobre o paradeiro de Rabia. Esta também é uma boa maneira de aumentar seu &lt;color=red&gt;Favor&lt;/color&gt; com Ishtar.</t>
-  </si>
-  <si>
-    <t>Depois que &lt;color=red&gt;Rabia&lt;/color&gt; fugiu, Ishtar calcula que ele pode estar nas &lt;color=red&gt;Catacumbas do Velho Rei&lt;/color&gt;, escondidas perto dos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;. Estas catacumbas estão encantadas com magia poderosa e são um símbolo duradouro da ruína real.</t>
-  </si>
-  <si>
-    <t>Agradecendo sua ajuda, &lt;color=red&gt;Ishtar&lt;/color&gt; se oferece para se juntar ao seu grupo, caso você deseje. Encontre-o novamente em &lt;color=red&gt;Redstone Keep&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Agradecendo sua ajuda, &lt;color=red&gt;Rabia&lt;/color&gt; se oferece para se juntar ao seu grupo se você desejar. Encontre-o novamente em &lt;color=red&gt;Frost Valley&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Procure o acampamento dos bandidos em &lt;color=red&gt;Crying Rock&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Agora que os bandidos foram eliminados, reporte-se ao &lt;color=red&gt;Enviado Nasir&lt;/color&gt; em Redstone Keep.</t>
-  </si>
-  <si>
-    <t>Vá para &lt;color=red&gt;Frost Valley, perto das Montanhas Zagros&lt;/color&gt;, e resgate os nobres indefesos sob a avalanche.</t>
-  </si>
-  <si>
-    <t>Agora que os nobres foram resgatados com segurança, informe o &lt;color=red&gt;Enviado Nasir&lt;/color&gt; na Fortaleza Redstone.</t>
-  </si>
-  <si>
-    <t>Procure o Vazio de Lava Pāhoehoe queimado pelos Carniçais Ifrit perto dos &lt;color=red&gt;Penhascos Umbra&lt;/color&gt; e descubra o que realmente aconteceu.</t>
-  </si>
-  <si>
-    <t>Agora que as feras das cavernas foram mortas, informe o &lt;color=red&gt;Enviado de Nasir&lt;/color&gt; no Forte Redstone.</t>
-  </si>
-  <si>
-    <t>Lute na &lt;color=red&gt;primeira batalha entre Nasir e Akhal&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Lute na &lt;color=red&gt;segunda batalha entre Nasir e Akhal&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Lute na &lt;color=red&gt;terceira batalha entre Nasir e Akhal&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>0#Encontre-se com o Caçador nas cavernas#1|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>0#Derrote os lobos#1|gatilho:世俗主线魔狼主线猎人晕倒</t>
-  </si>
-  <si>
-    <t>0#Derrote o Líder da Matilha#1|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>0#Verifique o Caçador#1|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>0#Aproxime-se das chamas#0|trigger:世俗主线魔狼主线猎人闪光2</t>
-  </si>
-  <si>
-    <t>0#Saia das cavernas#1|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>0#Fale com o Caçador#1|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>0#Fale com o Redstone Keep Guard#1|火魔讨伐军招募</t>
-  </si>
-  <si>
-    <t>0#Ganhe 3 favores3#1|火魔讨伐军招募</t>
-  </si>
-  <si>
-    <t>0#Tenha três times#1|火魔讨伐军招募</t>
-  </si>
-  <si>
-    <t>0#Ataque o acampamento dos Seguidores Ifrit#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
-  </si>
-  <si>
-    <t>0#Complete a história#1##沙盒红石城:2804,1203:300|红石城矿工</t>
-  </si>
-  <si>
-    <t>0#Complete a história#1|红石城卫兵长官</t>
-  </si>
-  <si>
-    <t>0#Complete a história#1|红石城雄鹰部落使者</t>
-  </si>
-  <si>
-    <t>0#Complete a história#1</t>
-  </si>
-  <si>
-    <t>0#Derrote os bandidos a leste de Fleur#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
-  </si>
-  <si>
-    <t>0#Viagem a dois locais de batalha do Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000 0#Viagem a dois locais de batalha do Sol Negro B#1##沙盒黑崖花卉乡:-2632 ,-2013:1000</t>
-  </si>
-  <si>
-    <t>0#Vá para a casa da velha#1|守望老妇人</t>
-  </si>
-  <si>
-    <t>4#Colete dez flores de Tairquila#10#托琪拉花#</t>
-  </si>
-  <si>
-    <t>0#Complete a história#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
-  </si>
-  <si>
-    <t>0#Encontre seis estátuas de Guerreiros do Fogo#6</t>
-  </si>
-  <si>
-    <t>0#Escolha uma orquídea fresca#1 0#Escolha uma flor de serpente azul fresca#1 0#Escolha uma flor de Namti fresca#1|任务黑崖湖边少女</t>
-  </si>
-  <si>
-    <t>0#Reivindicar vitória no Desafio do Gladiador#1##沙盒黑崖花卉乡:-4563,-705:0</t>
-  </si>
-  <si>
-    <t>0#Encontre o filho do ferreiro - Tabassum#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
-    <t>0#Complete a história#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
-  </si>
-  <si>
-    <t>0#Espere o velho ferreiro encontrar Tabassum#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
-    <t>4#Encontre um conjunto de ferramentas básicas de forja#1#基础锻造工具# 4#Encontre um conjunto de ferramentas avançadas de forja#1#高级锻造工具#</t>
-  </si>
-  <si>
-    <t>0#Avalie as obras-primas da ferraria#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
-    <t>4#Elixir de Cura#1#恢复药剂|无名营地药剂师</t>
-  </si>
-  <si>
-    <t>4#Colete 5 Flores Amargas#5#苦花#</t>
-  </si>
-  <si>
-    <t>0#Visite Gulzar depois que ele retornar à tribo Ximéria#1</t>
-  </si>
-  <si>
-    <t>0#FInd Gulzar#1##沙盒双月山谷:6226,5126:0</t>
-  </si>
-  <si>
-    <t>0#Find Rabia#1##沙盒黑崖花卉乡:3215,-118:0</t>
-  </si>
-  <si>
-    <t>0#Procure por pistas#1|英雄伊潘图</t>
-  </si>
-  <si>
-    <t>0#Find Rabia#1|MapTp:沙盒旧王秘窟前段</t>
-  </si>
-  <si>
-    <t>0#Encontre Ishtar#1</t>
-  </si>
-  <si>
-    <t>0#Encontre Rabia#1</t>
-  </si>
-  <si>
-    <t>0#Encontre o acampamento dos bandidos#1|trigger:世俗主线密使任务通用2山洞标记</t>
-  </si>
-  <si>
-    <t>0#Encontre o Enviado Nasir#1</t>
-  </si>
-  <si>
-    <t>0#Encontre os nobres presos#1|trigger:世俗主线密使任务通用3山洞标记</t>
-  </si>
-  <si>
-    <t>0#Encontre o Vazio de Lava Pāhoehoe#1|trigger:世俗主线密使任务通用4山洞标记</t>
-  </si>
-  <si>
-    <t>0#Reivindicar vitória#1</t>
-  </si>
-  <si>
-    <t>0#Test Quest Tracker 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人 0#Test Quest Tracker 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
+    <t>Salva a los Nobles</t>
+  </si>
+  <si>
+    <t>Vacío de lava pāhoehoe</t>
+  </si>
+  <si>
+    <t>La Primera Batalla de Nasir y Akhal</t>
+  </si>
+  <si>
+    <t>La Segunda Batalla de Nasir y Akhal</t>
+  </si>
+  <si>
+    <t>La Tercera Batalla de Nasir y Akhal</t>
+  </si>
+  <si>
+    <t>Test de Misión</t>
+  </si>
+  <si>
+    <t>Un cazador local ha pedido unirse a ti para atrapar &lt;color=red&gt;Lobos&lt;/color&gt; y ha partido con anticipación. Hacen un acuerdo para encontrarse en la entrada de la cueva &lt;color=red&gt;al norte del campamento en el noroeste del Valle de Redstone&lt;/color&gt;, donde los lobos suelen cazar</t>
+  </si>
+  <si>
+    <t>¡Derrota a la manada de lobos al norte del campamento en las cuevas del noroeste del Valle de Redstone!</t>
+  </si>
+  <si>
+    <t>¡Ve a las cuevas y derrota al &lt;color=red&gt;Líder de la Manada de Lobos&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>Revisa al cazador desmayado</t>
+  </si>
+  <si>
+    <t>Echa un vistazo a las llamas que de repente emanan de las cuevas</t>
+  </si>
+  <si>
+    <t>¡Sal de las cuevas y regresa con las buenas noticias!</t>
+  </si>
+  <si>
+    <t>Vuelve al campamento y habla con el &lt;color=red&gt;Cazador&lt;/color&gt; en &lt;color=red&gt;el noroeste del Valle de Redstone&lt;/color&gt; una vez más</t>
+  </si>
+  <si>
+    <t>El cazador sugiere que encuentres un &lt;color=red&gt;Guardia&lt;/color&gt; en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para comenzar tu viaje de aventuras</t>
+  </si>
+  <si>
+    <t>El guardia de la Fortaleza Redstone no parece reconocerte. Vuelve una vez que hayas ganado 3 Favores</t>
+  </si>
+  <si>
+    <t>El Guardia de la Fortaleza de Redstone te pide que traigas 3 escuadrones de tropas para investigar la pelea en el Campamento de los Seguidores de Ifrit</t>
+  </si>
+  <si>
+    <t>Los &lt;color=red&gt;Seguidores de Ifrit&lt;/color&gt; se pueden encontrar &lt;color=red&gt;al suroeste de Crying Rock&lt;/color&gt; cerca de West Crag Outpost. &lt;color=red&gt;Dirígete hacia el norte desde Redstone Keep&lt;/color&gt; para llegar a Crying Rock</t>
+  </si>
+  <si>
+    <t>El Guardia de la Fortaleza Redstone te recomienda al Consigliere, quien está inspeccionando las minas al noreste de la Fortaleza Redstone. Sigue el camino hacia el este cuando salgas del Campamento Ember</t>
+  </si>
+  <si>
+    <t>El Oficial de la Guardia en el Castillo de Redstone te invita a ayudar a &lt;color=red&gt;reconstruir el pueblo&lt;/color&gt;. Obtén más detalles directamente de él</t>
+  </si>
+  <si>
+    <t>Las dos tribus más poderosas - &lt;color=red&gt;los Nasir&lt;/color&gt; y &lt;color=red&gt;los Akhal&lt;/color&gt; - han enviado enviados a Redstone Keep. Si estás considerando unirte a alguno de ellos, puede ser conveniente buscarlos</t>
+  </si>
+  <si>
+    <t>Decides unirte a &lt;color=red&gt;los Nasir&lt;/color&gt;, los gobernantes de la Ciudad de Jamal que derrocaron &lt;color=red&gt;la Antigua Dinastía Nephrit&lt;/color&gt; y conquistaron &lt;color=red&gt;la Ciudad de Jamal&lt;/color&gt;.
+Habla con su enviado en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para conocer las misiones que podrían tener preparadas para ti</t>
+  </si>
+  <si>
+    <t>Te unes a &lt;color=red&gt;los Akhal&lt;/color&gt;. Esta poderosa tribu del sur viene y va como el viento. Habla con su enviado en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para conocer las misiones que podrían tener preparadas para ti</t>
+  </si>
+  <si>
+    <t>Escucha la primera historia exagerada contada por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
+  </si>
+  <si>
+    <t>Escucha el segundo cuento exagerado contado por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
+  </si>
+  <si>
+    <t>Escucha el tercer cuento exagerado contado por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
+  </si>
+  <si>
+    <t>Un comerciante del pueblo de Fleur te habla sobre la creciente actividad de los merodeadores hacia el este y te suplica que pongas fin a su desorden</t>
+  </si>
+  <si>
+    <t>Coloca flores secas en dos sitios famosos de la Batalla del Sol Negro ubicados al este y suroeste de Fleur</t>
+  </si>
+  <si>
+    <t>Un anciano en Fleur te pide que lo ayudes a llevar un saco de harina de trigo a su anciana cerca</t>
+  </si>
+  <si>
+    <t>Aceptando la harina de trigo, la &lt;color=red&gt;anciana&lt;/color&gt; te pide un favor: arrancar &lt;color=red&gt;10 flores de Tairquila&lt;/color&gt; para que ella las exprima en parafina para su linterna</t>
+  </si>
+  <si>
+    <t>Te das cuenta de que la &lt;color=red&gt;anciana&lt;/color&gt; está completamente ciega, y que la parafina es para ayudar al &lt;color=red&gt;anciano&lt;/color&gt; a cuidarla en la oscuridad. Dudas sobre si &lt;color=red&gt;revelar esto al anciano&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Encuentra &lt;color=red&gt;6 o más&lt;/color&gt; Estatuas de Guerreros de Fuego antes de que expire la cuenta regresiva de &lt;color=red&gt;7 días&lt;/color&gt;. Informa al aventurero en Fleur una vez completado para reclamar tu premio</t>
+  </si>
+  <si>
+    <t>Una chica extraña en el lago cerca de los Acantilados Umbra de Fleur necesita una &lt;color=red&gt;Orquídea&lt;/color&gt;, una &lt;color=red&gt;Flor de Serpiente Azul&lt;/color&gt; y una &lt;color=red&gt;Flor Namti&lt;/color&gt; para producir su remedio universal. Las flores deben ser recién arrancadas &lt;color=red&gt;en los últimos 3 días&lt;/color&gt; para preparar la medicina</t>
+  </si>
+  <si>
+    <t>¡Los guerreros se han reunido en algún lugar cerca de los Acantilados Umbra de Fleur para celebrar un gran Desafío de Gladiadores! ¡Dirígete allí y reclama la corona!</t>
+  </si>
+  <si>
+    <t>Un herrero en Fleur te pide un favor: si te encuentras con un joven herrero llamado &lt;color=red&gt;Tabassum&lt;/color&gt;, ¿podrías decirle que regrese a casa, por favor?</t>
+  </si>
+  <si>
+    <t>Tabassum se niega a regresar a casa. Está trabajando tanto en sí mismo como en su oficio en soledad, y espera que puedas transmitirle el mensaje a su padre</t>
+  </si>
+  <si>
+    <t>Has persuadido al viejo herrero a visitar a su hijo</t>
+  </si>
+  <si>
+    <t>Reunidos, el herrero y su hijo deciden participar en una competencia amistosa, cada uno forjando una obra maestra. Tabassum te ha pedido un juego de &lt;color=red&gt;Herramientas Básicas de Forja&lt;/color&gt; y &lt;color=red&gt;Herramientas Avanzadas de Forja&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>El herrero y su hijo han completado sus obras maestras. La competencia está a punto de comenzar</t>
+  </si>
+  <si>
+    <t>Un hombre enfermizo llamado &lt;color=red&gt;Rwal&lt;/color&gt; llega al campamento, pidiendo una botella de &lt;color=red&gt;Elixir Curativo&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; puede saber cómo conseguirlo</t>
+  </si>
+  <si>
+    <t>Mochi menciona rumores de un brillante Apotecario en Fleur en los Acantilados de Umbra, él espera visitarlo algún día</t>
+  </si>
+  <si>
+    <t>Te encuentras con un hombre durmiendo en el Bazar Dorado que se niega a despertar, sin importar lo que intentes. Esperando que esté borracho, decides recolectar y destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; en un jugo, más que suficiente para despertar sus sentidos</t>
+  </si>
+  <si>
+    <t>Logras despertar a Gulzar de su sueño, quien rápidamente huye para unirse a la Tribu Ximmeriana. Si quieres volver a verlo, tendrás que esperar hasta que regrese con los Ximmerianos</t>
+  </si>
+  <si>
+    <t>Después de resucitar a Gulzar, él huye de regreso a los Ximmerianos, pero los guardias locales te niegan la entrada. Si quieres saber más, tendrás que abrirte paso a través de los guardias</t>
+  </si>
+  <si>
+    <t>Un hombre llamado Ishtar confiesa que ha estado tratando de atrapar a un poderoso líder de bandidos llamado Rabia, quien acecha alrededor de los Acantilados Umbra de Fleur</t>
+  </si>
+  <si>
+    <t>Después de que &lt;color=red&gt;Rabia&lt;/color&gt; se escapó, Ishtar sugiere que se separen para cubrir más terreno. Encuentrense con Ishtar de vez en cuando y compartan información sobre el paradero de Rabia. Esta también es una buena manera de aumentar tu &lt;color=red&gt;Favor&lt;/color&gt; con Ishtar</t>
+  </si>
+  <si>
+    <t>Después de que &lt;color=red&gt;Rabia&lt;/color&gt; huyó, Ishtar piensa que podría estar en las &lt;color=red&gt;Catacumbas del Viejo Rey&lt;/color&gt; escondidas cerca de los &lt;color=red&gt;Acantilados de Umbra de Fleur&lt;/color&gt;. Estas catacumbas están encantadas con una poderosa magia y son un símbolo duradero de la ruina real</t>
+  </si>
+  <si>
+    <t>Agradeciéndote por tu ayuda, &lt;color=red&gt;Ishtar&lt;/color&gt; se ofrece a unirse a tu grupo si así lo deseas. Encuéntralo nuevamente en &lt;color=red&gt;Redstone Keep&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Agradeciéndote por tu ayuda, &lt;color=red&gt;Rabia&lt;/color&gt; se ofrece a unirse a tu grupo si así lo deseas. Encuéntralo nuevamente en &lt;color=red&gt;Frost Valley&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Busca el campamento de bandidos en &lt;color=red&gt;Roca Llorona&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Ahora que los bandidos han sido eliminados, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Castillo de Piedra Roja</t>
+  </si>
+  <si>
+    <t>Dirígete a &lt;color=red&gt;Frost Valley cerca de las Montañas Zagros&lt;/color&gt; y rescata a los nobles indefensos de debajo de la avalancha</t>
+  </si>
+  <si>
+    <t>Ahora que los nobles han sido rescatados de manera segura, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Castillo de Piedra Roja</t>
+  </si>
+  <si>
+    <t>Busca el Vacío de Lava Pāhoehoe quemado por los Ghouls de Ifrit cerca de los &lt;color=red&gt;Acantilados de Umbra&lt;/color&gt; y reconstruye lo que realmente sucedió</t>
+  </si>
+  <si>
+    <t>Ahora que las bestias de la cueva han sido derrotadas, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Fuerte Redstone</t>
+  </si>
+  <si>
+    <t>Lucha en la &lt;color=red&gt;primera batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Lucha en la &lt;color=red&gt;segunda batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Lucha en la &lt;color=red&gt;tercera batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Un cazador local ha pedido unirse a ti para atrapar lobos y se ha adelantado. Hacen un acuerdo para encontrarse en la entrada de la cueva al norte del campamento en el noroeste del Valle Redstone, donde los lobos suelen cazar.
+Un cazador local ha pedido unirse a ti para atrapar lobos y se ha adelantado. Hacen un acuerdo para encontrarse en la entrada de la cueva al norte del campamento en el noroeste del Valle Redstone, donde los lobos suelen cazar</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1104,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1102,26 +1112,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1133,13 +1128,10 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1159,7 +1151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1457,15 +1449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="6"/>
-    <col min="7" max="7" width="9.140625" style="6"/>
-    <col min="9" max="9" width="36.85546875" style="6" customWidth="1"/>
+    <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="67.5" customHeight="1">
@@ -1504,8 +1494,8 @@
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>204</v>
+      <c r="C2" t="s">
+        <v>245</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1513,1328 +1503,1328 @@
       <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>244</v>
+      <c r="G2" t="s">
+        <v>287</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>295</v>
+      <c r="I2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>205</v>
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>246</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>245</v>
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>288</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>296</v>
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>206</v>
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>247</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>246</v>
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>289</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>297</v>
+        <v>23</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="81" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>207</v>
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>248</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>247</v>
+        <v>27</v>
+      </c>
+      <c r="G5" t="s">
+        <v>290</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>298</v>
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="108" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>208</v>
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>249</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>248</v>
+        <v>32</v>
+      </c>
+      <c r="G6" t="s">
+        <v>291</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>299</v>
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>209</v>
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>250</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>249</v>
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>292</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>300</v>
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="121.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>210</v>
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>251</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>250</v>
+        <v>42</v>
+      </c>
+      <c r="G8" t="s">
+        <v>293</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>301</v>
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="175.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>210</v>
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>251</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>251</v>
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>294</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>302</v>
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="121.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>211</v>
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>252</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>252</v>
+        <v>51</v>
+      </c>
+      <c r="G10" t="s">
+        <v>295</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>303</v>
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="148.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>211</v>
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>252</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>253</v>
+        <v>55</v>
+      </c>
+      <c r="G11" t="s">
+        <v>296</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>304</v>
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="216" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>201</v>
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>253</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>254</v>
+        <v>60</v>
+      </c>
+      <c r="G12" t="s">
+        <v>297</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>305</v>
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="243" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>212</v>
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>255</v>
+        <v>65</v>
+      </c>
+      <c r="G13" t="s">
+        <v>298</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>306</v>
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="162" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>202</v>
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>255</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>256</v>
+        <v>70</v>
+      </c>
+      <c r="G14" t="s">
+        <v>299</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>307</v>
+        <v>71</v>
+      </c>
+      <c r="I14" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="256.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>213</v>
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>256</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>257</v>
+        <v>75</v>
+      </c>
+      <c r="G15" t="s">
+        <v>300</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>308</v>
+        <v>76</v>
+      </c>
+      <c r="I15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="408.95" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>214</v>
+        <v>79</v>
+      </c>
+      <c r="C16" t="s">
+        <v>257</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>258</v>
+        <v>80</v>
+      </c>
+      <c r="G16" t="s">
+        <v>301</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>309</v>
+        <v>81</v>
+      </c>
+      <c r="I16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="310.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>215</v>
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>258</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>259</v>
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>302</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>309</v>
+        <v>81</v>
+      </c>
+      <c r="I17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="148.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>216</v>
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>259</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>260</v>
+        <v>88</v>
+      </c>
+      <c r="G18" t="s">
+        <v>303</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>309</v>
+        <v>81</v>
+      </c>
+      <c r="I18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="148.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>217</v>
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>260</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>261</v>
+        <v>91</v>
+      </c>
+      <c r="G19" t="s">
+        <v>304</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>309</v>
+        <v>81</v>
+      </c>
+      <c r="I19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="148.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>218</v>
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>261</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>262</v>
+        <v>94</v>
+      </c>
+      <c r="G20" t="s">
+        <v>305</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>309</v>
+        <v>81</v>
+      </c>
+      <c r="I20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="189" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>219</v>
+        <v>96</v>
+      </c>
+      <c r="C21" t="s">
+        <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>263</v>
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>306</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>310</v>
+        <v>98</v>
+      </c>
+      <c r="I21" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="351" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>220</v>
+        <v>101</v>
+      </c>
+      <c r="C22" t="s">
+        <v>263</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>264</v>
+        <v>102</v>
+      </c>
+      <c r="G22" t="s">
+        <v>307</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>311</v>
+        <v>103</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="162" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>221</v>
+        <v>106</v>
+      </c>
+      <c r="C23" t="s">
+        <v>264</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>265</v>
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>308</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>312</v>
+        <v>108</v>
+      </c>
+      <c r="I23" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="189" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>222</v>
+        <v>111</v>
+      </c>
+      <c r="C24" t="s">
+        <v>265</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>266</v>
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>309</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>313</v>
+        <v>113</v>
+      </c>
+      <c r="I24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="310.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>223</v>
+        <v>116</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>267</v>
+        <v>117</v>
+      </c>
+      <c r="G25" t="s">
+        <v>310</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>314</v>
+        <v>118</v>
+      </c>
+      <c r="I25" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="243" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>224</v>
+        <v>121</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>268</v>
+        <v>122</v>
+      </c>
+      <c r="G26" t="s">
+        <v>311</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>315</v>
+        <v>123</v>
+      </c>
+      <c r="I26" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="351" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>225</v>
+        <v>126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>268</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>269</v>
+        <v>127</v>
+      </c>
+      <c r="G27" t="s">
+        <v>312</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>316</v>
+        <v>128</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="121.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>226</v>
+        <v>131</v>
+      </c>
+      <c r="C28" t="s">
+        <v>269</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>270</v>
+        <v>132</v>
+      </c>
+      <c r="G28" t="s">
+        <v>313</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>317</v>
+        <v>133</v>
+      </c>
+      <c r="I28" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="202.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>270</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>271</v>
+        <v>137</v>
+      </c>
+      <c r="G29" t="s">
+        <v>314</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>318</v>
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="175.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
+      </c>
+      <c r="C30" t="s">
+        <v>270</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>272</v>
+        <v>141</v>
+      </c>
+      <c r="G30" t="s">
+        <v>315</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>319</v>
+        <v>142</v>
+      </c>
+      <c r="I30" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="162" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
+      </c>
+      <c r="C31" t="s">
+        <v>270</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>273</v>
+        <v>145</v>
+      </c>
+      <c r="G31" t="s">
+        <v>316</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>320</v>
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="324" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
+      </c>
+      <c r="C32" t="s">
+        <v>270</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>274</v>
+        <v>149</v>
+      </c>
+      <c r="G32" t="s">
+        <v>317</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>321</v>
+        <v>150</v>
+      </c>
+      <c r="I32" s="4" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="162" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>227</v>
+        <v>136</v>
+      </c>
+      <c r="C33" t="s">
+        <v>270</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>275</v>
+        <v>153</v>
+      </c>
+      <c r="G33" t="s">
+        <v>318</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I33" s="5" t="s">
-        <v>322</v>
+        <v>154</v>
+      </c>
+      <c r="I33" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="270" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>228</v>
+        <v>157</v>
+      </c>
+      <c r="C34" t="s">
+        <v>271</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>276</v>
+        <v>158</v>
+      </c>
+      <c r="G34" t="s">
+        <v>319</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>323</v>
+        <v>159</v>
+      </c>
+      <c r="I34" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="162" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>132</v>
+        <v>161</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>229</v>
+        <v>162</v>
+      </c>
+      <c r="C35" t="s">
+        <v>272</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>277</v>
+        <v>163</v>
+      </c>
+      <c r="G35" t="s">
+        <v>320</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="I35" s="5" t="s">
-        <v>309</v>
+        <v>81</v>
+      </c>
+      <c r="I35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="310.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>230</v>
+        <v>165</v>
+      </c>
+      <c r="C36" t="s">
+        <v>273</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>278</v>
+        <v>166</v>
+      </c>
+      <c r="G36" t="s">
+        <v>321</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>324</v>
+        <v>167</v>
+      </c>
+      <c r="I36" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="283.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>231</v>
+        <v>170</v>
+      </c>
+      <c r="C37" t="s">
+        <v>274</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>279</v>
+        <v>171</v>
+      </c>
+      <c r="G37" t="s">
+        <v>322</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="I37" s="5" t="s">
-        <v>325</v>
+        <v>172</v>
+      </c>
+      <c r="I37" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="283.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>232</v>
+        <v>175</v>
+      </c>
+      <c r="C38" t="s">
+        <v>275</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>280</v>
+        <v>176</v>
+      </c>
+      <c r="G38" t="s">
+        <v>323</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="I38" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="216" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39" t="s">
+        <v>324</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="I39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="256.5" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" t="s">
+        <v>325</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="I40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="256.5" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="G41" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="216" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="I39" s="5" t="s">
+      <c r="H41" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="I41" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="135" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>196</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="256.5" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="H42" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="I42" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="121.5" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>279</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="256.5" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="135" customHeight="1">
-      <c r="A42" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I42" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="121.5" customHeight="1">
-      <c r="A43" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="H43" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="I43" s="5" t="s">
-        <v>331</v>
+      <c r="H43" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="I43" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>167</v>
+        <v>205</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="C44" t="s">
+        <v>280</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>286</v>
+        <v>207</v>
+      </c>
+      <c r="G44" t="s">
+        <v>329</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>332</v>
+        <v>208</v>
+      </c>
+      <c r="I44" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="108" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
+      </c>
+      <c r="C45" t="s">
+        <v>280</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>287</v>
+        <v>211</v>
+      </c>
+      <c r="G45" t="s">
+        <v>330</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I45" s="5" t="s">
-        <v>333</v>
+        <v>212</v>
+      </c>
+      <c r="I45" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="121.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
+      </c>
+      <c r="C46" t="s">
+        <v>281</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>288</v>
+        <v>216</v>
+      </c>
+      <c r="G46" t="s">
+        <v>331</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="5" t="s">
-        <v>334</v>
+        <v>217</v>
+      </c>
+      <c r="I46" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="108" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>178</v>
+        <v>219</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>238</v>
+        <v>215</v>
+      </c>
+      <c r="C47" t="s">
+        <v>281</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>289</v>
+        <v>220</v>
+      </c>
+      <c r="G47" t="s">
+        <v>332</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>333</v>
+        <v>212</v>
+      </c>
+      <c r="I47" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="162" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
+      </c>
+      <c r="C48" t="s">
+        <v>282</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>290</v>
+        <v>223</v>
+      </c>
+      <c r="G48" t="s">
+        <v>333</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>335</v>
+        <v>224</v>
+      </c>
+      <c r="I48" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="121.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>239</v>
+        <v>222</v>
+      </c>
+      <c r="C49" t="s">
+        <v>282</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>291</v>
+        <v>227</v>
+      </c>
+      <c r="G49" t="s">
+        <v>334</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>333</v>
+        <v>212</v>
+      </c>
+      <c r="I49" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="94.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>240</v>
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>283</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>292</v>
+        <v>230</v>
+      </c>
+      <c r="G50" t="s">
+        <v>335</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>336</v>
+        <v>231</v>
+      </c>
+      <c r="I50" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="94.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>190</v>
+        <v>233</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>241</v>
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>284</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>293</v>
+        <v>235</v>
+      </c>
+      <c r="G51" t="s">
+        <v>336</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>336</v>
+        <v>231</v>
+      </c>
+      <c r="I51" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="94.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
+      </c>
+      <c r="C52" t="s">
+        <v>285</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G52" s="5" t="s">
-        <v>294</v>
+        <v>238</v>
+      </c>
+      <c r="G52" t="s">
+        <v>337</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>336</v>
+        <v>231</v>
+      </c>
+      <c r="I52" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="297" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="C53" t="s">
+        <v>286</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" t="s">
+        <v>338</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>244</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85CF91F-F3F1-40A9-AFC3-22009AA6997E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7C777-0D65-4685-AB01-D7A5F2EC3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3885" yWindow="2820" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1151,7 +1151,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1449,12 +1449,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
+    <col min="3" max="3" width="35.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.85546875" customWidth="1"/>
   </cols>
   <sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E7C777-0D65-4685-AB01-D7A5F2EC3506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E79277-1FB1-47BE-B9B7-83374CCACF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="2820" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>0#前往洞窟口与猎人汇合#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Encuentra al Cazador junto a las cuevas.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线魔狼洞窟</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>0#击败狼群#1|trigger:世俗主线魔狼主线猎人晕倒</t>
   </si>
   <si>
-    <t>0#Derrota a los lobos.#1|trigger:世俗主线魔狼主线猎人晕倒</t>
-  </si>
-  <si>
     <t>世俗主线击败狼群头目</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>0#击败狼群头目#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Derrota al líder de la manada.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线查看猎人情况</t>
   </si>
   <si>
@@ -120,9 +111,6 @@
     <t>0#查看猎人情况#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Verifica el estado del Cazador.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线查看火焰情况</t>
   </si>
   <si>
@@ -135,9 +123,6 @@
     <t>0#靠近火焰#0|trigger:世俗主线魔狼主线猎人闪光2</t>
   </si>
   <si>
-    <t>0#Acércate a la llama.#0|trigger:世俗主线魔狼主线猎人闪光2</t>
-  </si>
-  <si>
     <t>世俗主线离开洞窟</t>
   </si>
   <si>
@@ -150,9 +135,6 @@
     <t>0#离开洞窟#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Sal de las cuevas.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线启程</t>
   </si>
   <si>
@@ -165,9 +147,6 @@
     <t>0#与猎人交谈#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Habla con el Cazador.#1|红石城魔狼猎人</t>
-  </si>
-  <si>
     <t>世俗主线启程2</t>
   </si>
   <si>
@@ -177,9 +156,6 @@
     <t>0#与红石城守卫交谈#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Habla con el guardia de la Fortaleza Redstone.#1|火魔讨伐军招募</t>
-  </si>
-  <si>
     <t>主线红石城卫兵的认可1</t>
   </si>
   <si>
@@ -192,9 +168,6 @@
     <t>0#声望达到3#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Gana 3 Favores.3#1|火魔讨伐军招募</t>
-  </si>
-  <si>
     <t>主线红石城卫兵的认可2</t>
   </si>
   <si>
@@ -204,9 +177,6 @@
     <t>0#拥有三支部队#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Ten tres escuadrones.#1|火魔讨伐军招募</t>
-  </si>
-  <si>
     <t>主线进攻火魔人营地</t>
   </si>
   <si>
@@ -219,9 +189,6 @@
     <t>0#攻下火魔人信徒的营地#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
   </si>
   <si>
-    <t>0#Ataca el campamento de los seguidores del Ifrit.#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
-  </si>
-  <si>
     <t>主线红石城矿场</t>
   </si>
   <si>
@@ -234,9 +201,6 @@
     <t>0#完成剧情#1##沙盒红石城:2804,1203:300|红石城矿工</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1##沙盒红石城:2804,1203:300|红石城矿工</t>
-  </si>
-  <si>
     <t>主线红石城建设</t>
   </si>
   <si>
@@ -249,9 +213,6 @@
     <t>0#完成剧情#1|红石城卫兵长官</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1|红石城卫兵长官</t>
-  </si>
-  <si>
     <t>主线雄鹰野马</t>
   </si>
   <si>
@@ -262,9 +223,6 @@
   </si>
   <si>
     <t>0#完成剧情#1|红石城雄鹰部落使者</t>
-  </si>
-  <si>
-    <t>0#Completa la historia.#1|红石城雄鹰部落使者</t>
   </si>
   <si>
     <t>主线雄鹰任务</t>
@@ -280,9 +238,6 @@
     <t>0#完成剧情#1</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1</t>
-  </si>
-  <si>
     <t>主线野马任务</t>
   </si>
   <si>
@@ -332,9 +287,6 @@
     <t>0#赶走花卉乡东边的山贼#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
   </si>
   <si>
-    <t>0#Derrota a los bandidos al este de Fleur.#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
-  </si>
-  <si>
     <t>黑崖日蚀战争战场祭奠</t>
   </si>
   <si>
@@ -348,10 +300,6 @@
 0#前往花卉乡西南边的日蚀战争战场遗迹#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
   </si>
   <si>
-    <t>0#Viaja a dos sitios de batalla del Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000
-0#Viaja a dos sitios de batalla del Sol Negro B#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
-  </si>
-  <si>
     <t>黑崖守望老人</t>
   </si>
   <si>
@@ -364,9 +312,6 @@
     <t>0#前往老妇人居所#1|守望老妇人</t>
   </si>
   <si>
-    <t>0#Head to the old woman's house#1|守望老妇人</t>
-  </si>
-  <si>
     <t>黑崖守望老人2</t>
   </si>
   <si>
@@ -379,9 +324,6 @@
     <t>4#采摘十朵托琪拉花#10#托琪拉花#</t>
   </si>
   <si>
-    <t>4#Recoge diez flores de Tairquila.#10#托琪拉花#</t>
-  </si>
-  <si>
     <t>黑崖守望老人3</t>
   </si>
   <si>
@@ -394,9 +336,6 @@
     <t>0#完成剧情#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
-  </si>
-  <si>
     <t>寻找古代火焰战士雕像</t>
   </si>
   <si>
@@ -407,9 +346,6 @@
   </si>
   <si>
     <t>0#找到六座火焰战士雕像#6</t>
-  </si>
-  <si>
-    <t>0#Encuentra seis estatuas de guerreros de fuego.#6</t>
   </si>
   <si>
     <t>黑崖湖边少女</t>
@@ -426,11 +362,6 @@
 0#采摘新鲜的静穆女神之花#1|任务黑崖湖边少女</t>
   </si>
   <si>
-    <t>0#Recoge una orquídea fresca.#1
-0#Recoge una flor de serpiente azul fresca.#1
-0#Recoge una flor fresca de Namti.#1|任务黑崖湖边少女</t>
-  </si>
-  <si>
     <t>黑崖擂台</t>
   </si>
   <si>
@@ -443,9 +374,6 @@
     <t>0#赢取擂台挑战#1##沙盒黑崖花卉乡:-4563,-705:0</t>
   </si>
   <si>
-    <t>0#Reclama la victoria en el Desafío del Gladiador.#1##沙盒黑崖花卉乡:-4563,-705:0</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子</t>
   </si>
   <si>
@@ -458,9 +386,6 @@
     <t>0#寻找铁匠的儿子——托也普#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
-    <t>0#Encuentra al hijo del herrero, Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子2</t>
   </si>
   <si>
@@ -470,9 +395,6 @@
     <t>0#回到花卉乡找到老铁匠#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
   </si>
   <si>
-    <t>0#Completa la historia.#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子21</t>
   </si>
   <si>
@@ -480,9 +402,6 @@
   </si>
   <si>
     <t>0#等待老铁匠找到托也普#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
-    <t>0#Espera a que el viejo herrero encuentre a Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
     <t>黑崖铁匠父子3</t>
@@ -495,10 +414,6 @@
 4#找到一套高级锻造工具#1#高级锻造工具#</t>
   </si>
   <si>
-    <t>4#Encuentra un conjunto de herramientas básicas de herrería.#1#基础锻造工具#
-4#Encuentra un conjunto de herramientas avanzadas de herrería.#1#高级锻造工具#</t>
-  </si>
-  <si>
     <t>黑崖铁匠父子4</t>
   </si>
   <si>
@@ -508,9 +423,6 @@
     <t>0#对双方的作品进行评价#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
-    <t>0#Evalúa las obras maestras de herrería.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
-  </si>
-  <si>
     <t>人物任务墨敕恢复药剂</t>
   </si>
   <si>
@@ -523,9 +435,6 @@
     <t>4#恢复药剂#1#恢复药剂|无名营地药剂师</t>
   </si>
   <si>
-    <t>4#Elíxir de curación.#1#恢复药剂|无名营地药剂师</t>
-  </si>
-  <si>
     <t>人物任务墨敕花卉乡药师</t>
   </si>
   <si>
@@ -547,9 +456,6 @@
     <t>4#采集五朵苦花#5#苦花#</t>
   </si>
   <si>
-    <t>4#Reúne 5 flores amargas.#5#苦花#</t>
-  </si>
-  <si>
     <t>人物任务古扎卡拜访</t>
   </si>
   <si>
@@ -562,9 +468,6 @@
     <t>0#在古扎卡回到提提罗部落后前去拜访#1</t>
   </si>
   <si>
-    <t>0#Visita a Gulzar después de que regrese a la tribu Ximmeriana.#1</t>
-  </si>
-  <si>
     <t>人物任务古扎卡异样</t>
   </si>
   <si>
@@ -577,9 +480,6 @@
     <t>0#找到古扎卡#1##沙盒双月山谷:6226,5126:0</t>
   </si>
   <si>
-    <t>0#Encuentra a Gulzar.#1##沙盒双月山谷:6226,5126:0</t>
-  </si>
-  <si>
     <t>人物任务抓捕隆达</t>
   </si>
   <si>
@@ -592,9 +492,6 @@
     <t>0#找到隆达#1##沙盒黑崖花卉乡:3215,-118:0</t>
   </si>
   <si>
-    <t>0#Encuentra a Rabia.#1##沙盒黑崖花卉乡:3215,-118:0</t>
-  </si>
-  <si>
     <t>关于隆达的情报</t>
   </si>
   <si>
@@ -607,9 +504,6 @@
     <t>0#搜集线索#1|英雄伊潘图</t>
   </si>
   <si>
-    <t>0#Busca pistas.#1|英雄伊潘图</t>
-  </si>
-  <si>
     <t>人物任务旧王秘窟</t>
   </si>
   <si>
@@ -622,27 +516,18 @@
     <t>0#找到隆达#1|MapTp:沙盒旧王秘窟前段</t>
   </si>
   <si>
-    <t>0#Encuentra a Rabia.#1|MapTp:沙盒旧王秘窟前段</t>
-  </si>
-  <si>
     <t>人物任务伊潘图加入</t>
   </si>
   <si>
     <t>伊潘图</t>
   </si>
   <si>
-    <t>Ishtar</t>
-  </si>
-  <si>
     <t>[[imp:伊潘图]]感谢你的帮忙，如果想邀请他一起组队，可以去[[imp:红石城]]找他。</t>
   </si>
   <si>
     <t>0#找到伊潘图#1</t>
   </si>
   <si>
-    <t>0#Encuentra a Ishtar#1</t>
-  </si>
-  <si>
     <t>人物任务隆达加入</t>
   </si>
   <si>
@@ -655,9 +540,6 @@
     <t>0#找到隆达#1</t>
   </si>
   <si>
-    <t>0#Encuentra a Rabia#1</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用21</t>
   </si>
   <si>
@@ -670,9 +552,6 @@
     <t>0#寻找强盗营地#1|trigger:世俗主线密使任务通用2山洞标记</t>
   </si>
   <si>
-    <t>0#Encuentra el campamento de bandidos.#1|trigger:世俗主线密使任务通用2山洞标记</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用22</t>
   </si>
   <si>
@@ -682,9 +561,6 @@
     <t>0#找到鹰族使者复命#1</t>
   </si>
   <si>
-    <t>0#Encuentra al enviado Nasir.#1</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用31</t>
   </si>
   <si>
@@ -697,9 +573,6 @@
     <t>0#寻找被困的贵族#1|trigger:世俗主线密使任务通用3山洞标记</t>
   </si>
   <si>
-    <t>0#Encuentra a los nobles atrapados.#1|trigger:世俗主线密使任务通用3山洞标记</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用32</t>
   </si>
   <si>
@@ -718,9 +591,6 @@
     <t>0#寻找熔岩洞窟#1|trigger:世俗主线密使任务通用4山洞标记</t>
   </si>
   <si>
-    <t>0#Encuentra el Vacío de la Lava Pāhoehoe.#1|trigger:世俗主线密使任务通用4山洞标记</t>
-  </si>
-  <si>
     <t>世俗主线密使任务通用42</t>
   </si>
   <si>
@@ -737,9 +607,6 @@
   </si>
   <si>
     <t>0#赢得战斗#1</t>
-  </si>
-  <si>
-    <t>0#Reclama la victoria.#1</t>
   </si>
   <si>
     <t>雄鹰野马会战2</t>
@@ -776,292 +643,418 @@
 0#测试追踪项2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Prueba del Rastreador de Misiones 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
-0#Prueba del Rastreador de Misiones 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>Una Alianza de Caza</t>
-  </si>
-  <si>
-    <t>Cueva de los Lobos</t>
-  </si>
-  <si>
-    <t>Líder de la manada</t>
-  </si>
-  <si>
-    <t>Revisión del cazador</t>
-  </si>
-  <si>
-    <t>Dentro del fuego</t>
-  </si>
-  <si>
-    <t>Regreso de las cuevas</t>
-  </si>
-  <si>
-    <t>Poner en marcha</t>
-  </si>
-  <si>
-    <t>Reconocimiento</t>
-  </si>
-  <si>
-    <t>Seguidores de Ifrit</t>
-  </si>
-  <si>
-    <t>Consejero</t>
-  </si>
-  <si>
-    <t>Fortaleza de Redstone</t>
-  </si>
-  <si>
-    <t>El Nasir y el Akhal</t>
-  </si>
-  <si>
-    <t>El Nasir</t>
-  </si>
-  <si>
-    <t>El Akhal</t>
-  </si>
-  <si>
-    <t>Encuentro con un guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Combate con un guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Partida de un guerrero cobarde</t>
-  </si>
-  <si>
-    <t>Bandidos en los Acantilados de Umbra</t>
-  </si>
-  <si>
     <t>Restos de guerra</t>
   </si>
   <si>
-    <t>Harina de trigo</t>
-  </si>
-  <si>
-    <t>Enciende la linterna</t>
-  </si>
-  <si>
-    <t>Mantén la guardia</t>
-  </si>
-  <si>
-    <t>Estatuas de los Guerreros del Fuego</t>
-  </si>
-  <si>
-    <t>Recogiendo flores</t>
-  </si>
-  <si>
-    <t>Desafío del gladiador</t>
-  </si>
-  <si>
-    <t>El Smith y su hijo</t>
-  </si>
-  <si>
-    <t>Elixir de curación</t>
-  </si>
-  <si>
-    <t>Mago misterioso</t>
-  </si>
-  <si>
-    <t>Durmiendo borracho</t>
-  </si>
-  <si>
-    <t>Visita a los Ximmerianos</t>
-  </si>
-  <si>
-    <t>Rarezas</t>
-  </si>
-  <si>
-    <t>Buscando a Rabia</t>
-  </si>
-  <si>
-    <t>En busca de Rabia</t>
-  </si>
-  <si>
-    <t>La Catacumba del Viejo Rey</t>
-  </si>
-  <si>
-    <t>Anger</t>
-  </si>
-  <si>
     <t>Bandidos</t>
   </si>
   <si>
-    <t>Salva a los Nobles</t>
-  </si>
-  <si>
-    <t>Vacío de lava pāhoehoe</t>
-  </si>
-  <si>
-    <t>La Primera Batalla de Nasir y Akhal</t>
-  </si>
-  <si>
-    <t>La Segunda Batalla de Nasir y Akhal</t>
-  </si>
-  <si>
-    <t>La Tercera Batalla de Nasir y Akhal</t>
-  </si>
-  <si>
-    <t>Test de Misión</t>
-  </si>
-  <si>
-    <t>Un cazador local ha pedido unirse a ti para atrapar &lt;color=red&gt;Lobos&lt;/color&gt; y ha partido con anticipación. Hacen un acuerdo para encontrarse en la entrada de la cueva &lt;color=red&gt;al norte del campamento en el noroeste del Valle de Redstone&lt;/color&gt;, donde los lobos suelen cazar</t>
-  </si>
-  <si>
-    <t>¡Derrota a la manada de lobos al norte del campamento en las cuevas del noroeste del Valle de Redstone!</t>
-  </si>
-  <si>
-    <t>¡Ve a las cuevas y derrota al &lt;color=red&gt;Líder de la Manada de Lobos&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t>Revisa al cazador desmayado</t>
-  </si>
-  <si>
-    <t>Echa un vistazo a las llamas que de repente emanan de las cuevas</t>
-  </si>
-  <si>
-    <t>¡Sal de las cuevas y regresa con las buenas noticias!</t>
-  </si>
-  <si>
-    <t>Vuelve al campamento y habla con el &lt;color=red&gt;Cazador&lt;/color&gt; en &lt;color=red&gt;el noroeste del Valle de Redstone&lt;/color&gt; una vez más</t>
-  </si>
-  <si>
-    <t>El cazador sugiere que encuentres un &lt;color=red&gt;Guardia&lt;/color&gt; en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para comenzar tu viaje de aventuras</t>
-  </si>
-  <si>
-    <t>El guardia de la Fortaleza Redstone no parece reconocerte. Vuelve una vez que hayas ganado 3 Favores</t>
-  </si>
-  <si>
-    <t>El Guardia de la Fortaleza de Redstone te pide que traigas 3 escuadrones de tropas para investigar la pelea en el Campamento de los Seguidores de Ifrit</t>
-  </si>
-  <si>
-    <t>Los &lt;color=red&gt;Seguidores de Ifrit&lt;/color&gt; se pueden encontrar &lt;color=red&gt;al suroeste de Crying Rock&lt;/color&gt; cerca de West Crag Outpost. &lt;color=red&gt;Dirígete hacia el norte desde Redstone Keep&lt;/color&gt; para llegar a Crying Rock</t>
-  </si>
-  <si>
-    <t>El Guardia de la Fortaleza Redstone te recomienda al Consigliere, quien está inspeccionando las minas al noreste de la Fortaleza Redstone. Sigue el camino hacia el este cuando salgas del Campamento Ember</t>
-  </si>
-  <si>
-    <t>El Oficial de la Guardia en el Castillo de Redstone te invita a ayudar a &lt;color=red&gt;reconstruir el pueblo&lt;/color&gt;. Obtén más detalles directamente de él</t>
-  </si>
-  <si>
-    <t>Las dos tribus más poderosas - &lt;color=red&gt;los Nasir&lt;/color&gt; y &lt;color=red&gt;los Akhal&lt;/color&gt; - han enviado enviados a Redstone Keep. Si estás considerando unirte a alguno de ellos, puede ser conveniente buscarlos</t>
-  </si>
-  <si>
-    <t>Decides unirte a &lt;color=red&gt;los Nasir&lt;/color&gt;, los gobernantes de la Ciudad de Jamal que derrocaron &lt;color=red&gt;la Antigua Dinastía Nephrit&lt;/color&gt; y conquistaron &lt;color=red&gt;la Ciudad de Jamal&lt;/color&gt;.
-Habla con su enviado en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para conocer las misiones que podrían tener preparadas para ti</t>
-  </si>
-  <si>
-    <t>Te unes a &lt;color=red&gt;los Akhal&lt;/color&gt;. Esta poderosa tribu del sur viene y va como el viento. Habla con su enviado en &lt;color=red&gt;Redstone Keep&lt;/color&gt; para conocer las misiones que podrían tener preparadas para ti</t>
-  </si>
-  <si>
-    <t>Escucha la primera historia exagerada contada por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Escucha el segundo cuento exagerado contado por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Escucha el tercer cuento exagerado contado por el guerrero a su hermano en las tierras altas del noroeste del Valle de Redstone</t>
-  </si>
-  <si>
-    <t>Un comerciante del pueblo de Fleur te habla sobre la creciente actividad de los merodeadores hacia el este y te suplica que pongas fin a su desorden</t>
-  </si>
-  <si>
-    <t>Coloca flores secas en dos sitios famosos de la Batalla del Sol Negro ubicados al este y suroeste de Fleur</t>
-  </si>
-  <si>
-    <t>Un anciano en Fleur te pide que lo ayudes a llevar un saco de harina de trigo a su anciana cerca</t>
-  </si>
-  <si>
-    <t>Aceptando la harina de trigo, la &lt;color=red&gt;anciana&lt;/color&gt; te pide un favor: arrancar &lt;color=red&gt;10 flores de Tairquila&lt;/color&gt; para que ella las exprima en parafina para su linterna</t>
-  </si>
-  <si>
-    <t>Te das cuenta de que la &lt;color=red&gt;anciana&lt;/color&gt; está completamente ciega, y que la parafina es para ayudar al &lt;color=red&gt;anciano&lt;/color&gt; a cuidarla en la oscuridad. Dudas sobre si &lt;color=red&gt;revelar esto al anciano&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Encuentra &lt;color=red&gt;6 o más&lt;/color&gt; Estatuas de Guerreros de Fuego antes de que expire la cuenta regresiva de &lt;color=red&gt;7 días&lt;/color&gt;. Informa al aventurero en Fleur una vez completado para reclamar tu premio</t>
-  </si>
-  <si>
-    <t>Una chica extraña en el lago cerca de los Acantilados Umbra de Fleur necesita una &lt;color=red&gt;Orquídea&lt;/color&gt;, una &lt;color=red&gt;Flor de Serpiente Azul&lt;/color&gt; y una &lt;color=red&gt;Flor Namti&lt;/color&gt; para producir su remedio universal. Las flores deben ser recién arrancadas &lt;color=red&gt;en los últimos 3 días&lt;/color&gt; para preparar la medicina</t>
-  </si>
-  <si>
-    <t>¡Los guerreros se han reunido en algún lugar cerca de los Acantilados Umbra de Fleur para celebrar un gran Desafío de Gladiadores! ¡Dirígete allí y reclama la corona!</t>
-  </si>
-  <si>
-    <t>Un herrero en Fleur te pide un favor: si te encuentras con un joven herrero llamado &lt;color=red&gt;Tabassum&lt;/color&gt;, ¿podrías decirle que regrese a casa, por favor?</t>
-  </si>
-  <si>
-    <t>Tabassum se niega a regresar a casa. Está trabajando tanto en sí mismo como en su oficio en soledad, y espera que puedas transmitirle el mensaje a su padre</t>
-  </si>
-  <si>
-    <t>Has persuadido al viejo herrero a visitar a su hijo</t>
-  </si>
-  <si>
-    <t>Reunidos, el herrero y su hijo deciden participar en una competencia amistosa, cada uno forjando una obra maestra. Tabassum te ha pedido un juego de &lt;color=red&gt;Herramientas Básicas de Forja&lt;/color&gt; y &lt;color=red&gt;Herramientas Avanzadas de Forja&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>El herrero y su hijo han completado sus obras maestras. La competencia está a punto de comenzar</t>
-  </si>
-  <si>
-    <t>Un hombre enfermizo llamado &lt;color=red&gt;Rwal&lt;/color&gt; llega al campamento, pidiendo una botella de &lt;color=red&gt;Elixir Curativo&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; puede saber cómo conseguirlo</t>
-  </si>
-  <si>
-    <t>Mochi menciona rumores de un brillante Apotecario en Fleur en los Acantilados de Umbra, él espera visitarlo algún día</t>
-  </si>
-  <si>
-    <t>Te encuentras con un hombre durmiendo en el Bazar Dorado que se niega a despertar, sin importar lo que intentes. Esperando que esté borracho, decides recolectar y destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; en un jugo, más que suficiente para despertar sus sentidos</t>
-  </si>
-  <si>
-    <t>Logras despertar a Gulzar de su sueño, quien rápidamente huye para unirse a la Tribu Ximmeriana. Si quieres volver a verlo, tendrás que esperar hasta que regrese con los Ximmerianos</t>
-  </si>
-  <si>
-    <t>Después de resucitar a Gulzar, él huye de regreso a los Ximmerianos, pero los guardias locales te niegan la entrada. Si quieres saber más, tendrás que abrirte paso a través de los guardias</t>
-  </si>
-  <si>
-    <t>Un hombre llamado Ishtar confiesa que ha estado tratando de atrapar a un poderoso líder de bandidos llamado Rabia, quien acecha alrededor de los Acantilados Umbra de Fleur</t>
-  </si>
-  <si>
-    <t>Después de que &lt;color=red&gt;Rabia&lt;/color&gt; se escapó, Ishtar sugiere que se separen para cubrir más terreno. Encuentrense con Ishtar de vez en cuando y compartan información sobre el paradero de Rabia. Esta también es una buena manera de aumentar tu &lt;color=red&gt;Favor&lt;/color&gt; con Ishtar</t>
-  </si>
-  <si>
-    <t>Después de que &lt;color=red&gt;Rabia&lt;/color&gt; huyó, Ishtar piensa que podría estar en las &lt;color=red&gt;Catacumbas del Viejo Rey&lt;/color&gt; escondidas cerca de los &lt;color=red&gt;Acantilados de Umbra de Fleur&lt;/color&gt;. Estas catacumbas están encantadas con una poderosa magia y son un símbolo duradero de la ruina real</t>
-  </si>
-  <si>
-    <t>Agradeciéndote por tu ayuda, &lt;color=red&gt;Ishtar&lt;/color&gt; se ofrece a unirse a tu grupo si así lo deseas. Encuéntralo nuevamente en &lt;color=red&gt;Redstone Keep&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Agradeciéndote por tu ayuda, &lt;color=red&gt;Rabia&lt;/color&gt; se ofrece a unirse a tu grupo si así lo deseas. Encuéntralo nuevamente en &lt;color=red&gt;Frost Valley&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Busca el campamento de bandidos en &lt;color=red&gt;Roca Llorona&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Ahora que los bandidos han sido eliminados, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Castillo de Piedra Roja</t>
-  </si>
-  <si>
-    <t>Dirígete a &lt;color=red&gt;Frost Valley cerca de las Montañas Zagros&lt;/color&gt; y rescata a los nobles indefensos de debajo de la avalancha</t>
-  </si>
-  <si>
-    <t>Ahora que los nobles han sido rescatados de manera segura, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Castillo de Piedra Roja</t>
-  </si>
-  <si>
-    <t>Busca el Vacío de Lava Pāhoehoe quemado por los Ghouls de Ifrit cerca de los &lt;color=red&gt;Acantilados de Umbra&lt;/color&gt; y reconstruye lo que realmente sucedió</t>
-  </si>
-  <si>
-    <t>Ahora que las bestias de la cueva han sido derrotadas, regresa al &lt;color=red&gt;Enviado Nasir&lt;/color&gt; en el Fuerte Redstone</t>
-  </si>
-  <si>
-    <t>Lucha en la &lt;color=red&gt;primera batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Lucha en la &lt;color=red&gt;segunda batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Lucha en la &lt;color=red&gt;tercera batalla entre los Nasir y los Akhal&lt;/color&gt;</t>
-  </si>
-  <si>
-    <t>Un cazador local ha pedido unirse a ti para atrapar lobos y se ha adelantado. Hacen un acuerdo para encontrarse en la entrada de la cueva al norte del campamento en el noroeste del Valle Redstone, donde los lobos suelen cazar.
-Un cazador local ha pedido unirse a ti para atrapar lobos y se ha adelantado. Hacen un acuerdo para encontrarse en la entrada de la cueva al norte del campamento en el noroeste del Valle Redstone, donde los lobos suelen cazar</t>
+    <t>Uma aliança de caça</t>
+  </si>
+  <si>
+    <t>Caverna dos Lobos</t>
+  </si>
+  <si>
+    <t>Líder do bando</t>
+  </si>
+  <si>
+    <t>Revisão do Caçador</t>
+  </si>
+  <si>
+    <t>dentro do fogo</t>
+  </si>
+  <si>
+    <t>Retorno das cavernas</t>
+  </si>
+  <si>
+    <t>Começar</t>
+  </si>
+  <si>
+    <t>Reconhecimento</t>
+  </si>
+  <si>
+    <t>Seguidores Ifrit</t>
+  </si>
+  <si>
+    <t>Conselheiro</t>
+  </si>
+  <si>
+    <t>Fortaleza Redstone</t>
+  </si>
+  <si>
+    <t>O Nasir e o Akhal</t>
+  </si>
+  <si>
+    <t>O Nasir</t>
+  </si>
+  <si>
+    <t>O Akhal</t>
+  </si>
+  <si>
+    <t>Encontro com um guerreiro covarde</t>
+  </si>
+  <si>
+    <t>Lute com um guerreiro covarde</t>
+  </si>
+  <si>
+    <t>Partida de um guerreiro covarde</t>
+  </si>
+  <si>
+    <t>Bandidos nos penhascos de Umbra</t>
+  </si>
+  <si>
+    <t>Farinha de trigo</t>
+  </si>
+  <si>
+    <t>Ligue a lanterna</t>
+  </si>
+  <si>
+    <t>mantenha sua guarda</t>
+  </si>
+  <si>
+    <t>Estátuas dos Guerreiros do Fogo</t>
+  </si>
+  <si>
+    <t>Colhendo flores</t>
+  </si>
+  <si>
+    <t>desafio de gladiador</t>
+  </si>
+  <si>
+    <t>Smith e seu filho</t>
+  </si>
+  <si>
+    <t>Elixir de cura</t>
+  </si>
+  <si>
+    <t>Feiticeiro misterioso</t>
+  </si>
+  <si>
+    <t>dormindo bêbado</t>
+  </si>
+  <si>
+    <t>Visita aos Ximérios</t>
+  </si>
+  <si>
+    <t>Curiosidades</t>
+  </si>
+  <si>
+    <t>Procurando por raiva</t>
+  </si>
+  <si>
+    <t>Em busca da raiva</t>
+  </si>
+  <si>
+    <t>A Catacumba do Velho Rei</t>
+  </si>
+  <si>
+    <t>Istar</t>
+  </si>
+  <si>
+    <t>Raiva</t>
+  </si>
+  <si>
+    <t>Salve os Nobres</t>
+  </si>
+  <si>
+    <t>vazio de lava pāhoehoe</t>
+  </si>
+  <si>
+    <t>A Primeira Batalha de Nasir e Akhal</t>
+  </si>
+  <si>
+    <t>A Segunda Batalha de Nasir e Akhal</t>
+  </si>
+  <si>
+    <t>A Terceira Batalha de Nasir e Akhal</t>
+  </si>
+  <si>
+    <t>Teste de missão</t>
+  </si>
+  <si>
+    <t>Um caçador local pediu para se juntar a você para capturar &lt;color=red&gt;lobos&lt;/color&gt; e saiu mais cedo. Eles combinam um encontro na entrada da caverna &lt;color=red&gt;ao norte do acampamento, no noroeste do Vale Redstone&lt;/color&gt;, onde os lobos costumam caçar.</t>
+  </si>
+  <si>
+    <t>Derrote a matilha de lobos ao norte do acampamento nas cavernas a noroeste do Vale Redstone!</t>
+  </si>
+  <si>
+    <t>Vá para as cavernas e derrote o &lt;color=red&gt;Líder da Matilha de Lobos&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>Verifique o caçador desmaiado</t>
+  </si>
+  <si>
+    <t>Confira as chamas que de repente emanam das cavernas</t>
+  </si>
+  <si>
+    <t>Saia das cavernas e volte com boas notícias!</t>
+  </si>
+  <si>
+    <t>Volte ao acampamento e fale com o &lt;color=red&gt;Caçador&lt;/color&gt; em &lt;color=red&gt;a noroeste de Redstone Valley&lt;/color&gt; mais uma vez</t>
+  </si>
+  <si>
+    <t>O caçador sugere que você encontre um &lt;color=red&gt;Guarda&lt;/color&gt; em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para começar sua jornada de aventura.</t>
+  </si>
+  <si>
+    <t>O guarda da Fortaleza Redstone parece não reconhecer você. Retorne depois de ganhar 3 favores</t>
+  </si>
+  <si>
+    <t>A Guarda da Fortaleza de Redstone pede que você traga 3 esquadrões de tropas para investigar a luta no Acampamento dos Seguidores de Ifrit.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;Seguidores de Ifrit&lt;/color&gt; podem ser encontrados &lt;color=red&gt;sudoeste de Crying Rock&lt;/color&gt; perto do Posto Avançado de West Crag. &lt;color=red&gt;Siga para o norte a partir de Redstone Keep&lt;/color&gt; para chegar a Crying Rock</t>
+  </si>
+  <si>
+    <t>Guarda da Fortaleza de Redstone recomenda você ao Consigliere, que está inspecionando as minas a nordeste da Fortaleza de Redstone. Siga o caminho para o leste ao sair do Camp Ember</t>
+  </si>
+  <si>
+    <t>O oficial da guarda do Castelo de Redstone convida você para ajudar a &lt;color=red&gt;reconstruir a cidade&lt;/color&gt;. Obtenha mais detalhes diretamente dele</t>
+  </si>
+  <si>
+    <t>As duas tribos mais poderosas - &lt;color=red&gt;os Nasir&lt;/color&gt; e &lt;color=red&gt;os Akhal&lt;/color&gt; - enviaram enviados para Redstone Keep. Se você está pensando em ingressar em algum deles, pode valer a pena procurá-los</t>
+  </si>
+  <si>
+    <t>Você decide se juntar aos &lt;color=red&gt;dos Nasir&lt;/color&gt;, os governantes da cidade de Jamal que derrubaram &lt;color=red&gt;a Antiga Dinastia Nefrite&lt;/color&gt; e conquistaram &lt;color=red&gt;a cidade de Jamal&lt; /cor&gt; cor&gt;. Fale com o enviado deles em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para descobrir quais missões eles podem ter reservado para você.</t>
+  </si>
+  <si>
+    <t>Você se junta ao &lt;color=red&gt;Akhal&lt;/color&gt;. Esta poderosa tribo do sul vem e vai como o vento. Fale com o enviado deles em &lt;color=red&gt;Redstone Keep&lt;/color&gt; para descobrir quais missões eles podem ter reservado para você.</t>
+  </si>
+  <si>
+    <t>Ouça a primeira história exagerada contada pelo guerreiro a seu irmão nas terras altas do noroeste do Vale Redstone</t>
+  </si>
+  <si>
+    <t>Ouça a segunda história exagerada contada pelo guerreiro a seu irmão nas terras altas do noroeste do Vale Redstone</t>
+  </si>
+  <si>
+    <t>Ouça a terceira história exagerada contada pelo guerreiro a seu irmão nas terras altas do noroeste do Vale Redstone</t>
+  </si>
+  <si>
+    <t>Um comerciante da cidade de Fleur conta sobre a crescente atividade dos saqueadores no leste e implora que você acabe com sua desordem.</t>
+  </si>
+  <si>
+    <t>Coloque flores secas em dois locais famosos da Batalha do Sol Negro localizados a leste e sudoeste de Fleur</t>
+  </si>
+  <si>
+    <t>Um velho em Fleur pede que você o ajude a levar um saco de farinha de trigo para sua senhora próxima</t>
+  </si>
+  <si>
+    <t>Aceitando a farinha de trigo, a &lt;color=red&gt;velha&lt;/color&gt; lhe pede um favor: colha &lt;color=red&gt;10 flores de Tairquila&lt;/color&gt; para que ela possa espremê-las em parafina para sua lanterna</t>
+  </si>
+  <si>
+    <t>Você percebe que a &lt;color=red&gt;velha&lt;/color&gt; é completamente cega e que a parafina serve para ajudar o &lt;color=red&gt;velho&lt;/color&gt; a cuidar dela no escuro. Dúvidas sobre &lt;color=red&gt;revelar isso ao idoso&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Encontre &lt;color=red&gt;6 ou mais&lt;/color&gt; estátuas de guerreiros do fogo antes que a contagem regressiva de &lt;color=red&gt;7 dias&lt;/color&gt; termine. Reporte-se ao aventureiro em Fleur depois de concluído para reivindicar seu prêmio</t>
+  </si>
+  <si>
+    <t>Uma garota estranha no lago perto dos Penhascos Umbra de Fleur precisa de uma &lt;color=red&gt;Orquídea&lt;/color&gt;, uma &lt;color=red&gt;Flor Cobra Azul&lt;/color&gt; e uma &lt;color=red&gt;Flor Namti&lt;/color&gt; para produzir seu remédio universal. As flores devem ser colhidas recentemente &lt;color=red&gt;nos últimos 3 dias&lt;/color&gt; para preparar o medicamento</t>
+  </si>
+  <si>
+    <t>Os guerreiros se reuniram em algum lugar perto dos Penhascos Umbra de Fleur para um grande Desafio de Gladiadores! Vá até lá e reivindique a coroa!</t>
+  </si>
+  <si>
+    <t>Um ferreiro em Fleur lhe pede um favor: se você encontrar um jovem ferreiro chamado &lt;color=red&gt;Tabassum&lt;/color&gt;, você poderia dizer a ele para voltar para casa?</t>
+  </si>
+  <si>
+    <t>Tabassum se recusa a voltar para casa. Ele está trabalhando sozinho e em seu ofício na solidão e espera que você possa transmitir a mensagem ao pai dele.</t>
+  </si>
+  <si>
+    <t>Você convenceu o velho ferreiro a visitar seu filho</t>
+  </si>
+  <si>
+    <t>Reunidos, o ferreiro e seu filho decidem participar de uma competição amistosa, cada um forjando uma obra-prima. Tabassum pediu a você um conjunto de &lt;color=red&gt;Ferramentas Básicas de Forjamento&lt;/color&gt; e &lt;color=red&gt;Ferramentas Avançadas de Forjamento&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>O ferreiro e seu filho completaram suas obras-primas. A competição está prestes a começar</t>
+  </si>
+  <si>
+    <t>Um homem doente chamado &lt;color=red&gt;Rwal&lt;/color&gt; chega ao acampamento pedindo uma garrafa de &lt;color=red&gt;Elixir de Cura&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; pode saber como consegui-lo</t>
+  </si>
+  <si>
+    <t>Mochi menciona rumores de um Boticário brilhante em Fleur nos Penhascos Umbra, ele espera visitá-lo um dia.</t>
+  </si>
+  <si>
+    <t>Você encontra um homem adormecido no Bazar Dourado que se recusa a acordar, não importa o que você tente. Esperando que ele esteja bêbado, você decide coletar e destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; em um suco, mais do que suficiente para despertar seus sentidos.</t>
+  </si>
+  <si>
+    <t>Você consegue acordar Gulzar de seu sono, que rapidamente foge para se juntar à Tribo Ximmeriana. Se quiser vê-lo novamente, terá que esperar até que ele retorne aos Ximérios.</t>
+  </si>
+  <si>
+    <t>Depois de ressuscitar Gulzar, ele foge de volta para os Ximérios, mas é impedido de entrar pelos guardas locais. Se quiser saber mais, você terá que lutar para passar pelos guardas</t>
+  </si>
+  <si>
+    <t>Um homem chamado Ishtar confessa que está tentando capturar um poderoso líder bandido chamado Rage, que se esconde nos Penhascos Umbra de Fleur.</t>
+  </si>
+  <si>
+    <t>Depois que &lt;color=red&gt;Rage&lt;/color&gt; foge, Ishtar sugere que eles se separem para cobrir mais terreno. Encontre Ishtar de vez em quando e compartilhe informações sobre o paradeiro de Rabia. Esta também é uma boa maneira de aumentar seu &lt;color=red&gt;Favor&lt;/color&gt; com Ishtar</t>
+  </si>
+  <si>
+    <t>Depois que &lt;color=red&gt;Rage&lt;/color&gt; fugiu, Ishtar pensa que ele pode estar nas &lt;color=red&gt;Catacumbas do Velho Rei&lt;/color&gt;, escondidas perto dos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;. Estas catacumbas estão encantadas com magia poderosa e são um símbolo duradouro da ruína real</t>
+  </si>
+  <si>
+    <t>Agradecendo sua ajuda, &lt;color=red&gt;Ishtar&lt;/color&gt; se oferece para participar do seu grupo, se desejar. Encontre-o novamente em &lt;color=red&gt;Redstone Keep&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Agradecendo sua ajuda, &lt;color=red&gt;Rage&lt;/color&gt; se oferece para participar do seu grupo, se desejar. Encontre-o novamente em &lt;color=red&gt;Frost Valley&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Procure o acampamento dos bandidos em &lt;color=red&gt;Weeping Rock&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Agora que os bandidos foram eliminados, retorne ao &lt;color=red&gt;Envoy Nasir&lt;/color&gt; no Castelo de Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Vá para o &lt;color=red&gt;Frost Valley, perto das montanhas Zagros&lt;/color&gt;, e resgate os nobres indefesos sob a avalanche.</t>
+  </si>
+  <si>
+    <t>Agora que os nobres foram resgatados com segurança, retorne ao &lt;color=red&gt;Enviado Nasir&lt;/color&gt; no Castelo de Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Encontre o Vazio de Lava Pāhoehoe queimado pelos Carniçais Ifrit perto dos &lt;color=red&gt;Penhascos Umbra&lt;/color&gt; e reconstrua o que realmente aconteceu</t>
+  </si>
+  <si>
+    <t>Agora que as feras das cavernas foram derrotadas, volte para o &lt;color=red&gt;Enviado Nasir&lt;/color&gt; no Forte Redstone.</t>
+  </si>
+  <si>
+    <t>Lute na &lt;color=red&gt;primeira batalha entre Nasir e Akhal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Lute na &lt;color=red&gt;segunda batalha entre Nasir e Akhal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Lute na &lt;color=red&gt;terceira batalha entre Nasir e Akhal&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Um caçador local pediu para se juntar a você na captura de lobos e foi em frente. Eles fazem um acordo para se encontrarem na entrada da caverna ao norte do acampamento, no noroeste do Vale Redstone, onde os lobos costumam caçar. Um caçador local pediu para se juntar a você na captura de lobos e foi em frente. Eles fazem um acordo para se encontrarem na entrada da caverna ao norte do acampamento, no noroeste do Vale Redstone, onde os lobos costumam caçar.</t>
+  </si>
+  <si>
+    <t>0#Encontre o Caçador próximo às cavernas.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Derrote os lobos.#1|trigger:世俗主线魔狼主线猎人晕倒</t>
+  </si>
+  <si>
+    <t>0#Derrote o líder da matilha.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Verifique o status do Caçador.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Aproxime-se da chama.#0|trigger:世俗主线魔狼主线猎人闪光2</t>
+  </si>
+  <si>
+    <t>0#Saia das cavernas.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Fale com o Caçador.#1|红石城魔狼猎人</t>
+  </si>
+  <si>
+    <t>0#Fale com o guarda na Fortaleza Redstone.#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Ganhe 3 favores.3#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Tenha três esquadrões.#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Ataque o acampamento dos seguidores de Ifrit.#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
+  </si>
+  <si>
+    <t>0#Complete a história.#1##沙盒红石城:2804,1203:300|红石城矿工</t>
+  </si>
+  <si>
+    <t>0#Complete a história.#1|红石城卫兵长官</t>
+  </si>
+  <si>
+    <t>0#Complete a história.#1|红石城雄鹰部落使者</t>
+  </si>
+  <si>
+    <t>0#Complete a história.#1</t>
+  </si>
+  <si>
+    <t>0#Derrote os bandidos a leste de Fleur.#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
+  </si>
+  <si>
+    <t>0#Viagem para dois locais de batalha do Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000 0#Viagem para dois locais de batalha do Sol Negro B#1##沙盒黑崖花卉乡:-2632 ,-2013:1000</t>
+  </si>
+  <si>
+    <t>0#Vá para a casa da velha#1|守望老妇人</t>
+  </si>
+  <si>
+    <t>4#Colete dez flores de Tairquila.#10#托琪拉花#</t>
+  </si>
+  <si>
+    <t>0#Complete a história.#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
+  </si>
+  <si>
+    <t>0#Encontre seis estátuas de guerreiros do fogo.#6</t>
+  </si>
+  <si>
+    <t>0#Pegue uma orquídea fresca.#1 0#Pegue uma flor fresca de cobra azul.#1 0#Pegue uma flor Namti fresca.#1|任务黑崖湖边少女</t>
+  </si>
+  <si>
+    <t>0#Reivindicar vitória no Desafio do Gladiador.#1##沙盒黑崖花卉乡:-4563,-705:0</t>
+  </si>
+  <si>
+    <t>0#Encontre o filho do ferreiro, Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>0#Complete a história.#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
+  </si>
+  <si>
+    <t>0#Espere o velho ferreiro encontrar Tabassum.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>4#Encontre um conjunto de ferramentas básicas de ferraria.#1#基础锻造工具# 4#Encontre um conjunto de ferramentas avançadas de ferraria.#1#高级锻造工具#</t>
+  </si>
+  <si>
+    <t>0#Avalie obras-primas de ferraria.#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+  </si>
+  <si>
+    <t>4#Elixir de Cura.#1#恢复药剂|无名营地药剂师</t>
+  </si>
+  <si>
+    <t>4#Reúna 5 flores amargas.#5#苦花#</t>
+  </si>
+  <si>
+    <t>0#Visite Gulzar depois que ele retornar à tribo Ximéria.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre Gulzar.#1##沙盒双月山谷:6226,5126:0</t>
+  </si>
+  <si>
+    <t>0#Encontre Rabia.#1##沙盒黑崖花卉乡:3215,-118:0</t>
+  </si>
+  <si>
+    <t>0#Procure por pistas.#1|英雄伊潘图</t>
+  </si>
+  <si>
+    <t>0#Encontre Rabia.#1|MapTp:沙盒旧王秘窟前段</t>
+  </si>
+  <si>
+    <t>0#Encontre Ishtar#1</t>
+  </si>
+  <si>
+    <t>0#Encontre a Fúria#1</t>
+  </si>
+  <si>
+    <t>0#Encontre o acampamento dos bandidos.#1|trigger:世俗主线密使任务通用2山洞标记</t>
+  </si>
+  <si>
+    <t>0#Encontre o enviado Nasir.#1</t>
+  </si>
+  <si>
+    <t>0#Encontre os nobres presos.#1|trigger:世俗主线密使任务通用3山洞标记</t>
+  </si>
+  <si>
+    <t>0#Encontre o Vazio de Lava Pāhoehoe.#1|trigger:世俗主线密使任务通用4山洞标记</t>
+  </si>
+  <si>
+    <t>0#Reivindicar vitória.#1</t>
+  </si>
+  <si>
+    <t>0#Teste do Quest Tracker 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人 0#Teste do Quest Tracker 2#1##沙盒红石城:1000,500:0 |红石城魔狼猎人</t>
   </si>
 </sst>
 </file>
@@ -1449,8 +1442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="C14" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1496,7 +1489,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>9</v>
@@ -1505,1327 +1498,1327 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>287</v>
+        <v>244</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="121.5" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C3" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" t="s">
+        <v>245</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="I3" t="s">
-        <v>19</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="G4" t="s">
+        <v>246</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>289</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="81" customHeight="1">
       <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>247</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>248</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>290</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="108" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
-        <v>291</v>
+        <v>248</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>39</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="121.5" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G8" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="175.5" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
         <v>251</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" t="s">
-        <v>294</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>303</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="121.5" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
+        <v>210</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" t="s">
         <v>252</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" t="s">
-        <v>295</v>
-      </c>
       <c r="H10" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="148.5" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>57</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="216" customHeight="1">
       <c r="A12" s="3" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s">
-        <v>297</v>
+        <v>254</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="I12" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="243" customHeight="1">
       <c r="A13" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G13" t="s">
-        <v>298</v>
+        <v>255</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>67</v>
+        <v>307</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="162" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C14" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>299</v>
+        <v>256</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="I14" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="256.5" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="I15" t="s">
-        <v>77</v>
+        <v>309</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="408.95" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I16" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="310.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="G17" t="s">
-        <v>302</v>
+        <v>259</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I17" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="148.5" customHeight="1">
       <c r="A18" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C18" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="148.5" customHeight="1">
       <c r="A19" s="3" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G19" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I19" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="148.5" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I20" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="189" customHeight="1">
       <c r="A21" s="3" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="G21" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>311</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="351" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>201</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>104</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="162" customHeight="1">
       <c r="A23" s="3" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="C23" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="G23" t="s">
-        <v>308</v>
+        <v>265</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="189" customHeight="1">
       <c r="A24" s="3" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="I24" t="s">
-        <v>114</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="310.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C25" t="s">
-        <v>266</v>
+        <v>223</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="G25" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="I25" t="s">
-        <v>119</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="243" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="G26" t="s">
-        <v>311</v>
+        <v>268</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="I26" t="s">
-        <v>124</v>
+        <v>316</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="351" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>225</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>129</v>
+        <v>317</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="121.5" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="C28" t="s">
-        <v>269</v>
+        <v>226</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="G28" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="I28" t="s">
-        <v>134</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="202.5" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>135</v>
+        <v>112</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G29" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="I29" t="s">
-        <v>139</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="175.5" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C30" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="G30" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="I30" t="s">
-        <v>143</v>
+        <v>320</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="162" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C31" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="G31" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="I31" t="s">
-        <v>147</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="324" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C32" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="G32" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>151</v>
+        <v>322</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="162" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="C33" t="s">
-        <v>270</v>
+        <v>227</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="G33" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="I33" t="s">
-        <v>155</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="270" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="G34" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>324</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="162" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C35" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="G35" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="I35" t="s">
-        <v>82</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="310.5" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="G36" t="s">
-        <v>321</v>
+        <v>278</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>168</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="283.5" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="C37" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>322</v>
+        <v>279</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>172</v>
+        <v>142</v>
       </c>
       <c r="I37" t="s">
-        <v>173</v>
+        <v>326</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="283.5" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="C38" t="s">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="G38" t="s">
-        <v>323</v>
+        <v>280</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="I38" t="s">
-        <v>178</v>
+        <v>327</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="216" customHeight="1">
       <c r="A39" s="5" t="s">
-        <v>179</v>
+        <v>147</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="G39" t="s">
-        <v>324</v>
+        <v>281</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="I39" t="s">
-        <v>183</v>
+        <v>328</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="256.5" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>185</v>
+        <v>152</v>
       </c>
       <c r="C40" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="G40" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="I40" t="s">
-        <v>188</v>
+        <v>329</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="256.5" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>235</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="G41" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="I41" t="s">
-        <v>193</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="135" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>195</v>
+        <v>160</v>
       </c>
       <c r="C42" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="G42" t="s">
-        <v>327</v>
+        <v>284</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="I42" t="s">
-        <v>199</v>
+        <v>331</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="121.5" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="G43" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="H43" s="5" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="I43" t="s">
-        <v>204</v>
+        <v>332</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5" customHeight="1">
       <c r="A44" s="3" t="s">
-        <v>205</v>
+        <v>167</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C44" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>207</v>
+        <v>169</v>
       </c>
       <c r="G44" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="I44" t="s">
-        <v>209</v>
+        <v>333</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="108" customHeight="1">
       <c r="A45" s="3" t="s">
-        <v>210</v>
+        <v>171</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>202</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>211</v>
+        <v>172</v>
       </c>
       <c r="G45" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="I45" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="121.5" customHeight="1">
       <c r="A46" s="3" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="G46" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="I46" t="s">
-        <v>218</v>
+        <v>335</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="108" customHeight="1">
       <c r="A47" s="3" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>215</v>
+        <v>175</v>
       </c>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>238</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="G47" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="I47" t="s">
-        <v>213</v>
+        <v>334</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="162" customHeight="1">
       <c r="A48" s="3" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="G48" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="I48" t="s">
-        <v>225</v>
+        <v>336</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="121.5" customHeight="1">
       <c r="A49" s="3" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="G49" t="s">
+        <v>291</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="I49" t="s">
         <v>334</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="94.5" customHeight="1">
       <c r="A50" s="3" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="G50" t="s">
-        <v>335</v>
+        <v>292</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="I50" t="s">
-        <v>232</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="94.5" customHeight="1">
       <c r="A51" s="3" t="s">
-        <v>233</v>
+        <v>190</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>234</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="G51" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="I51" t="s">
-        <v>232</v>
+        <v>337</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="94.5" customHeight="1">
       <c r="A52" s="3" t="s">
-        <v>236</v>
+        <v>193</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>242</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>238</v>
+        <v>195</v>
       </c>
       <c r="G52" t="s">
+        <v>294</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I52" t="s">
         <v>337</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I52" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="297" customHeight="1">
       <c r="A53" s="3" t="s">
-        <v>239</v>
+        <v>196</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>241</v>
+        <v>198</v>
       </c>
       <c r="E53" t="s">
-        <v>242</v>
+        <v>199</v>
       </c>
       <c r="F53" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G53" t="s">
+        <v>295</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="I53" s="4" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED22195-413A-4F0A-A903-BF87D82BEAE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721941E6-E6D1-4944-8B80-24AED2E82E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -666,9 +666,6 @@
     <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:关于测试任务]]#通用村落招募冷却中</t>
   </si>
   <si>
-    <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:About Test Quest]]#通用村落招募冷却中</t>
-  </si>
-  <si>
     <t>0#测试追踪项1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
 0#测试追踪项2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
@@ -1093,6 +1090,9 @@
   </si>
   <si>
     <t>任务ID_QuestID</t>
+  </si>
+  <si>
+    <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:Sobre a missão de teste]]#通用村落招募冷却中</t>
   </si>
 </sst>
 </file>
@@ -1617,7 +1617,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1633,7 +1635,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="67.5">
       <c r="A1" s="7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>0</v>
@@ -1668,20 +1670,20 @@
         <v>9</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="108">
@@ -1692,20 +1694,20 @@
         <v>13</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5">
@@ -1716,20 +1718,20 @@
         <v>17</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="67.5">
@@ -1740,20 +1742,20 @@
         <v>21</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="94.5">
@@ -1764,20 +1766,20 @@
         <v>25</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5">
@@ -1788,20 +1790,20 @@
         <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="94.5">
@@ -1812,20 +1814,20 @@
         <v>33</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="135">
@@ -1836,20 +1838,20 @@
         <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
         <v>37</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="94.5">
@@ -1860,20 +1862,20 @@
         <v>40</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="108">
@@ -1884,20 +1886,20 @@
         <v>40</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>45</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="189">
@@ -1908,20 +1910,20 @@
         <v>47</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="189">
@@ -1932,20 +1934,20 @@
         <v>51</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>53</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="121.5">
@@ -1956,20 +1958,20 @@
         <v>55</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="4" t="s">
         <v>56</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>57</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="202.5">
@@ -1980,20 +1982,20 @@
         <v>59</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="324">
@@ -2004,20 +2006,20 @@
         <v>63</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D16" s="4"/>
       <c r="F16" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="243">
@@ -2028,20 +2030,20 @@
         <v>67</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
         <v>68</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="121.5">
@@ -2052,20 +2054,20 @@
         <v>70</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>71</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="121.5">
@@ -2076,20 +2078,20 @@
         <v>73</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D19" s="3"/>
       <c r="F19" s="3" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="121.5">
@@ -2100,20 +2102,20 @@
         <v>76</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
         <v>77</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="189">
@@ -2124,20 +2126,20 @@
         <v>79</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="3" t="s">
         <v>80</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>81</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="324">
@@ -2148,20 +2150,20 @@
         <v>83</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="3" t="s">
         <v>84</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>85</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="121.5">
@@ -2172,20 +2174,20 @@
         <v>87</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="3" t="s">
         <v>88</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>89</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="148.5">
@@ -2196,20 +2198,20 @@
         <v>91</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="3" t="s">
         <v>92</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>93</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="243">
@@ -2220,20 +2222,20 @@
         <v>95</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="3" t="s">
         <v>96</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>97</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="189">
@@ -2244,20 +2246,20 @@
         <v>99</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="3" t="s">
         <v>100</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>101</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="270">
@@ -2268,20 +2270,20 @@
         <v>103</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="4" t="s">
         <v>104</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>105</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="108">
@@ -2292,20 +2294,20 @@
         <v>107</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="5"/>
       <c r="F28" s="5" t="s">
         <v>108</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H28" s="5" t="s">
         <v>109</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="175.5">
@@ -2316,20 +2318,20 @@
         <v>111</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="5" t="s">
         <v>112</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H29" s="5" t="s">
         <v>113</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="162">
@@ -2340,20 +2342,20 @@
         <v>111</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5" t="s">
         <v>115</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H30" s="5" t="s">
         <v>116</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="162">
@@ -2364,20 +2366,20 @@
         <v>111</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="5" t="s">
         <v>118</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H31" s="5" t="s">
         <v>119</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="243">
@@ -2388,20 +2390,20 @@
         <v>111</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D32" s="5"/>
       <c r="F32" s="5" t="s">
         <v>121</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H32" s="5" t="s">
         <v>122</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="162">
@@ -2412,20 +2414,20 @@
         <v>111</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D33" s="5"/>
       <c r="F33" s="5" t="s">
         <v>124</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H33" s="5" t="s">
         <v>125</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="216">
@@ -2436,20 +2438,20 @@
         <v>127</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="3" t="s">
         <v>128</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>129</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="121.5">
@@ -2460,20 +2462,20 @@
         <v>131</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="3" t="s">
         <v>132</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>65</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="229.5">
@@ -2484,20 +2486,20 @@
         <v>134</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="3" t="s">
         <v>135</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H36" s="3" t="s">
         <v>136</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="216">
@@ -2508,20 +2510,20 @@
         <v>138</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="3" t="s">
         <v>139</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>140</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="216">
@@ -2532,20 +2534,20 @@
         <v>142</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="3" t="s">
         <v>143</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H38" s="3" t="s">
         <v>144</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="175.5">
@@ -2556,19 +2558,19 @@
         <v>146</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>148</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="216">
@@ -2579,19 +2581,19 @@
         <v>150</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>152</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="202.5">
@@ -2602,19 +2604,19 @@
         <v>154</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>155</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>156</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="108">
@@ -2631,13 +2633,13 @@
         <v>160</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>161</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="108">
@@ -2654,13 +2656,13 @@
         <v>165</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>166</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5">
@@ -2671,20 +2673,20 @@
         <v>168</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D44" s="6"/>
       <c r="F44" s="6" t="s">
         <v>169</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H44" s="6" t="s">
         <v>170</v>
       </c>
       <c r="I44" s="9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="81">
@@ -2695,20 +2697,20 @@
         <v>168</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="6" t="s">
         <v>172</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H45" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="121.5">
@@ -2719,20 +2721,20 @@
         <v>175</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H46" s="6" t="s">
         <v>177</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="94.5">
@@ -2743,20 +2745,20 @@
         <v>175</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="6" t="s">
         <v>179</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H47" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="121.5">
@@ -2767,20 +2769,20 @@
         <v>181</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="6" t="s">
         <v>182</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H48" s="6" t="s">
         <v>183</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="94.5">
@@ -2791,20 +2793,20 @@
         <v>181</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6" t="s">
         <v>185</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H49" s="6" t="s">
         <v>173</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="67.5">
@@ -2815,20 +2817,20 @@
         <v>187</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D50" s="6"/>
       <c r="F50" s="6" t="s">
         <v>188</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H50" s="6" t="s">
         <v>189</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="81">
@@ -2839,20 +2841,20 @@
         <v>191</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D51" s="6"/>
       <c r="F51" s="6" t="s">
         <v>192</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H51" s="6" t="s">
         <v>189</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="81">
@@ -2863,20 +2865,20 @@
         <v>194</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D52" s="6"/>
       <c r="F52" s="6" t="s">
         <v>195</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H52" s="6" t="s">
         <v>189</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="243">
@@ -2887,25 +2889,25 @@
         <v>197</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>198</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>199</v>
+        <v>338</v>
       </c>
       <c r="F53" s="4" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>

--- a/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/R任务列表_Quests_hotfix.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\沙盒\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721941E6-E6D1-4944-8B80-24AED2E82E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4005BF-491A-4529-BE5E-CF2C4AE94872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="338">
+  <si>
+    <t>任务ID_QuestID</t>
+  </si>
   <si>
     <t>显示名称_DisplayName(Origin)</t>
   </si>
@@ -670,25 +673,25 @@
 0#测试追踪项2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
   <si>
+    <t>Aliança dos Caçadores</t>
+  </si>
+  <si>
     <t>Caverna dos Lobos</t>
   </si>
   <si>
-    <t>A Aliança dos Caçadores</t>
-  </si>
-  <si>
-    <t>Líder da Matilha</t>
-  </si>
-  <si>
-    <t>Avaliação do Caçador</t>
-  </si>
-  <si>
-    <t>No Fogo</t>
+    <t>Líder da Alcateia</t>
+  </si>
+  <si>
+    <t>Exame Médico do Caçador</t>
+  </si>
+  <si>
+    <t>Rumo ao Fogo</t>
   </si>
   <si>
     <t>Retorno das Cavernas</t>
   </si>
   <si>
-    <t>Partir</t>
+    <t>Partida</t>
   </si>
   <si>
     <t>Reconhecimento</t>
@@ -697,16 +700,19 @@
     <t>Seguidores de Ifrit</t>
   </si>
   <si>
-    <t>Fortaleza Pedra Vermelha</t>
-  </si>
-  <si>
-    <t>O Nasir e o Akhal</t>
-  </si>
-  <si>
-    <t>O Nasir</t>
-  </si>
-  <si>
-    <t>O Akhal</t>
+    <t>Conselheiro</t>
+  </si>
+  <si>
+    <t>Fortaleza da Pedra Vermelha</t>
+  </si>
+  <si>
+    <t>Os Nasir e os Akhal</t>
+  </si>
+  <si>
+    <t>Os Nasir</t>
+  </si>
+  <si>
+    <t>Os Akhal</t>
   </si>
   <si>
     <t>Encontro com um Guerreiro Covarde</t>
@@ -718,10 +724,10 @@
     <t>Partida de um Guerreiro Covarde</t>
   </si>
   <si>
-    <t>Bandidos nos Penhascos da Umbra</t>
-  </si>
-  <si>
-    <t>Vestígios da Guerra</t>
+    <t>Bandidos nos Penhascos de Umbra</t>
+  </si>
+  <si>
+    <t>Vestígios de Guerra</t>
   </si>
   <si>
     <t>Farinha de Trigo</t>
@@ -730,7 +736,7 @@
     <t>Acenda a Lanterna</t>
   </si>
   <si>
-    <t>Manter a Guarda</t>
+    <t>Fique de Guarda</t>
   </si>
   <si>
     <t>Estátuas dos Guerreiros do Fogo</t>
@@ -751,7 +757,7 @@
     <t>Mago Misterioso</t>
   </si>
   <si>
-    <t>Bêbado Dormindo</t>
+    <t>O Bêbado</t>
   </si>
   <si>
     <t>Visite os Ximmerianos</t>
@@ -760,13 +766,13 @@
     <t>Estranheza</t>
   </si>
   <si>
-    <t>Procurando Rabia</t>
-  </si>
-  <si>
-    <t>Na Caçada por Rabia</t>
-  </si>
-  <si>
-    <t>Catacumba do Rei Antigo</t>
+    <t>Em Busca de Rabia</t>
+  </si>
+  <si>
+    <t>Na Caça por Rabia</t>
+  </si>
+  <si>
+    <t>Catacumba do Velho Rei</t>
   </si>
   <si>
     <t>Bandidos</t>
@@ -775,166 +781,168 @@
     <t>Salve os Nobres</t>
   </si>
   <si>
-    <t>A Primeira Batalha do Nasir e do Akhal</t>
-  </si>
-  <si>
-    <t>A Segunda Batalha do Nasir e do Akhal</t>
-  </si>
-  <si>
-    <t>A Terceira Batalha do Nasir e do Akhal</t>
+    <t>Vazio de Lava Pāhoehoe</t>
+  </si>
+  <si>
+    <t>A Primeira Batalha dos Nasir e dos Akhal</t>
+  </si>
+  <si>
+    <t>A Segunda Batalha dos Nasir e dos Akhal</t>
+  </si>
+  <si>
+    <t>A Terceira Batalha dos Nasir e dos Akhal</t>
   </si>
   <si>
     <t>Missão de Teste</t>
   </si>
   <si>
-    <t>Um caçador local pediu para se juntar a você na caça aos &lt;color=red&gt;Lobos&lt;/color&gt; e partiu antecipadamente. Vocês concordaram em se encontrar na entrada da caverna &lt;color=red&gt;ao norte do acampamento no noroeste do Vale da Pedra Vermelha&lt;/color&gt;, onde os lobos costumam caçar.</t>
-  </si>
-  <si>
-    <t>Derrote a matilha de lobos &lt;color=red&gt;ao norte do acampamento nas cavernas do Vale da Pedra Vermelha no noroeste&lt;/color&gt;!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vá para as cavernas e derrote o &lt;color=red&gt;Líder da Matilha de Lobos&lt;/color&gt;!
-</t>
-  </si>
-  <si>
-    <t>Verifique o &lt;color=red&gt;Caçador&lt;/color&gt; desmaiado.</t>
-  </si>
-  <si>
-    <t>Verifique as &lt;color=red&gt;chamas&lt;/color&gt; que surgiram repentinamente das cavernas.</t>
+    <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:Sobre a Missão de Teste]]#通用村落招募冷却中</t>
+  </si>
+  <si>
+    <t>Um caçador local pediu para se juntar a você na caça de &lt;color=red&gt;lobos &lt;/color&gt;e partiu com antecedência. Você combina de se encontrar na entrada da caverna &lt;color=red&gt;ao norte do acampamento, no noroeste do Vale de Pedra Vermelha&lt;/color&gt;, onde os lobos costumam caçar.</t>
+  </si>
+  <si>
+    <t>Derrote a matilha de lobos &lt;color=red&gt;ao norte do acampamento, nas cavernas à noroeste do Vale de Pedra Vermelha&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>Vá para as cavernas e derrote o &lt;color=red&gt;Líder da Matilha de Lobos&lt;/color&gt;!</t>
+  </si>
+  <si>
+    <t>Verifique o &lt;color=red&gt;caçador&lt;/color&gt; desmaiado.</t>
+  </si>
+  <si>
+    <t>Confira as &lt;color=red&gt;chamas&lt;/color&gt; que surgiram repentinamente nas cavernas.</t>
   </si>
   <si>
     <t>Saia das cavernas e relate as boas notícias!</t>
   </si>
   <si>
-    <t>Volte para o acampamento e converse com o &lt;color=red&gt;Caçador&lt;/color&gt; no &lt;color=red&gt;Vale da Pedra Vermelha no noroeste&lt;/color&gt; mais uma vez.</t>
-  </si>
-  <si>
-    <t>O Caçador sugere que você encontre um &lt;color=red&gt;Guarda&lt;/color&gt; na &lt;color=red&gt;Fortaleza Pedra Vermelha&lt;/color&gt; para iniciar sua jornada de aventuras!</t>
-  </si>
-  <si>
-    <t>O Guarda da Fortaleza Pedra Vermelha parece não reconhecê-lo. Volte quando tiver conquistado 3 Favores.</t>
-  </si>
-  <si>
-    <t>O Guarda da Fortaleza Pedra Vermelha pede que você traga 3 esquadrões de tropas para investigar a luta no &lt;color=red&gt;Acampamento dos Seguidores de Ifrit&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Os &lt;color=red&gt;Seguidores de Ifrit&lt;/color&gt; podem ser encontrados &lt;color=red&gt;a sudoeste de Rocha Chorosa&lt;/color&gt;, perto do Posto de Observação do Oeste. &lt;color=red&gt;Siga ao norte saindo da Fortaleza Pedra Vermelha&lt;/color&gt; para chegar a Rocha Chorosa.</t>
-  </si>
-  <si>
-    <t>O Guarda da Fortaleza Pedra Vermelha recomenda você ao &lt;color=red&gt;Consigliere&lt;/color&gt;, que está inspecionando as minas a &lt;color=red&gt;nordeste&lt;/color&gt; da Fortaleza Pedra Vermelha. Siga a estrada leste ao sair do Acampamento da Brasa.</t>
-  </si>
-  <si>
-    <t>Consigliere</t>
-  </si>
-  <si>
-    <t>O Oficial da Guarda da Fortaleza Pedra Vermelha convida você a ajudar a &lt;color=red&gt;reconstruir a cidade&lt;/color&gt;. Obtenha mais detalhes diretamente com ele.</t>
-  </si>
-  <si>
-    <t>As duas tribos mais poderosas - &lt;color=red&gt;os Nasir&lt;/color&gt; e &lt;color=red&gt;os Akhal&lt;/color&gt; - enviaram emissários para a Fortaleza Pedra Vermelha. Se você está pensando em se juntar a uma delas, pode valer a pena procurá-las.</t>
-  </si>
-  <si>
-    <t>Você decide se juntar aos &lt;color=red&gt;Nasir&lt;/color&gt;, os governantes da Cidade de Jamal que derrubaram &lt;color=red&gt;a Antiga Dinastia Nephrit&lt;/color&gt; e conquistaram &lt;color=red&gt;a Cidade de Jamal&lt;/color&gt;.
-Converse com o emissário deles na &lt;color=red&gt;Fortaleza Pedra Vermelha&lt;/color&gt; para saber quais missões eles podem ter reservado para você.</t>
-  </si>
-  <si>
-    <t>Você se alia aos &lt;color=red&gt;Akhal&lt;/color&gt;. Esta poderosa tribo do sul vem e vai como o vento.
-Converse com o emissário deles na &lt;color=red&gt;Fortaleza Pedra Vermelha&lt;/color&gt; para saber quais missões eles podem ter reservado para você.</t>
-  </si>
-  <si>
-    <t>Ouça a primeira grande história contada pelo guerreiro para &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste do &lt;color=red&gt;Vale da Pedra Vermelha&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Ouça a segunda grande história contada pelo guerreiro para &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste do &lt;color=red&gt;Vale da Pedra Vermelha&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Ouça a terceira grande história contada pelo guerreiro para &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas do noroeste do &lt;color=red&gt;Vale da Pedra Vermelha&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Um comerciante da vila de &lt;color=red&gt;Fleur&lt;/color&gt; lhe conta sobre a crescente atividade dos saqueadores a &lt;color=red&gt;leste&lt;/color&gt; e implora que você acabe com a desordem deles.</t>
-  </si>
-  <si>
-    <t>Coloque flores secas em dois locais famosos da Batalha do Sol Negro localizados a &lt;color=red&gt;leste&lt;/color&gt; e a &lt;color=red&gt;sudoeste&lt;/color&gt; de Fleur.</t>
-  </si>
-  <si>
-    <t>Um velho em Fleur pede que você o ajude a levar um saco de farinha de trigo para &lt;color=red&gt;sua velha senhora&lt;/color&gt; próxima.</t>
-  </si>
-  <si>
-    <t>Aceitando a farinha de trigo, a &lt;color=red&gt;velha senhora&lt;/color&gt; pede que você a ajude: colha &lt;color=red&gt;10 Flores de Tairquila&lt;/color&gt; para ela espremer na parafina de sua lanterna.</t>
-  </si>
-  <si>
-    <t>Você percebe que a &lt;color=red&gt;velha senhora&lt;/color&gt; é completamente cega e que a parafina é para ajudar o &lt;color=red&gt;velho senhor&lt;/color&gt; a cuidar dela na escuridão. Você fica em dúvida sobre se deve &lt;color=red&gt;revelar isso ao velho senhor&lt;/color&gt;...</t>
-  </si>
-  <si>
-    <t>Encontre &lt;color=red&gt;6 ou mais&lt;/color&gt; Estátuas do Guerreiro do Fogo antes do término da contagem regressiva de &lt;color=red&gt;7 dias&lt;/color&gt;. Relate de volta ao aventureiro em Fleur assim que terminar para reivindicar seu prêmio.</t>
-  </si>
-  <si>
-    <t>Uma garota estranha no lago próximo aos Penhascos Umbra de Fleur precisa de uma &lt;color=red&gt;Orquídea&lt;/color&gt;, uma &lt;color=red&gt;Flor da Serpente Azul&lt;/color&gt; e uma &lt;color=red&gt;Flor Namti&lt;/color&gt; para produzir sua cura para tudo. As flores devem ser colhidas &lt;color=red&gt;nos últimos 3 dias&lt;/color&gt;, para que o remédio funcione.</t>
-  </si>
-  <si>
-    <t>Guerreiros se reuniram em algum lugar próximo aos Penhascos Umbra de Fleur para realizar um grande Desafio de Gladiadores! Vá até lá e conquiste a coroa.</t>
-  </si>
-  <si>
-    <t>Um ferreiro em Fleur pede um favor: caso você encontre um jovem ferreiro chamado &lt;color=red&gt;Tabassum&lt;/color&gt;, poderia por favor dizer a ele para voltar para casa?</t>
-  </si>
-  <si>
-    <t>Tabassum se recusa a voltar para casa. Ele está trabalhando em si mesmo e em sua arte em solidão, e espera que você possa transmitir a mensagem a seu pai.</t>
+    <t>Volte ao acampamento e converse novamente com o &lt;color=red&gt;Caçador&lt;/color&gt; à &lt;color=red&gt;noroeste do Vale de Pedra Vermelha&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>O Caçador sugere que você encontre um &lt;color=red&gt;Guarda&lt;/color&gt; em &lt;color=red&gt;Forte de Pedra Vermelha&lt;/color&gt; para iniciar sua jornada de aventuras!</t>
+  </si>
+  <si>
+    <t>O Guarda de Forte da Pedra Vermelha parece não reconhecê-lo. Volte quando tiver conquistado 3 Favores.</t>
+  </si>
+  <si>
+    <t>O Guarda de Forte Pedra Vermelha pede para você trazer 3 esquadrões de tropas para investigar a luta no &lt;color=red&gt;Acampamento dos Seguidores de Ifrit&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Os &lt;color=red&gt;Seguidores de Ifrit&lt;/color&gt; podem ser encontrados &lt;color=red&gt;a sudoeste de Pedra Chorosa&lt;/color&gt; perto do Posto Avançado Oeste. &lt;color=red&gt;Siga para o norte da Fortaleza Pedra Vermelha&lt;/color&gt; para chegar a Pedra Chorosa.</t>
+  </si>
+  <si>
+    <t>O guarda de Fortaleza Pedra Vermelha recomenda que você fale com o &lt;color=red&gt;Conselheiro&lt;/color&gt;, que está inspecionando as minas &lt;color=red&gt;ao nordeste&lt;/color&gt; de Fortaleza Pedra Vermelha. Siga a estrada leste ao sair do Acampamento Ember.</t>
+  </si>
+  <si>
+    <t>O Oficial da Guarda da Fortaleza Pedra Vermelha convida você a ajudar a &lt;color=red&gt;reconstruir a cidade&lt;/color&gt;. Obtenha mais detalhes diretamente dele.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As duas tribos mais poderosas - &lt;color=red&gt;os Nasir&lt;/color&gt; e &lt;color=red&gt;os Akhal&lt;/color&gt; - enviaram emissários à Fortaleza Pedra Vermelha. Se você está pensando em se juntar a um deles, pode valer a pena procurá-los. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Você decide se juntar &lt;color=red&gt;aos Nasir&lt;/color&gt;, os governantes da Cidade de Jamal que derrubaram &lt;color=red&gt;a Velha Dinastia Néfrítica&lt;/color&gt; e conquistaram a &lt;color=red&gt;Cidade de Jamal&lt;/color&gt;.
+Converse com seu emissário na &lt;color=red&gt;Fortaleza Pedra Vermelha&lt;/color&gt; para saber sobre as missões que eles podem ter reservado para você. </t>
+  </si>
+  <si>
+    <t>Você joga sua sorte com &lt;color=red&gt;os Akhal&lt;/color&gt;. Esta poderosa tribo do sul vem e vai como o vento.
+Converse com seu emissário na &lt;color=red&gt;Fortaleza Pedra Vermelha&lt;/color&gt; para saber sobre as missões que eles podem ter reservado para você.</t>
+  </si>
+  <si>
+    <t>Ouça o terceiro conto contado pelo guerreiro ao &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas à noroeste do &lt;color=red&gt;Vale da Pedra Vermelha&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Ouça o primeiro conto contado pelo guerreiro ao &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas à noroeste do &lt;color=red&gt;Vale Pedra da Vermelha&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Ouça o segundo conto contado pelo guerreiro ao &lt;color=red&gt;seu irmão&lt;/color&gt; nas terras altas à noroeste do &lt;color=red&gt;Vale da Pedra da Vermelha&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Um comerciante da vila de &lt;color=red&gt;Fleur&lt;/color&gt; fala sobre a intensificação da atividade dos saqueadores ao &lt;color=red&gt;leste&lt;/color&gt; e implora que você controle aquela desordem.</t>
+  </si>
+  <si>
+    <t>Coloque flores secas em dois locais famosos da Batalha do Sol Negro localizados ao &lt;color=red&gt;leste&lt;/color&gt; e &lt;color=red&gt;sudoeste&lt;/color&gt; de Fleur.</t>
+  </si>
+  <si>
+    <t>Um velho em Fleur pede ajuda para levar um saco de farinha de trigo até &lt;color=red&gt;sua velha esposa&lt;/color&gt; nas proximidades.</t>
+  </si>
+  <si>
+    <t>Aceitando a farinha de trigo, a &lt;color=red&gt;senhora idosa&lt;/color&gt; pede um favor: colher &lt;color=red&gt;10 Flores de Tairquila&lt;/color&gt; para ela fazer parafina para sua lanterna.</t>
+  </si>
+  <si>
+    <t>Você percebe que a &lt;color=red&gt;senhora idosa&lt;/color&gt; é completamente cega e que a parafina é para ajudar o &lt;color=red&gt;senhor idoso&lt;/color&gt; a cuidar dela na escuridão. Você pensa por um breve momento sobre se deve &lt;color=red&gt;revelar isso ao senhor idoso&lt;/color&gt;...</t>
+  </si>
+  <si>
+    <t>Encontre &lt;color=red&gt;6 ou mais&lt;/color&gt; Estátuas de Guerreiro de Fogo antes da &lt;color=red&gt;contagem regressiva de 7 dias&lt;/color&gt; expirar. Relate de volta ao aventureiro em Fleur assim que concluir para reivindicar seu prêmio.</t>
+  </si>
+  <si>
+    <t>Uma garota estranha no lago perto dos Penhascos Umbra de Fleur precisa de uma &lt;color=red&gt;Orquídea&lt;/color&gt;, uma &lt;color=red&gt;Flor de Serpente Azul&lt;/color&gt; e uma &lt;color=red&gt;Flor de Namti&lt;/color&gt; para produzir uma cura. As flores devem ser colhidas recentemente, &lt;color=red&gt;nos últimos 3 dias&lt;/color&gt;, para preparar o remédio.</t>
+  </si>
+  <si>
+    <t>Guerreiros se reuniram em algum lugar perto dos Penhascos Umbra de Fleur para realizar um grandioso Desafio de Gladiadores! Vá até lá e conquiste a coroa.</t>
+  </si>
+  <si>
+    <t>Um ferreiro em Fleur pede um favor: caso você encontre um jovem ferreiro chamado &lt;color=red&gt;Tabassum&lt;/color&gt;, poderia dizer a ele para voltar para casa?</t>
+  </si>
+  <si>
+    <t>Tabassum se recusa a ir para casa. Ele quer praticar suas habilidades de ferreiro sozinho. Ele pede que você conte ao pai dele sobre essa decisão.</t>
   </si>
   <si>
     <t>Você persuadiu o velho ferreiro a visitar seu filho.</t>
   </si>
   <si>
-    <t>Reunidos, o ferreiro e seu filho decidem se envolver em uma competição amigável, forjando cada um uma obra-prima. Tabassum pediu a você um conjunto de &lt;color=red&gt;Ferramentas Básicas de Forja&lt;/color&gt; e &lt;color=red&gt;Ferramentas Avançadas de Forja&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>O ferreiro e seu filho completaram suas obras-primas. A competição está prestes a começar...</t>
-  </si>
-  <si>
-    <t>Um homem doente chamado &lt;color=red&gt;Rwal&lt;/color&gt; chega ao acampamento, pedindo uma garrafa de &lt;color=red&gt;Elixir de Cura&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; pode saber como conseguir isso.</t>
-  </si>
-  <si>
-    <t>&lt;color=red&gt;Mochi&lt;/color&gt; menciona rumores sobre um habilidoso Boticário em &lt;color=red&gt;Fleur nos Penhascos Umbra&lt;/color&gt;, ele espera visitar um dia.</t>
-  </si>
-  <si>
-    <t>Você encontra um homem dormindo no Mercado Dourado que se recusa a acordar, não importa o que você tente. Suspeitando que ele está bêbado, você decide reunir e destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; em um suco - mais do que suficiente para despertar seus sentidos.</t>
-  </si>
-  <si>
-    <t>Você consegue acordar &lt;color=red&gt;Gulzar&lt;/color&gt; de seu sono, e ele foge rapidamente para se juntar à &lt;color=red&gt;Tribo Ximmeriana&lt;/color&gt;. Se você quiser vê-lo novamente, terá que esperar até que ele retorne aos &lt;color=red&gt;Ximmerianos&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Depois de ressuscitar &lt;color=red&gt;Gulzar&lt;/color&gt;, ele foge de volta para os &lt;color=red&gt;Ximmerianos&lt;/color&gt; - mas os guardas locais recusam sua entrada. Se você quiser saber mais, terá que enfrentar os guardas.</t>
-  </si>
-  <si>
-    <t>Um homem chamado &lt;color=red&gt;Ishtar&lt;/color&gt; confessa que tem tentado capturar um poderoso líder de bandidos chamado &lt;color=red&gt;Rabia&lt;/color&gt;, que se esconde nos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Após &lt;color=red&gt;Rabia&lt;/color&gt; fugir, Ishtar sugere que vocês se dividam para cobrir mais território. Encontrem-se com Ishtar de tempos em tempos e compartilhem informações sobre o paradeiro de Rabia. Isso também é uma boa maneira de aumentar seu &lt;color=red&gt;Favor&lt;/color&gt; com Ishtar.</t>
-  </si>
-  <si>
-    <t>Após &lt;color=red&gt;Rabia&lt;/color&gt; fugir, Ishtar suspeita que ele possa estar nas &lt;color=red&gt;Catacumbas do Rei Antigo&lt;/color&gt; escondidas perto dos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;. Essas catacumbas estão encantadas com uma magia poderosa e são um símbolo duradouro da ruína real.</t>
-  </si>
-  <si>
-    <t>Agradecendo por sua ajuda, &lt;color=red&gt;Ishtar&lt;/color&gt; oferece-se para se juntar à sua equipe, caso você deseje. Encontre-o novamente na &lt;color=red&gt;Fortaleza Pedra Vermelha&lt;/color&gt;.</t>
-  </si>
-  <si>
-    <t>Agradecendo por sua ajuda, &lt;color=red&gt;Rabia&lt;/color&gt; oferece-se para se juntar à sua equipe, caso você deseje. Encontre-o novamente no &lt;color=red&gt;Vale do Gelo&lt;/color&gt;.</t>
+    <t>Reunidos, o ferreiro e seu filho decidem participar de uma competição amigável, cada um forjando uma obra-prima. Tabassum pediu a você por um conjunto de &lt;color=red&gt;Ferramentas Básicas de Forja&lt;/color&gt; e &lt;color=red&gt;Ferramentas Avançadas de Forja&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>O ferreiro e seu filho completaram suas obras-primas. A competição está prestes a começar…</t>
+  </si>
+  <si>
+    <t>Um homem doente chamado &lt;color=red&gt;Rwal&lt;/color&gt; chega ao acampamento, pedindo por uma garrafa de &lt;color=red&gt;Elixir de Cura&lt;/color&gt;. &lt;color=red&gt;Shirim&lt;/color&gt; pode saber como conseguir isso.</t>
+  </si>
+  <si>
+    <t>&lt;color=red&gt;Mochi&lt;/color&gt; menciona rumores sobre um brilhante Alquimista em &lt;color=red&gt;Fleur nos Penhascos Umbra&lt;/color&gt;, ele espera visitar um dia.</t>
+  </si>
+  <si>
+    <t>Você encontra um homem dormindo no Bazar Dourado que se recusa a acordar, não importa o que você faça. Suspeitando que ele está bêbado, você decide reunir e destilar &lt;color=red&gt;cinco Flores Amargas&lt;/color&gt; em um suco - mais do que suficiente para despertar seus sentidos.</t>
+  </si>
+  <si>
+    <t>Você consegue acordar &lt;color=red&gt;Gulzar&lt;/color&gt; de seu sono, que foge imediatamente para se juntar à &lt;color=red&gt;Tribo Ximmeriana&lt;/color&gt;. Se quiser vê-lo novamente, terá que esperar até que ele volte para os &lt;color=red&gt;Ximmerianos&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Após acordar &lt;color=red&gt;Gulzar&lt;/color&gt;, ele foge de volta para os &lt;color=red&gt;Ximmerianos&lt;/color&gt; - mas os guardas locais recusam sua entrada. Se quiser saber mais, terá que superar os guardas, nem que seja a força.</t>
+  </si>
+  <si>
+    <t>Um homem chamado &lt;color=red&gt;Ishtar&lt;/color&gt; confessa que está tentando capturar um líder de bandidos poderoso chamado &lt;color=red&gt;Rabia&lt;/color&gt;, que se esconde nos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Após &lt;color=red&gt;Rabia&lt;/color&gt; fugir, Ishtar sugere que vocês se separem para cobrir mais terreno. Encontrem-se com Ishtar de tempos em tempos e compartilhem informações sobre o paradeiro de Rabia. Isso também é uma boa maneira de aumentar seu &lt;color=red&gt;Favor&lt;/color&gt; com Ishtar.</t>
+  </si>
+  <si>
+    <t>Após &lt;color=red&gt;Rabia&lt;/color&gt; fugir, Ishtar acha que ele pode estar nas &lt;color=red&gt;Catacumbas do Velho Rei&lt;/color&gt; escondidas perto dos &lt;color=red&gt;Penhascos Umbra de Fleur&lt;/color&gt;. Essas catacumbas estão encantadas com uma magia poderosa e são um símbolo duradouro da ruína real.</t>
+  </si>
+  <si>
+    <t>Agradecendo por sua ajuda, &lt;color=red&gt;Ishtar&lt;/color&gt; oferece-se para se juntar à sua &lt;color=red&gt;equipe&lt;/color&gt; se desejar. Encontre-o novamente na &lt;color=red&gt;Fortaleza de Pedra Vermelha&lt;/color&gt;.</t>
+  </si>
+  <si>
+    <t>Agradecendo por sua ajuda, &lt;color=red&gt;Rabia&lt;/color&gt; oferece-se para se juntar à sua &lt;color=red&gt;equipe&lt;/color&gt; se desejar. Encontre-o novamente no &lt;color=red&gt;Vale da Geada&lt;/color&gt;.</t>
   </si>
   <si>
     <t>Procure o Acampamento de Bandidos em &lt;color=red&gt;Rocha Chorosa&lt;/color&gt;.</t>
   </si>
   <si>
-    <t>Agora que os bandidos foram eliminados, relate de volta ao &lt;color=red&gt;Embaixador Nasir&lt;/color&gt; na Fortaleza Pedra Vermelha.</t>
-  </si>
-  <si>
-    <t>Dirija-se ao &lt;color=red&gt;Vale do Gelo perto das Montanhas Zagros&lt;/color&gt; e resgate os nobres indefesos debaixo da avalanche.</t>
-  </si>
-  <si>
-    <t>Agora que os nobres foram resgatados com segurança, relate de volta ao &lt;color=red&gt;Embaixador Nasir&lt;/color&gt; na Fortaleza Pedra Vermelha.</t>
-  </si>
-  <si>
-    <t>Procure o &lt;color=red&gt;Vazio de Lava Pāhoehoe&lt;/color&gt; queimado pelos Ghouls de Ifrit perto dos &lt;color=red&gt;Penhascos Umbra&lt;/color&gt; e junte as peças do que realmente aconteceu.</t>
-  </si>
-  <si>
-    <t>Agora que as bestas da caverna foram abatidas, relate de volta ao &lt;color=red&gt;Embaixador Nasir&lt;/color&gt; na Fortaleza Pedra Vermelha.</t>
+    <t>Dirija-se ao &lt;color=red&gt;Vale da Geada, próximo das Montanhas Zagros&lt;/color&gt;, e resgate os nobres indefesos de baixo da avalanche.</t>
+  </si>
+  <si>
+    <t>Agora que os nobres foram resgatados com segurança, informe ao &lt;color=red&gt;Mensageiro/Enviado/Representante de Nasir&lt;/color&gt; no Forte Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Agora que os bandidos foram eliminados, informe ao &lt;color=red&gt;Mensageiro/Enviado/Representante de Nasir&lt;/color&gt; no Forte Pedra Vermelha.</t>
+  </si>
+  <si>
+    <t>Investigue o Vazio de Lava Pāhoehoe queimado pelos Carniceiros de Ifrit perto dos &lt;color=red&gt;Penhascos Umbra&lt;/color&gt; e descubra o que realmente aconteceu.</t>
+  </si>
+  <si>
+    <t>Agora que as bestas da caverna foram abatidas, informe ao &lt;color=red&gt;Mensageiro/Enviado/Representante de Nasir&lt;/color&gt; no Forte Pedra Vermelha.</t>
   </si>
   <si>
     <t>Lute na &lt;color=red&gt;primeira batalha entre os Nasir e os Akhal&lt;/color&gt;.</t>
@@ -946,10 +954,10 @@
     <t>Lute na &lt;color=red&gt;terceira batalha entre os Nasir e os Akhal&lt;/color&gt;.</t>
   </si>
   <si>
-    <t>Um caçador local pediu para se juntar a você na caça aos &lt;color=red&gt;Lobos&lt;/color&gt; e partiu antecipadamente. Vocês concordam em se encontrar na entrada da caverna &lt;color=red&gt;ao norte do acampamento no noroeste do Vale de Pedra Vermelha&lt;/color&gt;, onde os lobos costumam caçar.</t>
-  </si>
-  <si>
-    <t>0#Encontre o Caçador perto das cavernas#1|红石城魔狼猎人</t>
+    <t>Um caçador local pediu para se juntar a você na captura de &lt;color=red&gt;Lobos&lt;/color&gt; e partiu com antecedência. Você faz um acordo para se encontrar na entrada da caverna &lt;color=red&gt;ao norte do acampamento, no noroeste do Vale Pedra Vermelha&lt;/color&gt;, onde os lobos costumam caçar.</t>
+  </si>
+  <si>
+    <t>0#Encontre-se com o Caçador perto das cavernas#1|红石城魔狼猎人</t>
   </si>
   <si>
     <t>0#Derrote os lobos#1|trigger:世俗主线魔狼主线猎人晕倒</t>
@@ -958,7 +966,7 @@
     <t>0#Derrote o Líder da Matilha#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Verifique o Caçador desmaiado#1|红石城魔狼猎人</t>
+    <t>0#Verifique o estado do Caçador#1|红石城魔狼猎人</t>
   </si>
   <si>
     <t>0#Aproxime-se das chamas#0|trigger:世俗主线魔狼主线猎人闪光2</t>
@@ -970,16 +978,16 @@
     <t>0#Converse com o Caçador#1|红石城魔狼猎人</t>
   </si>
   <si>
-    <t>0#Converse com o Guarda de Fortaleza Pedra Vermelha#1|火魔讨伐军招募</t>
+    <t>0#Converse com o Guarda da Fortaleza da Pedra Vermelha#1|火魔讨伐军招募</t>
   </si>
   <si>
     <t>0#Ganhe 3 Favor3#1|火魔讨伐军招募</t>
   </si>
   <si>
-    <t>0#Reúna três esquadrões#1|火魔讨伐军招募</t>
-  </si>
-  <si>
-    <t>0#Ataque o acampamento dos Seguidores de Ifrit#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
+    <t>0#Tenha três esquadrões#1|火魔讨伐军招募</t>
+  </si>
+  <si>
+    <t>0#Ataque o acampamento dos seguidores do Ifrit#1##沙盒风哭岩:-1859,-9236:500|trigger:世俗主线红石城守卫火魔人营地</t>
   </si>
   <si>
     <t>0#Complete a história#1##沙盒红石城:2804,1203:300|红石城矿工</t>
@@ -997,25 +1005,25 @@
     <t>0#Derrote os bandidos a leste de Fleur#1##沙盒黑崖花卉乡:3315,-3315:1000|trigger:花卉乡强盗营地一</t>
   </si>
   <si>
-    <t>0#Viaje para dois locais de batalha do Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000
-0#Viaje para dois locais de batalha do Sol Negro B#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
-  </si>
-  <si>
-    <t>0#Vá para a casa da velha#1|守望老妇人</t>
-  </si>
-  <si>
-    <t>4#Colete dez Flores Tairquila#10#托琪拉花#</t>
+    <t>0#Vá para as ruínas do campo de batalha da Guerra do Sol Negro A#1##沙盒黑崖花卉乡:2058,-1205:1000
+0#Vá para as ruínas do campo de batalha da Guerra do Sol Negro B#1##沙盒黑崖花卉乡:-2632,-2013:1000</t>
+  </si>
+  <si>
+    <t>0#Dirija-se à casa da velha#1|守望老妇人</t>
+  </si>
+  <si>
+    <t>4#Colete dez Flores de Tairquila#10#托琪拉花#</t>
   </si>
   <si>
     <t>0#Complete a história#1##沙盒黑崖花卉乡:-4688,-9506:0|黑崖守望老人3</t>
   </si>
   <si>
-    <t>0#Encontre seis estátuas de Guerreiros de Fogo#6</t>
-  </si>
-  <si>
-    <t>0#Escolha uma Orquídea fresca#1
-0#Escolha uma Flor de Serpente Azul fresca#1
-0#Escolha uma Flor Namti fresca#1|任务黑崖湖边少女</t>
+    <t>0#Encontre seis estátuas do Guerreiro de Fogo#6</t>
+  </si>
+  <si>
+    <t>0#Colha uma Orquídea fresca#1
+0#Colha uma Flor de Serpente Azul fresca#1
+0#Colha uma Flor de Namti fresca#1|任务黑崖湖边少女</t>
   </si>
   <si>
     <t>0#Reivindique a vitória no Desafio do Gladiador#1##沙盒黑崖花卉乡:-4563,-705:0</t>
@@ -1027,7 +1035,7 @@
     <t>0#Complete a história#1##沙盒黑崖花卉乡:-1507,-1212:0|任务黑崖铁匠花卉乡</t>
   </si>
   <si>
-    <t>0#Aguarde o velho ferreiro encontrar Tabassum#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
+    <t>0#Aguarde o ferreiro idoso encontrar Tabassum#1##沙盒黑崖花卉乡:-1442,-11396:500|任务黑崖托也普</t>
   </si>
   <si>
     <t>4#Encontre um conjunto de Ferramentas Básicas de Forja#1#基础锻造工具#
@@ -1043,7 +1051,7 @@
     <t>4#Recolha 5 Flores Amargas#5#苦花#</t>
   </si>
   <si>
-    <t>0#Visite Gulzar após ele retornar à tribo Ximmeriana#1</t>
+    <t>0#Visite Gulzar após seu retorno à tribo Ximmeriana#1</t>
   </si>
   <si>
     <t>0#Encontre Gulzar#1##沙盒双月山谷:6226,5126:0</t>
@@ -1064,35 +1072,23 @@
     <t>0#Encontre Rabia#1</t>
   </si>
   <si>
-    <t>0#Encontre o Acampamento dos Bandidos#1|trigger:世俗主线密使任务通用2山洞标记</t>
-  </si>
-  <si>
-    <t>0#Encontre o Enviado da Nasir#1</t>
-  </si>
-  <si>
-    <t>0#Encontre os nobres presos#1|trigger:世俗主线密使任务通用3山洞标记</t>
-  </si>
-  <si>
-    <t>0#Encontre o Enviado da Nasi#1</t>
+    <t>0#Encontre o Acampamento de Bandidos#1|trigger:世俗主线密使任务通用2山洞标记</t>
+  </si>
+  <si>
+    <t>0#Encontre o Mensageiro/Enviado/Representante de Nasir#1</t>
+  </si>
+  <si>
+    <t>0#Encontre os nobres aprisionados#1|trigger:世俗主线密使任务通用3山洞标记</t>
   </si>
   <si>
     <t>0#Encontre o Vazio de Lava Pāhoehoe#1|trigger:世俗主线密使任务通用4山洞标记</t>
   </si>
   <si>
-    <t>Vazio de Lava Pāhoehoe</t>
-  </si>
-  <si>
     <t>0#Reivindique a vitória#1</t>
   </si>
   <si>
-    <t>0#Testar Rastreador de Missões 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
-0#Testar Rastreador de Missões 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
-  </si>
-  <si>
-    <t>任务ID_QuestID</t>
-  </si>
-  <si>
-    <t>CLUE#[%tagrole:id%][=]霍驹|[%tagrole:id%][=]风颖#[[yellow:Sobre a missão de teste]]#通用村落招募冷却中</t>
+    <t>0#Rastreie a Missão de Teste 1#1##沙盒红石城:450,3000:1000|红石城魔狼猎人
+0#Rastreie a Missão de Teste 2#1##沙盒红石城:1000,500:0|红石城魔狼猎人</t>
   </si>
 </sst>
 </file>
@@ -1617,1302 +1613,1297 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="1"/>
-    <col min="2" max="2" width="9.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="96.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="255.625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="154.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="67.5">
       <c r="A1" s="7" t="s">
-        <v>337</v>
+        <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="202.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="256.5">
       <c r="A2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>201</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="108">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="121.5">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="67.5">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>241</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>245</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="67.5">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="81">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="94.5">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="108">
       <c r="A6" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="67.5">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="94.5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="121.5">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="175.5">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="135">
-      <c r="A9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="C9" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="94.5">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="121.5">
       <c r="A10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="148.5">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="108">
-      <c r="A11" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="C11" s="9" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="189">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="216">
       <c r="A12" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="189">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="243">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="D13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="121.5">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="162">
       <c r="A14" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D14" s="4"/>
       <c r="F14" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="202.5">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="256.5">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D15" s="4"/>
       <c r="F15" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="324">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="409.5">
       <c r="A16" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="243">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="310.5">
       <c r="A17" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D17" s="4"/>
       <c r="F17" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="121.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="148.5">
       <c r="A18" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="121.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="148.5">
       <c r="A19" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="121.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="148.5">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="189">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="324">
       <c r="A22" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="121.5">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="162">
       <c r="A23" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D23" s="3"/>
       <c r="F23" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="148.5">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="189">
       <c r="A24" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D24" s="3"/>
       <c r="F24" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="243">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="310.5">
       <c r="A25" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D25" s="3"/>
       <c r="F25" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="189">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="243">
       <c r="A26" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="270">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="351">
       <c r="A27" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D27" s="4"/>
       <c r="F27" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="108">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="121.5">
       <c r="A28" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D28" s="5"/>
       <c r="F28" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="175.5">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="202.5">
       <c r="A29" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D29" s="5"/>
       <c r="F29" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="175.5">
+      <c r="A30" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="162">
-      <c r="A30" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="C30" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D30" s="5"/>
       <c r="F30" s="5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I30" s="9" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="162">
       <c r="A31" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D31" s="5"/>
       <c r="F31" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="243">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="310.5">
       <c r="A32" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D32" s="5"/>
       <c r="F32" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="162">
       <c r="A33" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D33" s="5"/>
       <c r="F33" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="H33" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="216">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="270">
       <c r="A34" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="121.5">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="162">
       <c r="A35" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D35" s="3"/>
       <c r="F35" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="229.5">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="310.5">
       <c r="A36" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D36" s="3"/>
       <c r="F36" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="216">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="283.5">
       <c r="A37" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D37" s="3"/>
       <c r="F37" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="216">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="283.5">
       <c r="A38" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D38" s="3"/>
       <c r="F38" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="175.5">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="216">
       <c r="A39" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="216">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="256.5">
       <c r="A40" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="202.5">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="256.5">
       <c r="A41" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="108">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="135">
       <c r="A42" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="108">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="121.5">
       <c r="A43" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="121.5">
       <c r="A44" s="6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D44" s="6"/>
       <c r="F44" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="H44" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="108">
+      <c r="A45" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G44" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="81">
-      <c r="A45" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>168</v>
-      </c>
       <c r="C45" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D45" s="6"/>
       <c r="F45" s="6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="121.5">
       <c r="A46" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D46" s="6"/>
       <c r="F46" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="108">
+      <c r="A47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="94.5">
-      <c r="A47" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>175</v>
-      </c>
       <c r="C47" s="9" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D47" s="6"/>
       <c r="F47" s="6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="121.5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="162">
       <c r="A48" s="6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="D48" s="6"/>
       <c r="F48" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="121.5">
+      <c r="A49" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G48" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="94.5">
-      <c r="A49" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>181</v>
-      </c>
       <c r="C49" s="9" t="s">
-        <v>334</v>
+        <v>237</v>
       </c>
       <c r="D49" s="6"/>
       <c r="F49" s="6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="67.5">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="94.5">
       <c r="A50" s="6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D50" s="6"/>
       <c r="F50" s="6" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I50" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="81">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="94.5">
       <c r="A51" s="6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D51" s="6"/>
       <c r="F51" s="6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="81">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="94.5">
       <c r="A52" s="6" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="D52" s="6"/>
       <c r="F52" s="6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="243">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="256.5">
       <c r="A53" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>338</v>
+        <v>242</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>